--- a/data/originals/percentage_by_patient.xlsx
+++ b/data/originals/percentage_by_patient.xlsx
@@ -359,3050 +359,3050 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>369</v>
       </c>
       <c r="B2" t="n">
-        <v>18.0764774044032</v>
+        <v>93.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>278</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4843568945539</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="B4" t="n">
-        <v>18.1923522595597</v>
+        <v>84.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>325</v>
       </c>
       <c r="B5" t="n">
-        <v>20.973348783314</v>
+        <v>83.84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2653534183082</v>
+        <v>82.86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B7" t="n">
-        <v>20.6257242178447</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>20.3939745075319</v>
+        <v>82.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="B9" t="n">
-        <v>18.8489764387795</v>
+        <v>82.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="B10" t="n">
-        <v>15.7976052529934</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B11" t="n">
-        <v>18.5786017767478</v>
+        <v>80.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>377</v>
       </c>
       <c r="B12" t="n">
-        <v>16.0293549633063</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="B13" t="n">
-        <v>16.7632290459637</v>
+        <v>80.69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="B14" t="n">
-        <v>18.5786017767478</v>
+        <v>80.37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7288528389339</v>
+        <v>79.93</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="B16" t="n">
-        <v>14.1367323290846</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2653534183082</v>
+        <v>79.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="B18" t="n">
-        <v>18.8103514870606</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="B19" t="n">
-        <v>16.8404789494013</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>320</v>
       </c>
       <c r="B20" t="n">
-        <v>17.8447276940904</v>
+        <v>79.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="B21" t="n">
-        <v>18.2696021629973</v>
+        <v>79.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="B22" t="n">
-        <v>20.5098493626883</v>
+        <v>79.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="B23" t="n">
-        <v>20.2394747006566</v>
+        <v>78.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>366</v>
       </c>
       <c r="B24" t="n">
-        <v>17.0722286597142</v>
+        <v>78.74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="B25" t="n">
-        <v>20.0463499420626</v>
+        <v>78.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
+        <v>274</v>
       </c>
       <c r="B26" t="n">
-        <v>18.4627269215914</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="B27" t="n">
-        <v>18.4241019698725</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>302</v>
       </c>
       <c r="B28" t="n">
-        <v>19.6214754731557</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>323</v>
       </c>
       <c r="B29" t="n">
-        <v>16.1452298184627</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="B30" t="n">
-        <v>17.8833526458092</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>358</v>
       </c>
       <c r="B31" t="n">
-        <v>17.9992275009656</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="B32" t="n">
-        <v>12.3213595983005</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B33" t="n">
-        <v>19.1966010042487</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="B34" t="n">
-        <v>17.3426033217458</v>
+        <v>77.66</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="B35" t="n">
-        <v>17.0722286597142</v>
+        <v>77.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="B36" t="n">
-        <v>16.1066048667439</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="B37" t="n">
-        <v>17.6902278872151</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="B38" t="n">
-        <v>18.1537273078409</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38</v>
+        <v>308</v>
       </c>
       <c r="B39" t="n">
-        <v>18.3082271147161</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="B40" t="n">
-        <v>18.2309772112785</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="B41" t="n">
-        <v>20.0077249903438</v>
+        <v>77.22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="B42" t="n">
-        <v>19.0807261490923</v>
+        <v>77.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="B43" t="n">
-        <v>20.162224797219</v>
+        <v>77.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="B44" t="n">
-        <v>14.5229818462727</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="B45" t="n">
-        <v>17.303978370027</v>
+        <v>76.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="B46" t="n">
-        <v>19.351100811124</v>
+        <v>76.68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="B47" t="n">
-        <v>17.2267284665894</v>
+        <v>76.68</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="B48" t="n">
-        <v>12.8621089223638</v>
+        <v>76.57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c r="B49" t="n">
-        <v>14.4457319428351</v>
+        <v>76.46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="B50" t="n">
-        <v>18.1923522595597</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50</v>
+        <v>381</v>
       </c>
       <c r="B51" t="n">
-        <v>16.1066048667439</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="B52" t="n">
-        <v>16.3769795287756</v>
+        <v>75.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="B53" t="n">
-        <v>12.3599845500193</v>
+        <v>75.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="B54" t="n">
-        <v>13.441483198146</v>
+        <v>75.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="B55" t="n">
-        <v>15.3341058323677</v>
+        <v>75.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55</v>
+        <v>357</v>
       </c>
       <c r="B56" t="n">
-        <v>14.4457319428351</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="B57" t="n">
-        <v>15.1796060254925</v>
+        <v>75.27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="B58" t="n">
-        <v>14.4071069911163</v>
+        <v>75.27</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="B59" t="n">
-        <v>14.9092313634608</v>
+        <v>75.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59</v>
+        <v>346</v>
       </c>
       <c r="B60" t="n">
-        <v>13.9822325222093</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c r="B61" t="n">
-        <v>14.4843568945539</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="B62" t="n">
-        <v>13.0166087292391</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62</v>
+        <v>345</v>
       </c>
       <c r="B63" t="n">
-        <v>14.6002317497103</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="B64" t="n">
-        <v>12.4758594051757</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="B65" t="n">
-        <v>13.4801081498648</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65</v>
+        <v>317</v>
       </c>
       <c r="B66" t="n">
-        <v>14.059482425647</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="B67" t="n">
-        <v>14.7161066048667</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="B68" t="n">
-        <v>13.1711085361143</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c r="B69" t="n">
-        <v>12.2827346465817</v>
+        <v>74.73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="B70" t="n">
-        <v>13.7118578601777</v>
+        <v>74.73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="B71" t="n">
-        <v>18.6172267284666</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71</v>
+        <v>344</v>
       </c>
       <c r="B72" t="n">
-        <v>11.5102356122055</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="B73" t="n">
-        <v>13.8663576670529</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="B74" t="n">
-        <v>14.870606411742</v>
+        <v>74.4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="B75" t="n">
-        <v>15.4113557358053</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="B76" t="n">
-        <v>14.7547315565856</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76</v>
+        <v>336</v>
       </c>
       <c r="B77" t="n">
-        <v>16.492854383932</v>
+        <v>74.19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="B78" t="n">
-        <v>15.5658555426806</v>
+        <v>73.97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="B79" t="n">
-        <v>13.4028582464272</v>
+        <v>73.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="B80" t="n">
-        <v>12.0509849362688</v>
+        <v>73.86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="B81" t="n">
-        <v>14.0981073773658</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="B82" t="n">
-        <v>11.7033603707995</v>
+        <v>73.64</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="B83" t="n">
-        <v>15.2954808806489</v>
+        <v>73.54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="B84" t="n">
-        <v>12.3986095017381</v>
+        <v>73.54</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>84</v>
+        <v>375</v>
       </c>
       <c r="B85" t="n">
-        <v>14.9478563151796</v>
+        <v>73.54</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B86" t="n">
-        <v>16.492854383932</v>
+        <v>73.21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>86</v>
+        <v>370</v>
       </c>
       <c r="B87" t="n">
-        <v>14.2912321359598</v>
+        <v>73.21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="B88" t="n">
-        <v>14.3684820393975</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88</v>
+        <v>378</v>
       </c>
       <c r="B89" t="n">
-        <v>21.1664735419081</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="B90" t="n">
-        <v>19.5056006179992</v>
+        <v>72.99</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5531093086134</v>
+        <v>72.99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="B92" t="n">
-        <v>13.8277327153341</v>
+        <v>72.89</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="B93" t="n">
-        <v>13.7118578601777</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B94" t="n">
-        <v>12.5917342603322</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="B95" t="n">
-        <v>15.2568559289301</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="B96" t="n">
-        <v>11.8578601776748</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="B97" t="n">
-        <v>13.248358439552</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="B98" t="n">
-        <v>18.4241019698725</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>98</v>
+        <v>376</v>
       </c>
       <c r="B99" t="n">
-        <v>14.2139822325222</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="B100" t="n">
-        <v>16.1838547701815</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="B101" t="n">
-        <v>15.9521050598687</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>101</v>
+        <v>299</v>
       </c>
       <c r="B102" t="n">
-        <v>16.492854383932</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="B103" t="n">
-        <v>14.0981073773658</v>
+        <v>72.45</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="B104" t="n">
-        <v>13.5959830050212</v>
+        <v>72.45</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="B105" t="n">
-        <v>15.6431054461182</v>
+        <v>72.34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="B106" t="n">
-        <v>12.9779837775203</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="B107" t="n">
-        <v>11.0853611432986</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>107</v>
+        <v>339</v>
       </c>
       <c r="B108" t="n">
-        <v>12.2827346465817</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="B109" t="n">
-        <v>14.870606411742</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="B110" t="n">
-        <v>14.9092313634608</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="B111" t="n">
-        <v>22.1707222865971</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111</v>
+        <v>331</v>
       </c>
       <c r="B112" t="n">
-        <v>12.630359212051</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="B113" t="n">
-        <v>12.0509849362688</v>
+        <v>71.91</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B114" t="n">
-        <v>15.3341058323677</v>
+        <v>71.69</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="B115" t="n">
-        <v>15.6044804943994</v>
+        <v>71.58</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B116" t="n">
-        <v>15.4113557358053</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>116</v>
+        <v>310</v>
       </c>
       <c r="B117" t="n">
-        <v>15.3341058323677</v>
+        <v>71.37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="B118" t="n">
-        <v>11.819235225956</v>
+        <v>71.37</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>118</v>
+        <v>315</v>
       </c>
       <c r="B119" t="n">
-        <v>11.819235225956</v>
+        <v>71.26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="B120" t="n">
-        <v>19.351100811124</v>
+        <v>71.26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="B121" t="n">
-        <v>11.7806102742372</v>
+        <v>71.15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B122" t="n">
-        <v>14.0208574739282</v>
+        <v>71.04</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="B123" t="n">
-        <v>16.9563538045577</v>
+        <v>71.04</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="B124" t="n">
-        <v>16.1838547701815</v>
+        <v>71.04</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="B125" t="n">
-        <v>13.9822325222093</v>
+        <v>71.04</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>125</v>
+        <v>351</v>
       </c>
       <c r="B126" t="n">
-        <v>15.2954808806489</v>
+        <v>70.93</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="B127" t="n">
-        <v>14.6002317497103</v>
+        <v>70.82</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="B128" t="n">
-        <v>14.4457319428351</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="B129" t="n">
-        <v>14.4457319428351</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="B130" t="n">
-        <v>15.063731170336</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="B131" t="n">
-        <v>15.2182309772113</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>131</v>
+        <v>290</v>
       </c>
       <c r="B132" t="n">
-        <v>18.7717265353418</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>132</v>
+        <v>263</v>
       </c>
       <c r="B133" t="n">
-        <v>17.1494785631518</v>
+        <v>70.07</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="B134" t="n">
-        <v>17.3426033217458</v>
+        <v>70.07</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="B135" t="n">
-        <v>15.3727307840865</v>
+        <v>69.85</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="B136" t="n">
-        <v>13.9049826187717</v>
+        <v>69.85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B137" t="n">
-        <v>17.921977597528</v>
+        <v>69.74</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B138" t="n">
-        <v>14.7933565083044</v>
+        <v>69.74</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B139" t="n">
-        <v>15.681730397837</v>
+        <v>69.63</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>139</v>
+        <v>295</v>
       </c>
       <c r="B140" t="n">
-        <v>12.1282348397065</v>
+        <v>69.41</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B141" t="n">
-        <v>18.1537273078409</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B142" t="n">
-        <v>15.2954808806489</v>
+        <v>69.09</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B143" t="n">
-        <v>16.0679799150251</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="B144" t="n">
-        <v>14.7933565083044</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="B145" t="n">
-        <v>12.5531093086134</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="B146" t="n">
-        <v>14.7547315565856</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B147" t="n">
-        <v>14.2139822325222</v>
+        <v>68.66</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>147</v>
+        <v>350</v>
       </c>
       <c r="B148" t="n">
-        <v>14.870606411742</v>
+        <v>68.66</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B149" t="n">
-        <v>13.5959830050212</v>
+        <v>68.44</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B150" t="n">
-        <v>15.8748551564311</v>
+        <v>68.33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="B151" t="n">
-        <v>16.0293549633063</v>
+        <v>68.33</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B152" t="n">
-        <v>14.252607184241</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="B153" t="n">
-        <v>15.9134801081499</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="B154" t="n">
-        <v>8.61336423329471</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B155" t="n">
-        <v>10.0424874468907</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="B156" t="n">
-        <v>13.8277327153341</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>156</v>
+        <v>314</v>
       </c>
       <c r="B157" t="n">
-        <v>13.6346079567401</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>157</v>
+        <v>354</v>
       </c>
       <c r="B158" t="n">
-        <v>9.11548860563924</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>158</v>
+        <v>356</v>
       </c>
       <c r="B159" t="n">
-        <v>12.5144843568946</v>
+        <v>68</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="B160" t="n">
-        <v>11.6647354190807</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="B161" t="n">
-        <v>6.52761684047895</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>161</v>
+        <v>316</v>
       </c>
       <c r="B162" t="n">
-        <v>8.80648899188876</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="B163" t="n">
-        <v>5.79374275782155</v>
+        <v>67.79</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="B164" t="n">
-        <v>10.1969872537659</v>
+        <v>67.79</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="B165" t="n">
-        <v>15.2954808806489</v>
+        <v>67.79</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="B166" t="n">
-        <v>10.1583623020471</v>
+        <v>67.46</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="B167" t="n">
-        <v>6.48899188876014</v>
+        <v>67.35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B168" t="n">
-        <v>13.6732329084589</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>12.01235998455</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="B170" t="n">
-        <v>10.8536114329857</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B171" t="n">
-        <v>9.81073773657783</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B172" t="n">
-        <v>14.2139822325222</v>
+        <v>67.03</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="B173" t="n">
-        <v>11.8964851293936</v>
+        <v>66.92</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="B174" t="n">
-        <v>11.5102356122055</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="B175" t="n">
-        <v>14.7547315565856</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B176" t="n">
-        <v>15.1023561220548</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="B177" t="n">
-        <v>12.0509849362688</v>
+        <v>66.49</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="B178" t="n">
-        <v>11.8964851293936</v>
+        <v>66.49</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="B179" t="n">
-        <v>14.059482425647</v>
+        <v>66.49</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>13.3642332947084</v>
+        <v>66.49</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B181" t="n">
-        <v>13.3642332947084</v>
+        <v>66.38</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B182" t="n">
-        <v>11.6261104673619</v>
+        <v>66.38</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B183" t="n">
-        <v>11.819235225956</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>183</v>
+        <v>371</v>
       </c>
       <c r="B184" t="n">
-        <v>14.4071069911163</v>
+        <v>66.16</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>12.8621089223638</v>
+        <v>65.84</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="B186" t="n">
-        <v>11.0853611432986</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="B187" t="n">
-        <v>16.1452298184627</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B188" t="n">
-        <v>13.1711085361143</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="B189" t="n">
-        <v>13.4801081498648</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>189</v>
+        <v>374</v>
       </c>
       <c r="B190" t="n">
-        <v>14.0981073773658</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="B191" t="n">
-        <v>10.9694862881421</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="B192" t="n">
-        <v>14.9478563151796</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="B193" t="n">
-        <v>11.008111239861</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B194" t="n">
-        <v>11.5102356122055</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="B195" t="n">
-        <v>16.1452298184627</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B196" t="n">
-        <v>13.2869833912708</v>
+        <v>65.29</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10.39011201236</v>
+        <v>65.29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B198" t="n">
-        <v>9.38586326767092</v>
+        <v>65.29</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="B199" t="n">
-        <v>13.4028582464272</v>
+        <v>65.18</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B200" t="n">
-        <v>15.7976052529934</v>
+        <v>65.18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="B201" t="n">
-        <v>10.0424874468907</v>
+        <v>65.08</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>201</v>
+        <v>372</v>
       </c>
       <c r="B202" t="n">
-        <v>15.9907300115875</v>
+        <v>65.08</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="B203" t="n">
-        <v>12.0896098879876</v>
+        <v>64.97</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="B204" t="n">
-        <v>13.9822325222093</v>
+        <v>64.97</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>204</v>
+        <v>111</v>
       </c>
       <c r="B205" t="n">
-        <v>17.4198532251835</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="B206" t="n">
-        <v>11.6261104673619</v>
+        <v>64.64</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B207" t="n">
-        <v>14.0981073773658</v>
+        <v>64.53</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="B208" t="n">
-        <v>14.6388567014291</v>
+        <v>64.43</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="B209" t="n">
-        <v>7.49324063344921</v>
+        <v>64.32</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="B210" t="n">
-        <v>9.19273850907686</v>
+        <v>64.32</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="B211" t="n">
-        <v>10.8536114329857</v>
+        <v>64.32</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="B212" t="n">
-        <v>10.8149864812669</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>212</v>
+        <v>72</v>
       </c>
       <c r="B213" t="n">
-        <v>18.5013518733102</v>
+        <v>63.88</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>213</v>
+        <v>60</v>
       </c>
       <c r="B214" t="n">
-        <v>17.3426033217458</v>
+        <v>63.77</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="B215" t="n">
-        <v>15.2568559289301</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="B216" t="n">
-        <v>15.8362302047122</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="B217" t="n">
-        <v>16.6859791425261</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="B218" t="n">
-        <v>16.8018539976825</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="B219" t="n">
-        <v>15.681730397837</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="B220" t="n">
-        <v>17.0722286597142</v>
+        <v>63.23</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="B221" t="n">
-        <v>16.3769795287756</v>
+        <v>63.02</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="B222" t="n">
-        <v>16.492854383932</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="B223" t="n">
-        <v>16.7632290459637</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="B224" t="n">
-        <v>21.6685979142526</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B225" t="n">
-        <v>15.5272305909618</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="B226" t="n">
-        <v>18.9648512939359</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="B227" t="n">
-        <v>19.4283507145616</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B228" t="n">
-        <v>15.7589803012746</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B229" t="n">
-        <v>19.351100811124</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="B230" t="n">
-        <v>18.0764774044032</v>
+        <v>62.47</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="B231" t="n">
-        <v>15.681730397837</v>
+        <v>62.26</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="B232" t="n">
-        <v>16.8018539976825</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="B233" t="n">
-        <v>12.3599845500193</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="B234" t="n">
-        <v>14.8319814600232</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="B235" t="n">
-        <v>13.4801081498648</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B236" t="n">
-        <v>19.7373503283121</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>236</v>
+        <v>91</v>
       </c>
       <c r="B237" t="n">
-        <v>12.9007338740827</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="B238" t="n">
-        <v>14.059482425647</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="B239" t="n">
-        <v>15.4499806875241</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B240" t="n">
-        <v>15.2954808806489</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B241" t="n">
-        <v>13.7118578601777</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B242" t="n">
-        <v>15.8362302047122</v>
+        <v>61.28</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>242</v>
+        <v>124</v>
       </c>
       <c r="B243" t="n">
-        <v>16.492854383932</v>
+        <v>61.28</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="B244" t="n">
-        <v>16.1452298184627</v>
+        <v>61.28</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>244</v>
+        <v>2</v>
       </c>
       <c r="B245" t="n">
-        <v>15.5272305909618</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="B246" t="n">
-        <v>15.1409810737737</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="B247" t="n">
-        <v>13.4028582464272</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="B248" t="n">
-        <v>15.6431054461182</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="B249" t="n">
-        <v>16.1838547701815</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="B250" t="n">
-        <v>14.0981073773658</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>250</v>
+        <v>146</v>
       </c>
       <c r="B251" t="n">
-        <v>13.1711085361143</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="B252" t="n">
-        <v>16.6473541908073</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B253" t="n">
-        <v>12.7462340672074</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="B254" t="n">
-        <v>13.7504828118965</v>
+        <v>60.85</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B255" t="n">
-        <v>16.8791039011201</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="B256" t="n">
-        <v>12.0509849362688</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="B257" t="n">
-        <v>13.2869833912708</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B258" t="n">
-        <v>14.2139822325222</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="B259" t="n">
-        <v>10.0811123986095</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="B260" t="n">
-        <v>8.22711471610661</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="B261" t="n">
-        <v>9.3086133642333</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B262" t="n">
-        <v>11.1626110467362</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c r="B263" t="n">
-        <v>8.03398995751255</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="B264" t="n">
-        <v>10.8922363847045</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B265" t="n">
-        <v>11.3557358053302</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>265</v>
+        <v>54</v>
       </c>
       <c r="B266" t="n">
-        <v>11.6647354190807</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="B267" t="n">
-        <v>10.0424874468907</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="B268" t="n">
-        <v>6.60486674391657</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>268</v>
+        <v>94</v>
       </c>
       <c r="B269" t="n">
-        <v>6.21861722672847</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="B270" t="n">
-        <v>9.77211278485902</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B271" t="n">
-        <v>10.6218617226728</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="B272" t="n">
-        <v>7.87949015063731</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="B273" t="n">
-        <v>8.88373889532638</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="B274" t="n">
-        <v>7.95674005407493</v>
+        <v>59.33</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="B275" t="n">
-        <v>7.72499034376207</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>275</v>
+        <v>108</v>
       </c>
       <c r="B276" t="n">
-        <v>9.15411355735805</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="B277" t="n">
-        <v>8.18848976438779</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B278" t="n">
-        <v>9.19273850907686</v>
+        <v>59</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>278</v>
+        <v>84</v>
       </c>
       <c r="B279" t="n">
-        <v>5.33024333719583</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="B280" t="n">
-        <v>9.84936268829664</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="B281" t="n">
-        <v>9.88798764001545</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="B282" t="n">
-        <v>9.03823870220162</v>
+        <v>58.79</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="B283" t="n">
-        <v>9.03823870220162</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="B284" t="n">
-        <v>7.91811510235612</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="B285" t="n">
-        <v>10.1197373503283</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="B286" t="n">
-        <v>8.38161452298185</v>
+        <v>58.46</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="B287" t="n">
-        <v>9.03823870220162</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>287</v>
+        <v>113</v>
       </c>
       <c r="B288" t="n">
-        <v>7.41599073001159</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="B289" t="n">
-        <v>8.99961375048281</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>289</v>
+        <v>218</v>
       </c>
       <c r="B290" t="n">
-        <v>8.11123986095017</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="B291" t="n">
-        <v>10.8536114329857</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>291</v>
+        <v>129</v>
       </c>
       <c r="B292" t="n">
-        <v>11.6261104673619</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>292</v>
+        <v>130</v>
       </c>
       <c r="B293" t="n">
-        <v>8.76786404016995</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="B294" t="n">
-        <v>8.80648899188876</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="B295" t="n">
-        <v>8.30436461954423</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="B296" t="n">
-        <v>11.7419853225183</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>296</v>
+        <v>51</v>
       </c>
       <c r="B297" t="n">
-        <v>8.92236384704519</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="B298" t="n">
-        <v>11.5874855156431</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="B299" t="n">
-        <v>7.76361529548088</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="B300" t="n">
-        <v>10.0424874468907</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="B301" t="n">
-        <v>8.72923908845114</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="B302" t="n">
-        <v>7.4546156817304</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>302</v>
+        <v>221</v>
       </c>
       <c r="B303" t="n">
-        <v>7.91811510235612</v>
+        <v>57.38</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="B304" t="n">
-        <v>7.57049053688683</v>
+        <v>57.38</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="B305" t="n">
-        <v>8.18848976438779</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="B306" t="n">
-        <v>8.80648899188876</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="B307" t="n">
-        <v>8.30436461954423</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>307</v>
+        <v>220</v>
       </c>
       <c r="B308" t="n">
-        <v>9.03823870220162</v>
+        <v>57.05</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c r="B309" t="n">
-        <v>8.11123986095017</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="B310" t="n">
-        <v>11.0467361915798</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="B311" t="n">
-        <v>10.583236770954</v>
+        <v>56.83</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="B312" t="n">
-        <v>9.57898802626497</v>
+        <v>56.83</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>312</v>
+        <v>152</v>
       </c>
       <c r="B313" t="n">
-        <v>7.68636539204326</v>
+        <v>56.83</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="B314" t="n">
-        <v>9.19273850907686</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B315" t="n">
-        <v>11.7033603707995</v>
+        <v>56.62</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>315</v>
+        <v>35</v>
       </c>
       <c r="B316" t="n">
-        <v>10.8922363847045</v>
+        <v>56.62</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="B317" t="n">
-        <v>12.2827346465817</v>
+        <v>56.51</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="B318" t="n">
-        <v>8.99961375048281</v>
+        <v>56.51</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="B319" t="n">
-        <v>10.1969872537659</v>
+        <v>56.29</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>319</v>
+        <v>149</v>
       </c>
       <c r="B320" t="n">
-        <v>11.008111239861</v>
+        <v>56.18</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="B321" t="n">
-        <v>7.4546156817304</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>321</v>
+        <v>11</v>
       </c>
       <c r="B322" t="n">
-        <v>9.81073773657783</v>
+        <v>55.97</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>322</v>
+        <v>49</v>
       </c>
       <c r="B323" t="n">
-        <v>10.6991116261105</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="B324" t="n">
-        <v>7.95674005407493</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>324</v>
+        <v>122</v>
       </c>
       <c r="B325" t="n">
-        <v>9.6948628814214</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="B326" t="n">
-        <v>5.87099266125917</v>
+        <v>55.31</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>326</v>
+        <v>101</v>
       </c>
       <c r="B327" t="n">
-        <v>7.33874082657397</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="B328" t="n">
-        <v>10.3514870606412</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>328</v>
+        <v>229</v>
       </c>
       <c r="B329" t="n">
-        <v>7.33874082657397</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>329</v>
+        <v>44</v>
       </c>
       <c r="B330" t="n">
-        <v>8.34298957126304</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="B331" t="n">
-        <v>9.26998841251448</v>
+        <v>53.69</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="B332" t="n">
-        <v>10.1969872537659</v>
+        <v>53.69</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>332</v>
+        <v>34</v>
       </c>
       <c r="B333" t="n">
-        <v>8.88373889532638</v>
+        <v>53.69</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="B334" t="n">
-        <v>7.99536500579374</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>334</v>
+        <v>225</v>
       </c>
       <c r="B335" t="n">
-        <v>8.22711471610661</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>335</v>
+        <v>29</v>
       </c>
       <c r="B336" t="n">
-        <v>7.02974121282348</v>
+        <v>53.15</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="B337" t="n">
-        <v>9.38586326767092</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="B338" t="n">
-        <v>8.84511394360757</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="B339" t="n">
-        <v>8.45886442641947</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="B340" t="n">
-        <v>10.5059868675164</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="B341" t="n">
-        <v>9.61761297798378</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="B342" t="n">
-        <v>10.1197373503283</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>342</v>
+        <v>132</v>
       </c>
       <c r="B343" t="n">
-        <v>10.39011201236</v>
+        <v>52.49</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="B344" t="n">
-        <v>9.73348783314021</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>344</v>
+        <v>226</v>
       </c>
       <c r="B345" t="n">
-        <v>9.11548860563924</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="B346" t="n">
-        <v>8.92236384704519</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="B347" t="n">
-        <v>9.03823870220162</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="B348" t="n">
-        <v>9.57898802626497</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="B349" t="n">
-        <v>11.0853611432986</v>
+        <v>51.95</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>349</v>
+        <v>30</v>
       </c>
       <c r="B350" t="n">
-        <v>8.69061413673233</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="B351" t="n">
-        <v>12.3599845500193</v>
+        <v>51.74</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="B352" t="n">
-        <v>10.6218617226728</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="B353" t="n">
-        <v>7.99536500579374</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="B354" t="n">
-        <v>10.3128621089224</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>354</v>
+        <v>17</v>
       </c>
       <c r="B355" t="n">
-        <v>12.9779837775203</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>355</v>
+        <v>3</v>
       </c>
       <c r="B356" t="n">
-        <v>10.39011201236</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>356</v>
+        <v>37</v>
       </c>
       <c r="B357" t="n">
-        <v>12.9779837775203</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="B358" t="n">
-        <v>10.2742371572036</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>358</v>
+        <v>131</v>
       </c>
       <c r="B359" t="n">
-        <v>8.11123986095017</v>
+        <v>50.87</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>359</v>
+        <v>25</v>
       </c>
       <c r="B360" t="n">
-        <v>12.4758594051757</v>
+        <v>50.76</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="B361" t="n">
-        <v>11.1239860950174</v>
+        <v>50.54</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>361</v>
+        <v>97</v>
       </c>
       <c r="B362" t="n">
-        <v>14.2912321359598</v>
+        <v>50.43</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>362</v>
+        <v>26</v>
       </c>
       <c r="B363" t="n">
-        <v>10.4673619157976</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="B364" t="n">
-        <v>7.64774044032445</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>364</v>
+        <v>8</v>
       </c>
       <c r="B365" t="n">
-        <v>10.6218617226728</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="B366" t="n">
-        <v>12.5917342603322</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>366</v>
+        <v>119</v>
       </c>
       <c r="B367" t="n">
-        <v>7.60911548860564</v>
+        <v>49.46</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>367</v>
+        <v>10</v>
       </c>
       <c r="B368" t="n">
-        <v>11.7806102742372</v>
+        <v>49.24</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>368</v>
+        <v>32</v>
       </c>
       <c r="B369" t="n">
-        <v>13.8663576670529</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="B370" t="n">
-        <v>2.39474700656624</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>370</v>
+        <v>89</v>
       </c>
       <c r="B371" t="n">
-        <v>9.92661259173426</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>371</v>
+        <v>27</v>
       </c>
       <c r="B372" t="n">
-        <v>13.5573580533024</v>
+        <v>48.05</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>372</v>
+        <v>40</v>
       </c>
       <c r="B373" t="n">
-        <v>13.0938586326767</v>
+        <v>47.83</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>373</v>
+        <v>7</v>
       </c>
       <c r="B374" t="n">
-        <v>9.88798764001545</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="B375" t="n">
-        <v>13.7118578601777</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>375</v>
+        <v>21</v>
       </c>
       <c r="B376" t="n">
-        <v>9.65623792970259</v>
+        <v>46.96</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>376</v>
+        <v>110</v>
       </c>
       <c r="B377" t="n">
-        <v>10.2356122054847</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>377</v>
+        <v>22</v>
       </c>
       <c r="B378" t="n">
-        <v>7.80224024719969</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>378</v>
+        <v>88</v>
       </c>
       <c r="B379" t="n">
-        <v>10.5059868675164</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>379</v>
+        <v>42</v>
       </c>
       <c r="B380" t="n">
-        <v>9.96523754345307</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="B381" t="n">
-        <v>15.5658555426806</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="B382" t="n">
-        <v>9.3086133642333</v>
+        <v>45.66</v>
       </c>
     </row>
   </sheetData>

--- a/data/originals/percentage_by_patient.xlsx
+++ b/data/originals/percentage_by_patient.xlsx
@@ -362,7 +362,7 @@
         <v>369</v>
       </c>
       <c r="B2" t="n">
-        <v>93.38</v>
+        <v>93.28</v>
       </c>
     </row>
     <row r="3">
@@ -370,7 +370,7 @@
         <v>278</v>
       </c>
       <c r="B3" t="n">
-        <v>85.14</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="4">
@@ -378,7 +378,7 @@
         <v>162</v>
       </c>
       <c r="B4" t="n">
-        <v>84.27</v>
+        <v>84.18</v>
       </c>
     </row>
     <row r="5">
@@ -386,7 +386,7 @@
         <v>325</v>
       </c>
       <c r="B5" t="n">
-        <v>83.84</v>
+        <v>83.75</v>
       </c>
     </row>
     <row r="6">
@@ -394,7 +394,7 @@
         <v>208</v>
       </c>
       <c r="B6" t="n">
-        <v>82.86</v>
+        <v>82.77</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>160</v>
       </c>
       <c r="B7" t="n">
-        <v>82.75</v>
+        <v>82.67</v>
       </c>
     </row>
     <row r="8">
@@ -410,7 +410,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>82.65</v>
+        <v>82.56</v>
       </c>
     </row>
     <row r="9">
@@ -418,7 +418,7 @@
         <v>268</v>
       </c>
       <c r="B9" t="n">
-        <v>82.65</v>
+        <v>82.56</v>
       </c>
     </row>
     <row r="10">
@@ -426,7 +426,7 @@
         <v>267</v>
       </c>
       <c r="B10" t="n">
-        <v>82</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="11">
@@ -434,7 +434,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="n">
-        <v>80.91</v>
+        <v>80.82</v>
       </c>
     </row>
     <row r="12">
@@ -442,7 +442,7 @@
         <v>377</v>
       </c>
       <c r="B12" t="n">
-        <v>80.8</v>
+        <v>80.72</v>
       </c>
     </row>
     <row r="13">
@@ -450,7 +450,7 @@
         <v>363</v>
       </c>
       <c r="B13" t="n">
-        <v>80.69</v>
+        <v>80.61</v>
       </c>
     </row>
     <row r="14">
@@ -458,7 +458,7 @@
         <v>335</v>
       </c>
       <c r="B14" t="n">
-        <v>80.37</v>
+        <v>80.28</v>
       </c>
     </row>
     <row r="15">
@@ -466,7 +466,7 @@
         <v>328</v>
       </c>
       <c r="B15" t="n">
-        <v>79.93</v>
+        <v>79.85</v>
       </c>
     </row>
     <row r="16">
@@ -474,7 +474,7 @@
         <v>287</v>
       </c>
       <c r="B16" t="n">
-        <v>79.61</v>
+        <v>79.52</v>
       </c>
     </row>
     <row r="17">
@@ -482,7 +482,7 @@
         <v>326</v>
       </c>
       <c r="B17" t="n">
-        <v>79.61</v>
+        <v>79.52</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>298</v>
       </c>
       <c r="B18" t="n">
-        <v>79.5</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="19">
@@ -498,7 +498,7 @@
         <v>301</v>
       </c>
       <c r="B19" t="n">
-        <v>79.5</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="20">
@@ -506,7 +506,7 @@
         <v>320</v>
       </c>
       <c r="B20" t="n">
-        <v>79.28</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="21">
@@ -514,7 +514,7 @@
         <v>303</v>
       </c>
       <c r="B21" t="n">
-        <v>79.18</v>
+        <v>79.09</v>
       </c>
     </row>
     <row r="22">
@@ -522,7 +522,7 @@
         <v>209</v>
       </c>
       <c r="B22" t="n">
-        <v>79.07</v>
+        <v>78.98</v>
       </c>
     </row>
     <row r="23">
@@ -530,7 +530,7 @@
         <v>157</v>
       </c>
       <c r="B23" t="n">
-        <v>78.96</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>366</v>
       </c>
       <c r="B24" t="n">
-        <v>78.74</v>
+        <v>78.66</v>
       </c>
     </row>
     <row r="25">
@@ -546,7 +546,7 @@
         <v>312</v>
       </c>
       <c r="B25" t="n">
-        <v>78.52</v>
+        <v>78.44</v>
       </c>
     </row>
     <row r="26">
@@ -554,7 +554,7 @@
         <v>274</v>
       </c>
       <c r="B26" t="n">
-        <v>78.42</v>
+        <v>78.33</v>
       </c>
     </row>
     <row r="27">
@@ -562,7 +562,7 @@
         <v>273</v>
       </c>
       <c r="B27" t="n">
-        <v>78.2</v>
+        <v>78.11</v>
       </c>
     </row>
     <row r="28">
@@ -570,7 +570,7 @@
         <v>302</v>
       </c>
       <c r="B28" t="n">
-        <v>78.09</v>
+        <v>78.01</v>
       </c>
     </row>
     <row r="29">
@@ -578,7 +578,7 @@
         <v>323</v>
       </c>
       <c r="B29" t="n">
-        <v>78.09</v>
+        <v>78.01</v>
       </c>
     </row>
     <row r="30">
@@ -586,7 +586,7 @@
         <v>271</v>
       </c>
       <c r="B30" t="n">
-        <v>77.98</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="31">
@@ -594,7 +594,7 @@
         <v>358</v>
       </c>
       <c r="B31" t="n">
-        <v>77.98</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="32">
@@ -602,7 +602,7 @@
         <v>283</v>
       </c>
       <c r="B32" t="n">
-        <v>77.87</v>
+        <v>77.79</v>
       </c>
     </row>
     <row r="33">
@@ -610,7 +610,7 @@
         <v>154</v>
       </c>
       <c r="B33" t="n">
-        <v>77.77</v>
+        <v>77.68</v>
       </c>
     </row>
     <row r="34">
@@ -618,7 +618,7 @@
         <v>333</v>
       </c>
       <c r="B34" t="n">
-        <v>77.66</v>
+        <v>77.57</v>
       </c>
     </row>
     <row r="35">
@@ -626,7 +626,7 @@
         <v>352</v>
       </c>
       <c r="B35" t="n">
-        <v>77.66</v>
+        <v>77.57</v>
       </c>
     </row>
     <row r="36">
@@ -634,7 +634,7 @@
         <v>262</v>
       </c>
       <c r="B36" t="n">
-        <v>77.55</v>
+        <v>77.46</v>
       </c>
     </row>
     <row r="37">
@@ -642,7 +642,7 @@
         <v>276</v>
       </c>
       <c r="B37" t="n">
-        <v>77.55</v>
+        <v>77.46</v>
       </c>
     </row>
     <row r="38">
@@ -650,7 +650,7 @@
         <v>289</v>
       </c>
       <c r="B38" t="n">
-        <v>77.55</v>
+        <v>77.46</v>
       </c>
     </row>
     <row r="39">
@@ -658,7 +658,7 @@
         <v>308</v>
       </c>
       <c r="B39" t="n">
-        <v>77.55</v>
+        <v>77.46</v>
       </c>
     </row>
     <row r="40">
@@ -666,7 +666,7 @@
         <v>259</v>
       </c>
       <c r="B40" t="n">
-        <v>77.22</v>
+        <v>77.14</v>
       </c>
     </row>
     <row r="41">
@@ -674,7 +674,7 @@
         <v>294</v>
       </c>
       <c r="B41" t="n">
-        <v>77.22</v>
+        <v>77.14</v>
       </c>
     </row>
     <row r="42">
@@ -682,7 +682,7 @@
         <v>304</v>
       </c>
       <c r="B42" t="n">
-        <v>77.11</v>
+        <v>77.03</v>
       </c>
     </row>
     <row r="43">
@@ -690,7 +690,7 @@
         <v>334</v>
       </c>
       <c r="B43" t="n">
-        <v>77.11</v>
+        <v>77.03</v>
       </c>
     </row>
     <row r="44">
@@ -698,7 +698,7 @@
         <v>306</v>
       </c>
       <c r="B44" t="n">
-        <v>76.9</v>
+        <v>76.81</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>329</v>
       </c>
       <c r="B45" t="n">
-        <v>76.79</v>
+        <v>76.71</v>
       </c>
     </row>
     <row r="46">
@@ -714,7 +714,7 @@
         <v>285</v>
       </c>
       <c r="B46" t="n">
-        <v>76.68</v>
+        <v>76.6</v>
       </c>
     </row>
     <row r="47">
@@ -722,7 +722,7 @@
         <v>293</v>
       </c>
       <c r="B47" t="n">
-        <v>76.68</v>
+        <v>76.6</v>
       </c>
     </row>
     <row r="48">
@@ -730,7 +730,7 @@
         <v>153</v>
       </c>
       <c r="B48" t="n">
-        <v>76.57</v>
+        <v>76.49</v>
       </c>
     </row>
     <row r="49">
@@ -738,7 +738,7 @@
         <v>338</v>
       </c>
       <c r="B49" t="n">
-        <v>76.46</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="50">
@@ -746,7 +746,7 @@
         <v>349</v>
       </c>
       <c r="B50" t="n">
-        <v>75.7</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="51">
@@ -754,7 +754,7 @@
         <v>381</v>
       </c>
       <c r="B51" t="n">
-        <v>75.7</v>
+        <v>75.62</v>
       </c>
     </row>
     <row r="52">
@@ -762,7 +762,7 @@
         <v>292</v>
       </c>
       <c r="B52" t="n">
-        <v>75.6</v>
+        <v>75.51</v>
       </c>
     </row>
     <row r="53">
@@ -770,7 +770,7 @@
         <v>300</v>
       </c>
       <c r="B53" t="n">
-        <v>75.6</v>
+        <v>75.51</v>
       </c>
     </row>
     <row r="54">
@@ -778,7 +778,7 @@
         <v>305</v>
       </c>
       <c r="B54" t="n">
-        <v>75.6</v>
+        <v>75.51</v>
       </c>
     </row>
     <row r="55">
@@ -786,7 +786,7 @@
         <v>337</v>
       </c>
       <c r="B55" t="n">
-        <v>75.49</v>
+        <v>75.41</v>
       </c>
     </row>
     <row r="56">
@@ -794,7 +794,7 @@
         <v>357</v>
       </c>
       <c r="B56" t="n">
-        <v>75.38</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="57">
@@ -802,7 +802,7 @@
         <v>272</v>
       </c>
       <c r="B57" t="n">
-        <v>75.27</v>
+        <v>75.19</v>
       </c>
     </row>
     <row r="58">
@@ -810,7 +810,7 @@
         <v>288</v>
       </c>
       <c r="B58" t="n">
-        <v>75.27</v>
+        <v>75.19</v>
       </c>
     </row>
     <row r="59">
@@ -818,7 +818,7 @@
         <v>332</v>
       </c>
       <c r="B59" t="n">
-        <v>75.27</v>
+        <v>75.19</v>
       </c>
     </row>
     <row r="60">
@@ -826,7 +826,7 @@
         <v>346</v>
       </c>
       <c r="B60" t="n">
-        <v>75.16</v>
+        <v>75.08</v>
       </c>
     </row>
     <row r="61">
@@ -834,7 +834,7 @@
         <v>286</v>
       </c>
       <c r="B61" t="n">
-        <v>75.05</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="62">
@@ -842,7 +842,7 @@
         <v>296</v>
       </c>
       <c r="B62" t="n">
-        <v>75.05</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="63">
@@ -850,7 +850,7 @@
         <v>345</v>
       </c>
       <c r="B63" t="n">
-        <v>75.05</v>
+        <v>74.97</v>
       </c>
     </row>
     <row r="64">
@@ -858,7 +858,7 @@
         <v>200</v>
       </c>
       <c r="B64" t="n">
-        <v>74.95</v>
+        <v>74.86</v>
       </c>
     </row>
     <row r="65">
@@ -866,7 +866,7 @@
         <v>313</v>
       </c>
       <c r="B65" t="n">
-        <v>74.95</v>
+        <v>74.86</v>
       </c>
     </row>
     <row r="66">
@@ -874,7 +874,7 @@
         <v>317</v>
       </c>
       <c r="B66" t="n">
-        <v>74.95</v>
+        <v>74.86</v>
       </c>
     </row>
     <row r="67">
@@ -882,7 +882,7 @@
         <v>281</v>
       </c>
       <c r="B67" t="n">
-        <v>74.84</v>
+        <v>74.76</v>
       </c>
     </row>
     <row r="68">
@@ -890,7 +890,7 @@
         <v>307</v>
       </c>
       <c r="B68" t="n">
-        <v>74.84</v>
+        <v>74.76</v>
       </c>
     </row>
     <row r="69">
@@ -898,7 +898,7 @@
         <v>277</v>
       </c>
       <c r="B69" t="n">
-        <v>74.73</v>
+        <v>74.65</v>
       </c>
     </row>
     <row r="70">
@@ -906,7 +906,7 @@
         <v>282</v>
       </c>
       <c r="B70" t="n">
-        <v>74.73</v>
+        <v>74.65</v>
       </c>
     </row>
     <row r="71">
@@ -914,7 +914,7 @@
         <v>275</v>
       </c>
       <c r="B71" t="n">
-        <v>74.62</v>
+        <v>74.54</v>
       </c>
     </row>
     <row r="72">
@@ -922,7 +922,7 @@
         <v>344</v>
       </c>
       <c r="B72" t="n">
-        <v>74.62</v>
+        <v>74.54</v>
       </c>
     </row>
     <row r="73">
@@ -930,7 +930,7 @@
         <v>260</v>
       </c>
       <c r="B73" t="n">
-        <v>74.4</v>
+        <v>74.32</v>
       </c>
     </row>
     <row r="74">
@@ -938,7 +938,7 @@
         <v>330</v>
       </c>
       <c r="B74" t="n">
-        <v>74.4</v>
+        <v>74.32</v>
       </c>
     </row>
     <row r="75">
@@ -946,7 +946,7 @@
         <v>197</v>
       </c>
       <c r="B75" t="n">
-        <v>74.3</v>
+        <v>74.21</v>
       </c>
     </row>
     <row r="76">
@@ -954,7 +954,7 @@
         <v>379</v>
       </c>
       <c r="B76" t="n">
-        <v>74.3</v>
+        <v>74.21</v>
       </c>
     </row>
     <row r="77">
@@ -962,7 +962,7 @@
         <v>336</v>
       </c>
       <c r="B77" t="n">
-        <v>74.19</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="78">
@@ -970,7 +970,7 @@
         <v>311</v>
       </c>
       <c r="B78" t="n">
-        <v>73.97</v>
+        <v>73.89</v>
       </c>
     </row>
     <row r="79">
@@ -978,7 +978,7 @@
         <v>347</v>
       </c>
       <c r="B79" t="n">
-        <v>73.86</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="80">
@@ -986,7 +986,7 @@
         <v>365</v>
       </c>
       <c r="B80" t="n">
-        <v>73.86</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="81">
@@ -994,7 +994,7 @@
         <v>373</v>
       </c>
       <c r="B81" t="n">
-        <v>73.75</v>
+        <v>73.67</v>
       </c>
     </row>
     <row r="82">
@@ -1002,7 +1002,7 @@
         <v>170</v>
       </c>
       <c r="B82" t="n">
-        <v>73.64</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="83">
@@ -1010,7 +1010,7 @@
         <v>324</v>
       </c>
       <c r="B83" t="n">
-        <v>73.54</v>
+        <v>73.46</v>
       </c>
     </row>
     <row r="84">
@@ -1018,7 +1018,7 @@
         <v>340</v>
       </c>
       <c r="B84" t="n">
-        <v>73.54</v>
+        <v>73.46</v>
       </c>
     </row>
     <row r="85">
@@ -1026,7 +1026,7 @@
         <v>375</v>
       </c>
       <c r="B85" t="n">
-        <v>73.54</v>
+        <v>73.46</v>
       </c>
     </row>
     <row r="86">
@@ -1034,7 +1034,7 @@
         <v>165</v>
       </c>
       <c r="B86" t="n">
-        <v>73.21</v>
+        <v>73.13</v>
       </c>
     </row>
     <row r="87">
@@ -1042,7 +1042,7 @@
         <v>370</v>
       </c>
       <c r="B87" t="n">
-        <v>73.21</v>
+        <v>73.13</v>
       </c>
     </row>
     <row r="88">
@@ -1050,7 +1050,7 @@
         <v>211</v>
       </c>
       <c r="B88" t="n">
-        <v>73.1</v>
+        <v>73.02</v>
       </c>
     </row>
     <row r="89">
@@ -1058,7 +1058,7 @@
         <v>378</v>
       </c>
       <c r="B89" t="n">
-        <v>73.1</v>
+        <v>73.02</v>
       </c>
     </row>
     <row r="90">
@@ -1066,7 +1066,7 @@
         <v>343</v>
       </c>
       <c r="B90" t="n">
-        <v>72.99</v>
+        <v>72.91</v>
       </c>
     </row>
     <row r="91">
@@ -1074,7 +1074,7 @@
         <v>364</v>
       </c>
       <c r="B91" t="n">
-        <v>72.99</v>
+        <v>72.91</v>
       </c>
     </row>
     <row r="92">
@@ -1082,7 +1082,7 @@
         <v>269</v>
       </c>
       <c r="B92" t="n">
-        <v>72.89</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="93">
@@ -1090,7 +1090,7 @@
         <v>169</v>
       </c>
       <c r="B93" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="94">
@@ -1098,7 +1098,7 @@
         <v>181</v>
       </c>
       <c r="B94" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="95">
@@ -1106,7 +1106,7 @@
         <v>196</v>
       </c>
       <c r="B95" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="96">
@@ -1114,7 +1114,7 @@
         <v>279</v>
       </c>
       <c r="B96" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="97">
@@ -1122,7 +1122,7 @@
         <v>280</v>
       </c>
       <c r="B97" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="98">
@@ -1130,7 +1130,7 @@
         <v>321</v>
       </c>
       <c r="B98" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="99">
@@ -1138,7 +1138,7 @@
         <v>376</v>
       </c>
       <c r="B99" t="n">
-        <v>72.78</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="100">
@@ -1146,7 +1146,7 @@
         <v>353</v>
       </c>
       <c r="B100" t="n">
-        <v>72.67</v>
+        <v>72.59</v>
       </c>
     </row>
     <row r="101">
@@ -1154,7 +1154,7 @@
         <v>205</v>
       </c>
       <c r="B101" t="n">
-        <v>72.56</v>
+        <v>72.48</v>
       </c>
     </row>
     <row r="102">
@@ -1162,7 +1162,7 @@
         <v>299</v>
       </c>
       <c r="B102" t="n">
-        <v>72.56</v>
+        <v>72.48</v>
       </c>
     </row>
     <row r="103">
@@ -1170,7 +1170,7 @@
         <v>185</v>
       </c>
       <c r="B103" t="n">
-        <v>72.45</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="104">
@@ -1178,7 +1178,7 @@
         <v>193</v>
       </c>
       <c r="B104" t="n">
-        <v>72.45</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="105">
@@ -1186,7 +1186,7 @@
         <v>266</v>
       </c>
       <c r="B105" t="n">
-        <v>72.34</v>
+        <v>72.26</v>
       </c>
     </row>
     <row r="106">
@@ -1194,7 +1194,7 @@
         <v>192</v>
       </c>
       <c r="B106" t="n">
-        <v>72.23</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="107">
@@ -1202,7 +1202,7 @@
         <v>258</v>
       </c>
       <c r="B107" t="n">
-        <v>72.23</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="108">
@@ -1210,7 +1210,7 @@
         <v>339</v>
       </c>
       <c r="B108" t="n">
-        <v>72.23</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="109">
@@ -1218,7 +1218,7 @@
         <v>342</v>
       </c>
       <c r="B109" t="n">
-        <v>72.13</v>
+        <v>72.05</v>
       </c>
     </row>
     <row r="110">
@@ -1226,7 +1226,7 @@
         <v>362</v>
       </c>
       <c r="B110" t="n">
-        <v>72.13</v>
+        <v>72.05</v>
       </c>
     </row>
     <row r="111">
@@ -1234,7 +1234,7 @@
         <v>284</v>
       </c>
       <c r="B111" t="n">
-        <v>72.02</v>
+        <v>71.94</v>
       </c>
     </row>
     <row r="112">
@@ -1242,7 +1242,7 @@
         <v>331</v>
       </c>
       <c r="B112" t="n">
-        <v>72.02</v>
+        <v>71.94</v>
       </c>
     </row>
     <row r="113">
@@ -1250,7 +1250,7 @@
         <v>341</v>
       </c>
       <c r="B113" t="n">
-        <v>71.91</v>
+        <v>71.83</v>
       </c>
     </row>
     <row r="114">
@@ -1258,7 +1258,7 @@
         <v>163</v>
       </c>
       <c r="B114" t="n">
-        <v>71.69</v>
+        <v>71.61</v>
       </c>
     </row>
     <row r="115">
@@ -1266,7 +1266,7 @@
         <v>318</v>
       </c>
       <c r="B115" t="n">
-        <v>71.58</v>
+        <v>71.51</v>
       </c>
     </row>
     <row r="116">
@@ -1274,7 +1274,7 @@
         <v>190</v>
       </c>
       <c r="B116" t="n">
-        <v>71.48</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="117">
@@ -1282,7 +1282,7 @@
         <v>310</v>
       </c>
       <c r="B117" t="n">
-        <v>71.37</v>
+        <v>71.29</v>
       </c>
     </row>
     <row r="118">
@@ -1290,7 +1290,7 @@
         <v>355</v>
       </c>
       <c r="B118" t="n">
-        <v>71.37</v>
+        <v>71.29</v>
       </c>
     </row>
     <row r="119">
@@ -1298,7 +1298,7 @@
         <v>315</v>
       </c>
       <c r="B119" t="n">
-        <v>71.26</v>
+        <v>71.18</v>
       </c>
     </row>
     <row r="120">
@@ -1306,7 +1306,7 @@
         <v>360</v>
       </c>
       <c r="B120" t="n">
-        <v>71.26</v>
+        <v>71.18</v>
       </c>
     </row>
     <row r="121">
@@ -1314,7 +1314,7 @@
         <v>270</v>
       </c>
       <c r="B121" t="n">
-        <v>71.15</v>
+        <v>71.07</v>
       </c>
     </row>
     <row r="122">
@@ -1322,7 +1322,7 @@
         <v>159</v>
       </c>
       <c r="B122" t="n">
-        <v>71.04</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="123">
@@ -1330,7 +1330,7 @@
         <v>182</v>
       </c>
       <c r="B123" t="n">
-        <v>71.04</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="124">
@@ -1338,7 +1338,7 @@
         <v>309</v>
       </c>
       <c r="B124" t="n">
-        <v>71.04</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="125">
@@ -1346,7 +1346,7 @@
         <v>327</v>
       </c>
       <c r="B125" t="n">
-        <v>71.04</v>
+        <v>70.96</v>
       </c>
     </row>
     <row r="126">
@@ -1354,7 +1354,7 @@
         <v>351</v>
       </c>
       <c r="B126" t="n">
-        <v>70.93</v>
+        <v>70.86</v>
       </c>
     </row>
     <row r="127">
@@ -1362,7 +1362,7 @@
         <v>177</v>
       </c>
       <c r="B127" t="n">
-        <v>70.82</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="128">
@@ -1370,7 +1370,7 @@
         <v>322</v>
       </c>
       <c r="B128" t="n">
-        <v>70.72</v>
+        <v>70.64</v>
       </c>
     </row>
     <row r="129">
@@ -1378,7 +1378,7 @@
         <v>261</v>
       </c>
       <c r="B129" t="n">
-        <v>70.5</v>
+        <v>70.42</v>
       </c>
     </row>
     <row r="130">
@@ -1386,7 +1386,7 @@
         <v>173</v>
       </c>
       <c r="B130" t="n">
-        <v>70.28</v>
+        <v>70.21</v>
       </c>
     </row>
     <row r="131">
@@ -1394,7 +1394,7 @@
         <v>210</v>
       </c>
       <c r="B131" t="n">
-        <v>70.28</v>
+        <v>70.21</v>
       </c>
     </row>
     <row r="132">
@@ -1402,7 +1402,7 @@
         <v>290</v>
       </c>
       <c r="B132" t="n">
-        <v>70.28</v>
+        <v>70.21</v>
       </c>
     </row>
     <row r="133">
@@ -1410,7 +1410,7 @@
         <v>263</v>
       </c>
       <c r="B133" t="n">
-        <v>70.07</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="134">
@@ -1418,7 +1418,7 @@
         <v>319</v>
       </c>
       <c r="B134" t="n">
-        <v>70.07</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="135">
@@ -1426,7 +1426,7 @@
         <v>202</v>
       </c>
       <c r="B135" t="n">
-        <v>69.85</v>
+        <v>69.77</v>
       </c>
     </row>
     <row r="136">
@@ -1434,7 +1434,7 @@
         <v>348</v>
       </c>
       <c r="B136" t="n">
-        <v>69.85</v>
+        <v>69.77</v>
       </c>
     </row>
     <row r="137">
@@ -1442,7 +1442,7 @@
         <v>79</v>
       </c>
       <c r="B137" t="n">
-        <v>69.74</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="138">
@@ -1450,7 +1450,7 @@
         <v>81</v>
       </c>
       <c r="B138" t="n">
-        <v>69.74</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="139">
@@ -1458,7 +1458,7 @@
         <v>172</v>
       </c>
       <c r="B139" t="n">
-        <v>69.63</v>
+        <v>69.56</v>
       </c>
     </row>
     <row r="140">
@@ -1466,7 +1466,7 @@
         <v>295</v>
       </c>
       <c r="B140" t="n">
-        <v>69.41</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="141">
@@ -1474,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="B141" t="n">
-        <v>69.2</v>
+        <v>69.12</v>
       </c>
     </row>
     <row r="142">
@@ -1482,7 +1482,7 @@
         <v>106</v>
       </c>
       <c r="B142" t="n">
-        <v>69.09</v>
+        <v>69.01</v>
       </c>
     </row>
     <row r="143">
@@ -1490,7 +1490,7 @@
         <v>168</v>
       </c>
       <c r="B143" t="n">
-        <v>68.98</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="144">
@@ -1498,7 +1498,7 @@
         <v>184</v>
       </c>
       <c r="B144" t="n">
-        <v>68.98</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="145">
@@ -1506,7 +1506,7 @@
         <v>255</v>
       </c>
       <c r="B145" t="n">
-        <v>68.98</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="146">
@@ -1514,7 +1514,7 @@
         <v>264</v>
       </c>
       <c r="B146" t="n">
-        <v>68.98</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="147">
@@ -1522,7 +1522,7 @@
         <v>195</v>
       </c>
       <c r="B147" t="n">
-        <v>68.66</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="148">
@@ -1530,7 +1530,7 @@
         <v>350</v>
       </c>
       <c r="B148" t="n">
-        <v>68.66</v>
+        <v>68.58</v>
       </c>
     </row>
     <row r="149">
@@ -1538,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="B149" t="n">
-        <v>68.44</v>
+        <v>68.36</v>
       </c>
     </row>
     <row r="150">
@@ -1546,7 +1546,7 @@
         <v>176</v>
       </c>
       <c r="B150" t="n">
-        <v>68.33</v>
+        <v>68.26</v>
       </c>
     </row>
     <row r="151">
@@ -1554,31 +1554,31 @@
         <v>291</v>
       </c>
       <c r="B151" t="n">
-        <v>68.33</v>
+        <v>68.26</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="B152" t="n">
-        <v>68.22</v>
+        <v>68.15</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>68.22</v>
+        <v>68.15</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="B154" t="n">
-        <v>68.11</v>
+        <v>68.15</v>
       </c>
     </row>
     <row r="155">
@@ -1586,7 +1586,7 @@
         <v>120</v>
       </c>
       <c r="B155" t="n">
-        <v>68.11</v>
+        <v>68.04</v>
       </c>
     </row>
     <row r="156">
@@ -1594,7 +1594,7 @@
         <v>367</v>
       </c>
       <c r="B156" t="n">
-        <v>68.11</v>
+        <v>68.04</v>
       </c>
     </row>
     <row r="157">
@@ -1602,7 +1602,7 @@
         <v>314</v>
       </c>
       <c r="B157" t="n">
-        <v>68</v>
+        <v>67.93</v>
       </c>
     </row>
     <row r="158">
@@ -1610,7 +1610,7 @@
         <v>354</v>
       </c>
       <c r="B158" t="n">
-        <v>68</v>
+        <v>67.93</v>
       </c>
     </row>
     <row r="159">
@@ -1618,7 +1618,7 @@
         <v>356</v>
       </c>
       <c r="B159" t="n">
-        <v>68</v>
+        <v>67.93</v>
       </c>
     </row>
     <row r="160">
@@ -1626,7 +1626,7 @@
         <v>359</v>
       </c>
       <c r="B160" t="n">
-        <v>68</v>
+        <v>67.93</v>
       </c>
     </row>
     <row r="161">
@@ -1634,7 +1634,7 @@
         <v>297</v>
       </c>
       <c r="B161" t="n">
-        <v>67.9</v>
+        <v>67.82</v>
       </c>
     </row>
     <row r="162">
@@ -1642,7 +1642,7 @@
         <v>316</v>
       </c>
       <c r="B162" t="n">
-        <v>67.9</v>
+        <v>67.82</v>
       </c>
     </row>
     <row r="163">
@@ -1650,7 +1650,7 @@
         <v>71</v>
       </c>
       <c r="B163" t="n">
-        <v>67.79</v>
+        <v>67.71</v>
       </c>
     </row>
     <row r="164">
@@ -1658,7 +1658,7 @@
         <v>117</v>
       </c>
       <c r="B164" t="n">
-        <v>67.79</v>
+        <v>67.71</v>
       </c>
     </row>
     <row r="165">
@@ -1666,7 +1666,7 @@
         <v>206</v>
       </c>
       <c r="B165" t="n">
-        <v>67.79</v>
+        <v>67.71</v>
       </c>
     </row>
     <row r="166">
@@ -1674,7 +1674,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="n">
-        <v>67.46</v>
+        <v>67.39</v>
       </c>
     </row>
     <row r="167">
@@ -1682,7 +1682,7 @@
         <v>198</v>
       </c>
       <c r="B167" t="n">
-        <v>67.35</v>
+        <v>67.28</v>
       </c>
     </row>
     <row r="168">
@@ -1690,7 +1690,7 @@
         <v>118</v>
       </c>
       <c r="B168" t="n">
-        <v>67.25</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="169">
@@ -1698,7 +1698,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>67.25</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="170">
@@ -1706,7 +1706,7 @@
         <v>232</v>
       </c>
       <c r="B170" t="n">
-        <v>67.25</v>
+        <v>67.17</v>
       </c>
     </row>
     <row r="171">
@@ -1714,7 +1714,7 @@
         <v>188</v>
       </c>
       <c r="B171" t="n">
-        <v>67.14</v>
+        <v>67.06</v>
       </c>
     </row>
     <row r="172">
@@ -1722,7 +1722,7 @@
         <v>158</v>
       </c>
       <c r="B172" t="n">
-        <v>67.03</v>
+        <v>66.96</v>
       </c>
     </row>
     <row r="173">
@@ -1730,7 +1730,7 @@
         <v>95</v>
       </c>
       <c r="B173" t="n">
-        <v>66.92</v>
+        <v>66.85</v>
       </c>
     </row>
     <row r="174">
@@ -1738,7 +1738,7 @@
         <v>252</v>
       </c>
       <c r="B174" t="n">
-        <v>66.81</v>
+        <v>66.74</v>
       </c>
     </row>
     <row r="175">
@@ -1746,7 +1746,7 @@
         <v>380</v>
       </c>
       <c r="B175" t="n">
-        <v>66.81</v>
+        <v>66.74</v>
       </c>
     </row>
     <row r="176">
@@ -1754,7 +1754,7 @@
         <v>187</v>
       </c>
       <c r="B176" t="n">
-        <v>66.7</v>
+        <v>66.63</v>
       </c>
     </row>
     <row r="177">
@@ -1762,7 +1762,7 @@
         <v>63</v>
       </c>
       <c r="B177" t="n">
-        <v>66.49</v>
+        <v>66.41</v>
       </c>
     </row>
     <row r="178">
@@ -1770,7 +1770,7 @@
         <v>107</v>
       </c>
       <c r="B178" t="n">
-        <v>66.49</v>
+        <v>66.41</v>
       </c>
     </row>
     <row r="179">
@@ -1778,7 +1778,7 @@
         <v>112</v>
       </c>
       <c r="B179" t="n">
-        <v>66.49</v>
+        <v>66.41</v>
       </c>
     </row>
     <row r="180">
@@ -1786,7 +1786,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n">
-        <v>66.49</v>
+        <v>66.41</v>
       </c>
     </row>
     <row r="181">
@@ -1794,7 +1794,7 @@
         <v>139</v>
       </c>
       <c r="B181" t="n">
-        <v>66.38</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="182">
@@ -1802,7 +1802,7 @@
         <v>179</v>
       </c>
       <c r="B182" t="n">
-        <v>66.38</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="183">
@@ -1810,7 +1810,7 @@
         <v>156</v>
       </c>
       <c r="B183" t="n">
-        <v>66.27</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="184">
@@ -1818,7 +1818,7 @@
         <v>371</v>
       </c>
       <c r="B184" t="n">
-        <v>66.16</v>
+        <v>66.09</v>
       </c>
     </row>
     <row r="185">
@@ -1826,7 +1826,7 @@
         <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>65.84</v>
+        <v>65.76</v>
       </c>
     </row>
     <row r="186">
@@ -1834,7 +1834,7 @@
         <v>83</v>
       </c>
       <c r="B186" t="n">
-        <v>65.73</v>
+        <v>65.66</v>
       </c>
     </row>
     <row r="187">
@@ -1842,7 +1842,7 @@
         <v>144</v>
       </c>
       <c r="B187" t="n">
-        <v>65.73</v>
+        <v>65.66</v>
       </c>
     </row>
     <row r="188">
@@ -1850,7 +1850,7 @@
         <v>178</v>
       </c>
       <c r="B188" t="n">
-        <v>65.73</v>
+        <v>65.66</v>
       </c>
     </row>
     <row r="189">
@@ -1858,7 +1858,7 @@
         <v>256</v>
       </c>
       <c r="B189" t="n">
-        <v>65.73</v>
+        <v>65.66</v>
       </c>
     </row>
     <row r="190">
@@ -1866,7 +1866,7 @@
         <v>374</v>
       </c>
       <c r="B190" t="n">
-        <v>65.62</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="191">
@@ -1874,7 +1874,7 @@
         <v>67</v>
       </c>
       <c r="B191" t="n">
-        <v>65.51</v>
+        <v>65.44</v>
       </c>
     </row>
     <row r="192">
@@ -1882,7 +1882,7 @@
         <v>78</v>
       </c>
       <c r="B192" t="n">
-        <v>65.51</v>
+        <v>65.44</v>
       </c>
     </row>
     <row r="193">
@@ -1890,7 +1890,7 @@
         <v>90</v>
       </c>
       <c r="B193" t="n">
-        <v>65.51</v>
+        <v>65.44</v>
       </c>
     </row>
     <row r="194">
@@ -1898,7 +1898,7 @@
         <v>183</v>
       </c>
       <c r="B194" t="n">
-        <v>65.51</v>
+        <v>65.44</v>
       </c>
     </row>
     <row r="195">
@@ -1906,7 +1906,7 @@
         <v>250</v>
       </c>
       <c r="B195" t="n">
-        <v>65.51</v>
+        <v>65.44</v>
       </c>
     </row>
     <row r="196">
@@ -1914,7 +1914,7 @@
         <v>171</v>
       </c>
       <c r="B196" t="n">
-        <v>65.29</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="197">
@@ -1922,7 +1922,7 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>65.29</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="198">
@@ -1930,7 +1930,7 @@
         <v>236</v>
       </c>
       <c r="B198" t="n">
-        <v>65.29</v>
+        <v>65.22</v>
       </c>
     </row>
     <row r="199">
@@ -1938,7 +1938,7 @@
         <v>93</v>
       </c>
       <c r="B199" t="n">
-        <v>65.18</v>
+        <v>65.11</v>
       </c>
     </row>
     <row r="200">
@@ -1946,7 +1946,7 @@
         <v>253</v>
       </c>
       <c r="B200" t="n">
-        <v>65.18</v>
+        <v>65.11</v>
       </c>
     </row>
     <row r="201">
@@ -1954,7 +1954,7 @@
         <v>59</v>
       </c>
       <c r="B201" t="n">
-        <v>65.08</v>
+        <v>65.01</v>
       </c>
     </row>
     <row r="202">
@@ -1962,7 +1962,7 @@
         <v>372</v>
       </c>
       <c r="B202" t="n">
-        <v>65.08</v>
+        <v>65.01</v>
       </c>
     </row>
     <row r="203">
@@ -1970,7 +1970,7 @@
         <v>61</v>
       </c>
       <c r="B203" t="n">
-        <v>64.97</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="204">
@@ -1978,7 +1978,7 @@
         <v>234</v>
       </c>
       <c r="B204" t="n">
-        <v>64.97</v>
+        <v>64.9</v>
       </c>
     </row>
     <row r="205">
@@ -1986,7 +1986,7 @@
         <v>111</v>
       </c>
       <c r="B205" t="n">
-        <v>64.86</v>
+        <v>64.79</v>
       </c>
     </row>
     <row r="206">
@@ -1994,7 +1994,7 @@
         <v>64</v>
       </c>
       <c r="B206" t="n">
-        <v>64.64</v>
+        <v>64.57</v>
       </c>
     </row>
     <row r="207">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B207" t="n">
-        <v>64.53</v>
+        <v>64.46</v>
       </c>
     </row>
     <row r="208">
@@ -2010,7 +2010,7 @@
         <v>246</v>
       </c>
       <c r="B208" t="n">
-        <v>64.43</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="209">
@@ -2018,7 +2018,7 @@
         <v>80</v>
       </c>
       <c r="B209" t="n">
-        <v>64.32</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="210">
@@ -2026,7 +2026,7 @@
         <v>105</v>
       </c>
       <c r="B210" t="n">
-        <v>64.32</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="211">
@@ -2034,7 +2034,7 @@
         <v>174</v>
       </c>
       <c r="B211" t="n">
-        <v>64.32</v>
+        <v>64.25</v>
       </c>
     </row>
     <row r="212">
@@ -2042,7 +2042,7 @@
         <v>240</v>
       </c>
       <c r="B212" t="n">
-        <v>63.99</v>
+        <v>63.92</v>
       </c>
     </row>
     <row r="213">
@@ -2050,7 +2050,7 @@
         <v>72</v>
       </c>
       <c r="B213" t="n">
-        <v>63.88</v>
+        <v>63.81</v>
       </c>
     </row>
     <row r="214">
@@ -2058,7 +2058,7 @@
         <v>60</v>
       </c>
       <c r="B214" t="n">
-        <v>63.77</v>
+        <v>63.71</v>
       </c>
     </row>
     <row r="215">
@@ -2066,7 +2066,7 @@
         <v>53</v>
       </c>
       <c r="B215" t="n">
-        <v>63.56</v>
+        <v>63.49</v>
       </c>
     </row>
     <row r="216">
@@ -2074,7 +2074,7 @@
         <v>96</v>
       </c>
       <c r="B216" t="n">
-        <v>63.56</v>
+        <v>63.49</v>
       </c>
     </row>
     <row r="217">
@@ -2082,7 +2082,7 @@
         <v>73</v>
       </c>
       <c r="B217" t="n">
-        <v>63.34</v>
+        <v>63.27</v>
       </c>
     </row>
     <row r="218">
@@ -2090,7 +2090,7 @@
         <v>164</v>
       </c>
       <c r="B218" t="n">
-        <v>63.34</v>
+        <v>63.27</v>
       </c>
     </row>
     <row r="219">
@@ -2098,7 +2098,7 @@
         <v>368</v>
       </c>
       <c r="B219" t="n">
-        <v>63.34</v>
+        <v>63.27</v>
       </c>
     </row>
     <row r="220">
@@ -2106,7 +2106,7 @@
         <v>361</v>
       </c>
       <c r="B220" t="n">
-        <v>63.23</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="221">
@@ -2114,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="B221" t="n">
-        <v>63.02</v>
+        <v>62.95</v>
       </c>
     </row>
     <row r="222">
@@ -2122,7 +2122,7 @@
         <v>175</v>
       </c>
       <c r="B222" t="n">
-        <v>62.91</v>
+        <v>62.84</v>
       </c>
     </row>
     <row r="223">
@@ -2130,7 +2130,7 @@
         <v>48</v>
       </c>
       <c r="B223" t="n">
-        <v>62.8</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="224">
@@ -2138,7 +2138,7 @@
         <v>75</v>
       </c>
       <c r="B224" t="n">
-        <v>62.8</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="225">
@@ -2146,7 +2146,7 @@
         <v>249</v>
       </c>
       <c r="B225" t="n">
-        <v>62.8</v>
+        <v>62.73</v>
       </c>
     </row>
     <row r="226">
@@ -2154,7 +2154,7 @@
         <v>77</v>
       </c>
       <c r="B226" t="n">
-        <v>62.58</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="227">
@@ -2162,7 +2162,7 @@
         <v>103</v>
       </c>
       <c r="B227" t="n">
-        <v>62.58</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="228">
@@ -2170,7 +2170,7 @@
         <v>191</v>
       </c>
       <c r="B228" t="n">
-        <v>62.58</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="229">
@@ -2178,7 +2178,7 @@
         <v>237</v>
       </c>
       <c r="B229" t="n">
-        <v>62.58</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="230">
@@ -2186,7 +2186,7 @@
         <v>148</v>
       </c>
       <c r="B230" t="n">
-        <v>62.47</v>
+        <v>62.41</v>
       </c>
     </row>
     <row r="231">
@@ -2194,31 +2194,31 @@
         <v>69</v>
       </c>
       <c r="B231" t="n">
-        <v>62.26</v>
+        <v>62.19</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B232" t="n">
-        <v>62.04</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="B233" t="n">
-        <v>62.04</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="B234" t="n">
-        <v>61.93</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="235">
@@ -2226,7 +2226,7 @@
         <v>92</v>
       </c>
       <c r="B235" t="n">
-        <v>61.93</v>
+        <v>61.86</v>
       </c>
     </row>
     <row r="236">
@@ -2234,7 +2234,7 @@
         <v>57</v>
       </c>
       <c r="B236" t="n">
-        <v>61.71</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="237">
@@ -2242,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="B237" t="n">
-        <v>61.71</v>
+        <v>61.65</v>
       </c>
     </row>
     <row r="238">
@@ -2250,7 +2250,7 @@
         <v>65</v>
       </c>
       <c r="B238" t="n">
-        <v>61.61</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="239">
@@ -2258,7 +2258,7 @@
         <v>142</v>
       </c>
       <c r="B239" t="n">
-        <v>61.39</v>
+        <v>61.32</v>
       </c>
     </row>
     <row r="240">
@@ -2266,7 +2266,7 @@
         <v>245</v>
       </c>
       <c r="B240" t="n">
-        <v>61.39</v>
+        <v>61.32</v>
       </c>
     </row>
     <row r="241">
@@ -2274,39 +2274,39 @@
         <v>257</v>
       </c>
       <c r="B241" t="n">
-        <v>61.39</v>
+        <v>61.32</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="B242" t="n">
-        <v>61.28</v>
+        <v>61.21</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B243" t="n">
-        <v>61.28</v>
+        <v>61.21</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B244" t="n">
-        <v>61.28</v>
+        <v>61.21</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="B245" t="n">
-        <v>61.17</v>
+        <v>61.21</v>
       </c>
     </row>
     <row r="246">
@@ -2314,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="B246" t="n">
-        <v>61.17</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="247">
@@ -2322,7 +2322,7 @@
         <v>62</v>
       </c>
       <c r="B247" t="n">
-        <v>61.17</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="248">
@@ -2330,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="B248" t="n">
-        <v>61.17</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="249">
@@ -2338,7 +2338,7 @@
         <v>102</v>
       </c>
       <c r="B249" t="n">
-        <v>61.17</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="250">
@@ -2346,7 +2346,7 @@
         <v>87</v>
       </c>
       <c r="B250" t="n">
-        <v>60.95</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="251">
@@ -2354,7 +2354,7 @@
         <v>146</v>
       </c>
       <c r="B251" t="n">
-        <v>60.95</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="252">
@@ -2362,7 +2362,7 @@
         <v>151</v>
       </c>
       <c r="B252" t="n">
-        <v>60.95</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="253">
@@ -2370,7 +2370,7 @@
         <v>233</v>
       </c>
       <c r="B253" t="n">
-        <v>60.95</v>
+        <v>60.89</v>
       </c>
     </row>
     <row r="254">
@@ -2378,7 +2378,7 @@
         <v>207</v>
       </c>
       <c r="B254" t="n">
-        <v>60.85</v>
+        <v>60.78</v>
       </c>
     </row>
     <row r="255">
@@ -2386,7 +2386,7 @@
         <v>58</v>
       </c>
       <c r="B255" t="n">
-        <v>60.74</v>
+        <v>60.67</v>
       </c>
     </row>
     <row r="256">
@@ -2394,31 +2394,31 @@
         <v>98</v>
       </c>
       <c r="B256" t="n">
-        <v>60.74</v>
+        <v>60.67</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B257" t="n">
-        <v>60.63</v>
+        <v>60.56</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="B258" t="n">
-        <v>60.63</v>
+        <v>60.56</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="B259" t="n">
-        <v>60.52</v>
+        <v>60.56</v>
       </c>
     </row>
     <row r="260">
@@ -2426,7 +2426,7 @@
         <v>201</v>
       </c>
       <c r="B260" t="n">
-        <v>60.52</v>
+        <v>60.46</v>
       </c>
     </row>
     <row r="261">
@@ -2434,7 +2434,7 @@
         <v>127</v>
       </c>
       <c r="B261" t="n">
-        <v>60.2</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="262">
@@ -2442,7 +2442,7 @@
         <v>239</v>
       </c>
       <c r="B262" t="n">
-        <v>60.2</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="263">
@@ -2450,7 +2450,7 @@
         <v>50</v>
       </c>
       <c r="B263" t="n">
-        <v>59.98</v>
+        <v>59.91</v>
       </c>
     </row>
     <row r="264">
@@ -2458,7 +2458,7 @@
         <v>214</v>
       </c>
       <c r="B264" t="n">
-        <v>59.87</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="265">
@@ -2466,7 +2466,7 @@
         <v>251</v>
       </c>
       <c r="B265" t="n">
-        <v>59.87</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="266">
@@ -2474,7 +2474,7 @@
         <v>54</v>
       </c>
       <c r="B266" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="267">
@@ -2482,7 +2482,7 @@
         <v>56</v>
       </c>
       <c r="B267" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="268">
@@ -2490,7 +2490,7 @@
         <v>82</v>
       </c>
       <c r="B268" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="269">
@@ -2498,7 +2498,7 @@
         <v>94</v>
       </c>
       <c r="B269" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="270">
@@ -2506,7 +2506,7 @@
         <v>128</v>
       </c>
       <c r="B270" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="271">
@@ -2514,7 +2514,7 @@
         <v>238</v>
       </c>
       <c r="B271" t="n">
-        <v>59.65</v>
+        <v>59.59</v>
       </c>
     </row>
     <row r="272">
@@ -2522,7 +2522,7 @@
         <v>230</v>
       </c>
       <c r="B272" t="n">
-        <v>59.54</v>
+        <v>59.48</v>
       </c>
     </row>
     <row r="273">
@@ -2530,7 +2530,7 @@
         <v>126</v>
       </c>
       <c r="B273" t="n">
-        <v>59.44</v>
+        <v>59.37</v>
       </c>
     </row>
     <row r="274">
@@ -2538,7 +2538,7 @@
         <v>244</v>
       </c>
       <c r="B274" t="n">
-        <v>59.33</v>
+        <v>59.26</v>
       </c>
     </row>
     <row r="275">
@@ -2546,7 +2546,7 @@
         <v>145</v>
       </c>
       <c r="B275" t="n">
-        <v>59.22</v>
+        <v>59.15</v>
       </c>
     </row>
     <row r="276">
@@ -2554,7 +2554,7 @@
         <v>108</v>
       </c>
       <c r="B276" t="n">
-        <v>59.11</v>
+        <v>59.05</v>
       </c>
     </row>
     <row r="277">
@@ -2562,7 +2562,7 @@
         <v>147</v>
       </c>
       <c r="B277" t="n">
-        <v>59.11</v>
+        <v>59.05</v>
       </c>
     </row>
     <row r="278">
@@ -2570,7 +2570,7 @@
         <v>254</v>
       </c>
       <c r="B278" t="n">
-        <v>59</v>
+        <v>58.94</v>
       </c>
     </row>
     <row r="279">
@@ -2578,7 +2578,7 @@
         <v>84</v>
       </c>
       <c r="B279" t="n">
-        <v>58.89</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="280">
@@ -2586,7 +2586,7 @@
         <v>137</v>
       </c>
       <c r="B280" t="n">
-        <v>58.89</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="281">
@@ -2594,7 +2594,7 @@
         <v>222</v>
       </c>
       <c r="B281" t="n">
-        <v>58.89</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="282">
@@ -2602,7 +2602,7 @@
         <v>204</v>
       </c>
       <c r="B282" t="n">
-        <v>58.79</v>
+        <v>58.72</v>
       </c>
     </row>
     <row r="283">
@@ -2610,7 +2610,7 @@
         <v>224</v>
       </c>
       <c r="B283" t="n">
-        <v>58.68</v>
+        <v>58.61</v>
       </c>
     </row>
     <row r="284">
@@ -2618,7 +2618,7 @@
         <v>109</v>
       </c>
       <c r="B284" t="n">
-        <v>58.57</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="285">
@@ -2626,7 +2626,7 @@
         <v>143</v>
       </c>
       <c r="B285" t="n">
-        <v>58.57</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="286">
@@ -2634,7 +2634,7 @@
         <v>125</v>
       </c>
       <c r="B286" t="n">
-        <v>58.46</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="287">
@@ -2642,7 +2642,7 @@
         <v>227</v>
       </c>
       <c r="B287" t="n">
-        <v>58.35</v>
+        <v>58.29</v>
       </c>
     </row>
     <row r="288">
@@ -2650,7 +2650,7 @@
         <v>113</v>
       </c>
       <c r="B288" t="n">
-        <v>58.24</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="289">
@@ -2658,7 +2658,7 @@
         <v>248</v>
       </c>
       <c r="B289" t="n">
-        <v>58.24</v>
+        <v>58.18</v>
       </c>
     </row>
     <row r="290">
@@ -2666,7 +2666,7 @@
         <v>218</v>
       </c>
       <c r="B290" t="n">
-        <v>58.13</v>
+        <v>58.07</v>
       </c>
     </row>
     <row r="291">
@@ -2674,7 +2674,7 @@
         <v>243</v>
       </c>
       <c r="B291" t="n">
-        <v>58.13</v>
+        <v>58.07</v>
       </c>
     </row>
     <row r="292">
@@ -2682,7 +2682,7 @@
         <v>129</v>
       </c>
       <c r="B292" t="n">
-        <v>58.03</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="293">
@@ -2690,7 +2690,7 @@
         <v>130</v>
       </c>
       <c r="B293" t="n">
-        <v>58.03</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="294">
@@ -2698,7 +2698,7 @@
         <v>115</v>
       </c>
       <c r="B294" t="n">
-        <v>57.92</v>
+        <v>57.85</v>
       </c>
     </row>
     <row r="295">
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
       <c r="B295" t="n">
-        <v>57.81</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="296">
@@ -2714,7 +2714,7 @@
         <v>219</v>
       </c>
       <c r="B296" t="n">
-        <v>57.81</v>
+        <v>57.75</v>
       </c>
     </row>
     <row r="297">
@@ -2722,7 +2722,7 @@
         <v>51</v>
       </c>
       <c r="B297" t="n">
-        <v>57.7</v>
+        <v>57.64</v>
       </c>
     </row>
     <row r="298">
@@ -2730,7 +2730,7 @@
         <v>134</v>
       </c>
       <c r="B298" t="n">
-        <v>57.7</v>
+        <v>57.64</v>
       </c>
     </row>
     <row r="299">
@@ -2738,7 +2738,7 @@
         <v>116</v>
       </c>
       <c r="B299" t="n">
-        <v>57.59</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="300">
@@ -2746,7 +2746,7 @@
         <v>215</v>
       </c>
       <c r="B300" t="n">
-        <v>57.59</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="301">
@@ -2754,7 +2754,7 @@
         <v>141</v>
       </c>
       <c r="B301" t="n">
-        <v>57.48</v>
+        <v>57.42</v>
       </c>
     </row>
     <row r="302">
@@ -2762,7 +2762,7 @@
         <v>242</v>
       </c>
       <c r="B302" t="n">
-        <v>57.48</v>
+        <v>57.42</v>
       </c>
     </row>
     <row r="303">
@@ -2770,7 +2770,7 @@
         <v>221</v>
       </c>
       <c r="B303" t="n">
-        <v>57.38</v>
+        <v>57.31</v>
       </c>
     </row>
     <row r="304">
@@ -2778,7 +2778,7 @@
         <v>241</v>
       </c>
       <c r="B304" t="n">
-        <v>57.38</v>
+        <v>57.31</v>
       </c>
     </row>
     <row r="305">
@@ -2786,7 +2786,7 @@
         <v>216</v>
       </c>
       <c r="B305" t="n">
-        <v>57.27</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="306">
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="B306" t="n">
-        <v>57.16</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="307">
@@ -2802,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="B307" t="n">
-        <v>57.16</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="308">
@@ -2810,7 +2810,7 @@
         <v>220</v>
       </c>
       <c r="B308" t="n">
-        <v>57.05</v>
+        <v>56.99</v>
       </c>
     </row>
     <row r="309">
@@ -2818,7 +2818,7 @@
         <v>138</v>
       </c>
       <c r="B309" t="n">
-        <v>56.94</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="310">
@@ -2826,39 +2826,39 @@
         <v>213</v>
       </c>
       <c r="B310" t="n">
-        <v>56.94</v>
+        <v>56.88</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B311" t="n">
-        <v>56.83</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B312" t="n">
-        <v>56.83</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B313" t="n">
-        <v>56.83</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="B314" t="n">
-        <v>56.72</v>
+        <v>56.77</v>
       </c>
     </row>
     <row r="315">
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="n">
-        <v>56.62</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="316">
@@ -2874,7 +2874,7 @@
         <v>35</v>
       </c>
       <c r="B316" t="n">
-        <v>56.62</v>
+        <v>56.66</v>
       </c>
     </row>
     <row r="317">
@@ -2882,7 +2882,7 @@
         <v>104</v>
       </c>
       <c r="B317" t="n">
-        <v>56.51</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="318">
@@ -2890,7 +2890,7 @@
         <v>114</v>
       </c>
       <c r="B318" t="n">
-        <v>56.51</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="319">
@@ -2898,7 +2898,7 @@
         <v>100</v>
       </c>
       <c r="B319" t="n">
-        <v>56.29</v>
+        <v>56.23</v>
       </c>
     </row>
     <row r="320">
@@ -2906,23 +2906,23 @@
         <v>149</v>
       </c>
       <c r="B320" t="n">
-        <v>56.18</v>
+        <v>56.12</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="B321" t="n">
-        <v>56.07</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="B322" t="n">
-        <v>55.97</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="323">
@@ -2930,7 +2930,7 @@
         <v>49</v>
       </c>
       <c r="B323" t="n">
-        <v>55.75</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="324">
@@ -2938,7 +2938,7 @@
         <v>70</v>
       </c>
       <c r="B324" t="n">
-        <v>55.75</v>
+        <v>55.69</v>
       </c>
     </row>
     <row r="325">
@@ -2946,7 +2946,7 @@
         <v>122</v>
       </c>
       <c r="B325" t="n">
-        <v>55.42</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="326">
@@ -2954,7 +2954,7 @@
         <v>99</v>
       </c>
       <c r="B326" t="n">
-        <v>55.31</v>
+        <v>55.25</v>
       </c>
     </row>
     <row r="327">
@@ -2962,7 +2962,7 @@
         <v>101</v>
       </c>
       <c r="B327" t="n">
-        <v>54.66</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="328">
@@ -2970,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="B328" t="n">
-        <v>54.34</v>
+        <v>54.39</v>
       </c>
     </row>
     <row r="329">
@@ -2978,7 +2978,7 @@
         <v>229</v>
       </c>
       <c r="B329" t="n">
-        <v>54.12</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="330">
@@ -2986,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="B330" t="n">
-        <v>53.8</v>
+        <v>53.85</v>
       </c>
     </row>
     <row r="331">
@@ -2994,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B331" t="n">
-        <v>53.69</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="332">
@@ -3002,7 +3002,7 @@
         <v>23</v>
       </c>
       <c r="B332" t="n">
-        <v>53.69</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="333">
@@ -3010,7 +3010,7 @@
         <v>34</v>
       </c>
       <c r="B333" t="n">
-        <v>53.69</v>
+        <v>53.74</v>
       </c>
     </row>
     <row r="334">
@@ -3018,7 +3018,7 @@
         <v>212</v>
       </c>
       <c r="B334" t="n">
-        <v>53.47</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="335">
@@ -3026,7 +3026,7 @@
         <v>225</v>
       </c>
       <c r="B335" t="n">
-        <v>53.47</v>
+        <v>53.41</v>
       </c>
     </row>
     <row r="336">
@@ -3034,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="n">
-        <v>53.15</v>
+        <v>53.2</v>
       </c>
     </row>
     <row r="337">
@@ -3042,23 +3042,23 @@
         <v>5</v>
       </c>
       <c r="B337" t="n">
-        <v>53.04</v>
+        <v>53.09</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B338" t="n">
-        <v>53.04</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B339" t="n">
-        <v>52.93</v>
+        <v>52.98</v>
       </c>
     </row>
     <row r="340">
@@ -3066,7 +3066,7 @@
         <v>136</v>
       </c>
       <c r="B340" t="n">
-        <v>52.82</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="341">
@@ -3074,7 +3074,7 @@
         <v>228</v>
       </c>
       <c r="B341" t="n">
-        <v>52.82</v>
+        <v>52.76</v>
       </c>
     </row>
     <row r="342">
@@ -3082,47 +3082,47 @@
         <v>33</v>
       </c>
       <c r="B342" t="n">
-        <v>52.6</v>
+        <v>52.65</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B343" t="n">
-        <v>52.49</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B344" t="n">
-        <v>52.39</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="B345" t="n">
-        <v>52.39</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B346" t="n">
-        <v>52.28</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="B347" t="n">
-        <v>52.28</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="348">
@@ -3130,7 +3130,7 @@
         <v>140</v>
       </c>
       <c r="B348" t="n">
-        <v>52.28</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="349">
@@ -3138,7 +3138,7 @@
         <v>36</v>
       </c>
       <c r="B349" t="n">
-        <v>51.95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="350">
@@ -3146,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="B350" t="n">
-        <v>51.84</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="351">
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="n">
-        <v>51.74</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="352">
@@ -3162,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="B352" t="n">
-        <v>51.63</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="353">
@@ -3170,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="B353" t="n">
-        <v>51.52</v>
+        <v>51.57</v>
       </c>
     </row>
     <row r="354">
@@ -3178,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="B354" t="n">
-        <v>51.52</v>
+        <v>51.57</v>
       </c>
     </row>
     <row r="355">
@@ -3186,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="B355" t="n">
-        <v>51.3</v>
+        <v>51.35</v>
       </c>
     </row>
     <row r="356">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="B356" t="n">
-        <v>51.19</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="357">
@@ -3202,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="B357" t="n">
-        <v>51.19</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="358">
@@ -3210,23 +3210,23 @@
         <v>235</v>
       </c>
       <c r="B358" t="n">
-        <v>51.19</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="B359" t="n">
-        <v>50.87</v>
+        <v>50.81</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B360" t="n">
-        <v>50.76</v>
+        <v>50.81</v>
       </c>
     </row>
     <row r="361">
@@ -3234,23 +3234,23 @@
         <v>39</v>
       </c>
       <c r="B361" t="n">
-        <v>50.54</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B362" t="n">
-        <v>50.43</v>
+        <v>50.38</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B363" t="n">
-        <v>50.33</v>
+        <v>50.38</v>
       </c>
     </row>
     <row r="364">
@@ -3258,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="B364" t="n">
-        <v>50.22</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="365">
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="n">
-        <v>49.78</v>
+        <v>49.84</v>
       </c>
     </row>
     <row r="366">
@@ -3274,7 +3274,7 @@
         <v>223</v>
       </c>
       <c r="B366" t="n">
-        <v>49.78</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="367">
@@ -3282,7 +3282,7 @@
         <v>119</v>
       </c>
       <c r="B367" t="n">
-        <v>49.46</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="368">
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="B368" t="n">
-        <v>49.24</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="369">
@@ -3298,7 +3298,7 @@
         <v>32</v>
       </c>
       <c r="B369" t="n">
-        <v>48.92</v>
+        <v>48.97</v>
       </c>
     </row>
     <row r="370">
@@ -3306,7 +3306,7 @@
         <v>41</v>
       </c>
       <c r="B370" t="n">
-        <v>48.92</v>
+        <v>48.97</v>
       </c>
     </row>
     <row r="371">
@@ -3314,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="B371" t="n">
-        <v>48.7</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="372">
@@ -3322,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="B372" t="n">
-        <v>48.05</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="373">
@@ -3330,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B373" t="n">
-        <v>47.83</v>
+        <v>47.89</v>
       </c>
     </row>
     <row r="374">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="n">
-        <v>47.72</v>
+        <v>47.78</v>
       </c>
     </row>
     <row r="375">
@@ -3346,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="B375" t="n">
-        <v>47.4</v>
+        <v>47.45</v>
       </c>
     </row>
     <row r="376">
@@ -3354,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="B376" t="n">
-        <v>46.96</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="377">
@@ -3362,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="B377" t="n">
-        <v>46.75</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="378">
@@ -3370,23 +3370,23 @@
         <v>22</v>
       </c>
       <c r="B378" t="n">
-        <v>46.2</v>
+        <v>46.26</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B379" t="n">
-        <v>46.2</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B380" t="n">
-        <v>46.1</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="381">
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B381" t="n">
-        <v>45.88</v>
+        <v>45.94</v>
       </c>
     </row>
     <row r="382">
@@ -3402,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B382" t="n">
-        <v>45.66</v>
+        <v>45.72</v>
       </c>
     </row>
   </sheetData>

--- a/data/originals/percentage_by_patient.xlsx
+++ b/data/originals/percentage_by_patient.xlsx
@@ -362,7 +362,7 @@
         <v>369</v>
       </c>
       <c r="B2" t="n">
-        <v>93.28</v>
+        <v>93.49</v>
       </c>
     </row>
     <row r="3">
@@ -370,7 +370,7 @@
         <v>278</v>
       </c>
       <c r="B3" t="n">
-        <v>85.05</v>
+        <v>85.02</v>
       </c>
     </row>
     <row r="4">
@@ -378,7 +378,7 @@
         <v>162</v>
       </c>
       <c r="B4" t="n">
-        <v>84.18</v>
+        <v>84.26</v>
       </c>
     </row>
     <row r="5">
@@ -386,7 +386,7 @@
         <v>325</v>
       </c>
       <c r="B5" t="n">
-        <v>83.75</v>
+        <v>83.71</v>
       </c>
     </row>
     <row r="6">
@@ -394,7 +394,7 @@
         <v>208</v>
       </c>
       <c r="B6" t="n">
-        <v>82.77</v>
+        <v>82.84</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>160</v>
       </c>
       <c r="B7" t="n">
-        <v>82.67</v>
+        <v>82.74</v>
       </c>
     </row>
     <row r="8">
@@ -410,7 +410,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>82.56</v>
+        <v>82.63</v>
       </c>
     </row>
     <row r="9">
@@ -418,7 +418,7 @@
         <v>268</v>
       </c>
       <c r="B9" t="n">
-        <v>82.56</v>
+        <v>82.52</v>
       </c>
     </row>
     <row r="10">
@@ -426,7 +426,7 @@
         <v>267</v>
       </c>
       <c r="B10" t="n">
-        <v>81.91</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="11">
@@ -434,7 +434,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="n">
-        <v>80.82</v>
+        <v>80.89</v>
       </c>
     </row>
     <row r="12">
@@ -442,7 +442,7 @@
         <v>377</v>
       </c>
       <c r="B12" t="n">
-        <v>80.72</v>
+        <v>80.89</v>
       </c>
     </row>
     <row r="13">
@@ -450,7 +450,7 @@
         <v>363</v>
       </c>
       <c r="B13" t="n">
-        <v>80.61</v>
+        <v>80.78</v>
       </c>
     </row>
     <row r="14">
@@ -458,7 +458,7 @@
         <v>335</v>
       </c>
       <c r="B14" t="n">
-        <v>80.28</v>
+        <v>80.24</v>
       </c>
     </row>
     <row r="15">
@@ -466,7 +466,7 @@
         <v>328</v>
       </c>
       <c r="B15" t="n">
-        <v>79.85</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="16">
@@ -474,7 +474,7 @@
         <v>287</v>
       </c>
       <c r="B16" t="n">
-        <v>79.52</v>
+        <v>79.48</v>
       </c>
     </row>
     <row r="17">
@@ -482,7 +482,7 @@
         <v>326</v>
       </c>
       <c r="B17" t="n">
-        <v>79.52</v>
+        <v>79.48</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>298</v>
       </c>
       <c r="B18" t="n">
-        <v>79.41</v>
+        <v>79.37</v>
       </c>
     </row>
     <row r="19">
@@ -498,7 +498,7 @@
         <v>301</v>
       </c>
       <c r="B19" t="n">
-        <v>79.41</v>
+        <v>79.37</v>
       </c>
     </row>
     <row r="20">
@@ -506,7 +506,7 @@
         <v>320</v>
       </c>
       <c r="B20" t="n">
-        <v>79.2</v>
+        <v>79.15</v>
       </c>
     </row>
     <row r="21">
@@ -514,23 +514,23 @@
         <v>303</v>
       </c>
       <c r="B21" t="n">
-        <v>79.09</v>
+        <v>79.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="B22" t="n">
-        <v>78.98</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="B23" t="n">
-        <v>78.87</v>
+        <v>78.94</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>366</v>
       </c>
       <c r="B24" t="n">
-        <v>78.66</v>
+        <v>78.83</v>
       </c>
     </row>
     <row r="25">
@@ -546,7 +546,7 @@
         <v>312</v>
       </c>
       <c r="B25" t="n">
-        <v>78.44</v>
+        <v>78.39</v>
       </c>
     </row>
     <row r="26">
@@ -554,7 +554,7 @@
         <v>274</v>
       </c>
       <c r="B26" t="n">
-        <v>78.33</v>
+        <v>78.28</v>
       </c>
     </row>
     <row r="27">
@@ -562,55 +562,55 @@
         <v>273</v>
       </c>
       <c r="B27" t="n">
-        <v>78.11</v>
+        <v>78.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="B28" t="n">
-        <v>78.01</v>
+        <v>78.07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B29" t="n">
-        <v>78.01</v>
+        <v>77.96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="B30" t="n">
-        <v>77.9</v>
+        <v>77.96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="B31" t="n">
-        <v>77.9</v>
+        <v>77.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="B32" t="n">
-        <v>77.79</v>
+        <v>77.74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="B33" t="n">
-        <v>77.68</v>
+        <v>77.74</v>
       </c>
     </row>
     <row r="34">
@@ -618,7 +618,7 @@
         <v>333</v>
       </c>
       <c r="B34" t="n">
-        <v>77.57</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="35">
@@ -626,7 +626,7 @@
         <v>352</v>
       </c>
       <c r="B35" t="n">
-        <v>77.57</v>
+        <v>77.52</v>
       </c>
     </row>
     <row r="36">
@@ -634,7 +634,7 @@
         <v>262</v>
       </c>
       <c r="B36" t="n">
-        <v>77.46</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="37">
@@ -642,7 +642,7 @@
         <v>276</v>
       </c>
       <c r="B37" t="n">
-        <v>77.46</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="38">
@@ -650,7 +650,7 @@
         <v>289</v>
       </c>
       <c r="B38" t="n">
-        <v>77.46</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="39">
@@ -658,7 +658,7 @@
         <v>308</v>
       </c>
       <c r="B39" t="n">
-        <v>77.46</v>
+        <v>77.42</v>
       </c>
     </row>
     <row r="40">
@@ -666,7 +666,7 @@
         <v>259</v>
       </c>
       <c r="B40" t="n">
-        <v>77.14</v>
+        <v>77.09</v>
       </c>
     </row>
     <row r="41">
@@ -674,7 +674,7 @@
         <v>294</v>
       </c>
       <c r="B41" t="n">
-        <v>77.14</v>
+        <v>77.09</v>
       </c>
     </row>
     <row r="42">
@@ -682,7 +682,7 @@
         <v>304</v>
       </c>
       <c r="B42" t="n">
-        <v>77.03</v>
+        <v>76.98</v>
       </c>
     </row>
     <row r="43">
@@ -690,7 +690,7 @@
         <v>334</v>
       </c>
       <c r="B43" t="n">
-        <v>77.03</v>
+        <v>76.98</v>
       </c>
     </row>
     <row r="44">
@@ -698,7 +698,7 @@
         <v>306</v>
       </c>
       <c r="B44" t="n">
-        <v>76.81</v>
+        <v>76.76</v>
       </c>
     </row>
     <row r="45">
@@ -706,31 +706,31 @@
         <v>329</v>
       </c>
       <c r="B45" t="n">
-        <v>76.71</v>
+        <v>76.66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="B46" t="n">
-        <v>76.6</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B47" t="n">
-        <v>76.6</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="B48" t="n">
-        <v>76.49</v>
+        <v>76.55</v>
       </c>
     </row>
     <row r="49">
@@ -738,23 +738,23 @@
         <v>338</v>
       </c>
       <c r="B49" t="n">
-        <v>76.38</v>
+        <v>76.33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="B50" t="n">
-        <v>75.62</v>
+        <v>75.79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="B51" t="n">
-        <v>75.62</v>
+        <v>75.57</v>
       </c>
     </row>
     <row r="52">
@@ -762,7 +762,7 @@
         <v>292</v>
       </c>
       <c r="B52" t="n">
-        <v>75.51</v>
+        <v>75.46</v>
       </c>
     </row>
     <row r="53">
@@ -770,7 +770,7 @@
         <v>300</v>
       </c>
       <c r="B53" t="n">
-        <v>75.51</v>
+        <v>75.46</v>
       </c>
     </row>
     <row r="54">
@@ -778,7 +778,7 @@
         <v>305</v>
       </c>
       <c r="B54" t="n">
-        <v>75.51</v>
+        <v>75.46</v>
       </c>
     </row>
     <row r="55">
@@ -786,7 +786,7 @@
         <v>337</v>
       </c>
       <c r="B55" t="n">
-        <v>75.41</v>
+        <v>75.35</v>
       </c>
     </row>
     <row r="56">
@@ -794,7 +794,7 @@
         <v>357</v>
       </c>
       <c r="B56" t="n">
-        <v>75.3</v>
+        <v>75.24</v>
       </c>
     </row>
     <row r="57">
@@ -802,7 +802,7 @@
         <v>272</v>
       </c>
       <c r="B57" t="n">
-        <v>75.19</v>
+        <v>75.14</v>
       </c>
     </row>
     <row r="58">
@@ -810,7 +810,7 @@
         <v>288</v>
       </c>
       <c r="B58" t="n">
-        <v>75.19</v>
+        <v>75.14</v>
       </c>
     </row>
     <row r="59">
@@ -818,7 +818,7 @@
         <v>332</v>
       </c>
       <c r="B59" t="n">
-        <v>75.19</v>
+        <v>75.14</v>
       </c>
     </row>
     <row r="60">
@@ -826,39 +826,39 @@
         <v>346</v>
       </c>
       <c r="B60" t="n">
-        <v>75.08</v>
+        <v>75.03</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="B61" t="n">
-        <v>74.97</v>
+        <v>74.92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B62" t="n">
-        <v>74.97</v>
+        <v>74.92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="B63" t="n">
-        <v>74.97</v>
+        <v>74.92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="B64" t="n">
-        <v>74.86</v>
+        <v>74.92</v>
       </c>
     </row>
     <row r="65">
@@ -866,7 +866,7 @@
         <v>313</v>
       </c>
       <c r="B65" t="n">
-        <v>74.86</v>
+        <v>74.81</v>
       </c>
     </row>
     <row r="66">
@@ -874,7 +874,7 @@
         <v>317</v>
       </c>
       <c r="B66" t="n">
-        <v>74.86</v>
+        <v>74.81</v>
       </c>
     </row>
     <row r="67">
@@ -882,7 +882,7 @@
         <v>281</v>
       </c>
       <c r="B67" t="n">
-        <v>74.76</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="68">
@@ -890,7 +890,7 @@
         <v>307</v>
       </c>
       <c r="B68" t="n">
-        <v>74.76</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="69">
@@ -898,7 +898,7 @@
         <v>277</v>
       </c>
       <c r="B69" t="n">
-        <v>74.65</v>
+        <v>74.59</v>
       </c>
     </row>
     <row r="70">
@@ -906,7 +906,7 @@
         <v>282</v>
       </c>
       <c r="B70" t="n">
-        <v>74.65</v>
+        <v>74.59</v>
       </c>
     </row>
     <row r="71">
@@ -914,7 +914,7 @@
         <v>275</v>
       </c>
       <c r="B71" t="n">
-        <v>74.54</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="72">
@@ -922,39 +922,39 @@
         <v>344</v>
       </c>
       <c r="B72" t="n">
-        <v>74.54</v>
+        <v>74.48</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="B73" t="n">
-        <v>74.32</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="B74" t="n">
-        <v>74.32</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="B75" t="n">
-        <v>74.21</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="B76" t="n">
-        <v>74.21</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="77">
@@ -962,31 +962,31 @@
         <v>336</v>
       </c>
       <c r="B77" t="n">
-        <v>74.11</v>
+        <v>74.05</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="B78" t="n">
-        <v>73.89</v>
+        <v>73.94</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="B79" t="n">
-        <v>73.78</v>
+        <v>73.83</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B80" t="n">
-        <v>73.78</v>
+        <v>73.72</v>
       </c>
     </row>
     <row r="81">
@@ -994,7 +994,7 @@
         <v>373</v>
       </c>
       <c r="B81" t="n">
-        <v>73.67</v>
+        <v>73.72</v>
       </c>
     </row>
     <row r="82">
@@ -1002,87 +1002,87 @@
         <v>170</v>
       </c>
       <c r="B82" t="n">
-        <v>73.56</v>
+        <v>73.62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="B83" t="n">
-        <v>73.46</v>
+        <v>73.51</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B84" t="n">
-        <v>73.46</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="B85" t="n">
-        <v>73.46</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>165</v>
+        <v>370</v>
       </c>
       <c r="B86" t="n">
-        <v>73.13</v>
+        <v>73.29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>370</v>
+        <v>165</v>
       </c>
       <c r="B87" t="n">
-        <v>73.13</v>
+        <v>73.18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>211</v>
+        <v>378</v>
       </c>
       <c r="B88" t="n">
-        <v>73.02</v>
+        <v>73.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>378</v>
+        <v>211</v>
       </c>
       <c r="B89" t="n">
-        <v>73.02</v>
+        <v>73.07</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B90" t="n">
-        <v>72.91</v>
+        <v>73.07</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B91" t="n">
-        <v>72.91</v>
+        <v>72.86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="B92" t="n">
-        <v>72.81</v>
+        <v>72.86</v>
       </c>
     </row>
     <row r="93">
@@ -1090,7 +1090,7 @@
         <v>169</v>
       </c>
       <c r="B93" t="n">
-        <v>72.7</v>
+        <v>72.75</v>
       </c>
     </row>
     <row r="94">
@@ -1098,7 +1098,7 @@
         <v>181</v>
       </c>
       <c r="B94" t="n">
-        <v>72.7</v>
+        <v>72.75</v>
       </c>
     </row>
     <row r="95">
@@ -1106,127 +1106,127 @@
         <v>196</v>
       </c>
       <c r="B95" t="n">
-        <v>72.7</v>
+        <v>72.75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B96" t="n">
-        <v>72.7</v>
+        <v>72.75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B97" t="n">
-        <v>72.7</v>
+        <v>72.64</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="B98" t="n">
-        <v>72.7</v>
+        <v>72.64</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>376</v>
+        <v>321</v>
       </c>
       <c r="B99" t="n">
-        <v>72.7</v>
+        <v>72.64</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="B100" t="n">
-        <v>72.59</v>
+        <v>72.53</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="B101" t="n">
-        <v>72.48</v>
+        <v>72.53</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="B102" t="n">
-        <v>72.48</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B103" t="n">
-        <v>72.37</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>193</v>
+        <v>299</v>
       </c>
       <c r="B104" t="n">
-        <v>72.37</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="B105" t="n">
-        <v>72.26</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="B106" t="n">
-        <v>72.16</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B107" t="n">
-        <v>72.16</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="B108" t="n">
-        <v>72.16</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B109" t="n">
-        <v>72.05</v>
+        <v>72.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B110" t="n">
-        <v>72.05</v>
+        <v>71.99</v>
       </c>
     </row>
     <row r="111">
@@ -1234,7 +1234,7 @@
         <v>284</v>
       </c>
       <c r="B111" t="n">
-        <v>71.94</v>
+        <v>71.88</v>
       </c>
     </row>
     <row r="112">
@@ -1242,7 +1242,7 @@
         <v>331</v>
       </c>
       <c r="B112" t="n">
-        <v>71.94</v>
+        <v>71.88</v>
       </c>
     </row>
     <row r="113">
@@ -1250,7 +1250,7 @@
         <v>341</v>
       </c>
       <c r="B113" t="n">
-        <v>71.83</v>
+        <v>71.77</v>
       </c>
     </row>
     <row r="114">
@@ -1258,79 +1258,79 @@
         <v>163</v>
       </c>
       <c r="B114" t="n">
-        <v>71.61</v>
+        <v>71.66</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="B115" t="n">
-        <v>71.51</v>
+        <v>71.44</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="B116" t="n">
-        <v>71.4</v>
+        <v>71.44</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="B117" t="n">
-        <v>71.29</v>
+        <v>71.44</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B118" t="n">
-        <v>71.29</v>
+        <v>71.34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B119" t="n">
-        <v>71.18</v>
+        <v>71.23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="B120" t="n">
-        <v>71.18</v>
+        <v>71.12</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>270</v>
+        <v>159</v>
       </c>
       <c r="B121" t="n">
-        <v>71.07</v>
+        <v>71.01</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B122" t="n">
-        <v>70.96</v>
+        <v>71.01</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="B123" t="n">
-        <v>70.96</v>
+        <v>71.01</v>
       </c>
     </row>
     <row r="124">
@@ -1338,7 +1338,7 @@
         <v>309</v>
       </c>
       <c r="B124" t="n">
-        <v>70.96</v>
+        <v>70.9</v>
       </c>
     </row>
     <row r="125">
@@ -1346,23 +1346,23 @@
         <v>327</v>
       </c>
       <c r="B125" t="n">
-        <v>70.96</v>
+        <v>70.9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="B126" t="n">
-        <v>70.86</v>
+        <v>70.79</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="B127" t="n">
-        <v>70.75</v>
+        <v>70.79</v>
       </c>
     </row>
     <row r="128">
@@ -1370,7 +1370,7 @@
         <v>322</v>
       </c>
       <c r="B128" t="n">
-        <v>70.64</v>
+        <v>70.58</v>
       </c>
     </row>
     <row r="129">
@@ -1378,7 +1378,7 @@
         <v>261</v>
       </c>
       <c r="B129" t="n">
-        <v>70.42</v>
+        <v>70.36</v>
       </c>
     </row>
     <row r="130">
@@ -1386,7 +1386,7 @@
         <v>173</v>
       </c>
       <c r="B130" t="n">
-        <v>70.21</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="131">
@@ -1394,7 +1394,7 @@
         <v>210</v>
       </c>
       <c r="B131" t="n">
-        <v>70.21</v>
+        <v>70.25</v>
       </c>
     </row>
     <row r="132">
@@ -1402,7 +1402,7 @@
         <v>290</v>
       </c>
       <c r="B132" t="n">
-        <v>70.21</v>
+        <v>70.14</v>
       </c>
     </row>
     <row r="133">
@@ -1410,7 +1410,7 @@
         <v>263</v>
       </c>
       <c r="B133" t="n">
-        <v>69.99</v>
+        <v>69.92</v>
       </c>
     </row>
     <row r="134">
@@ -1418,7 +1418,7 @@
         <v>319</v>
       </c>
       <c r="B134" t="n">
-        <v>69.99</v>
+        <v>69.92</v>
       </c>
     </row>
     <row r="135">
@@ -1426,7 +1426,7 @@
         <v>202</v>
       </c>
       <c r="B135" t="n">
-        <v>69.77</v>
+        <v>69.82</v>
       </c>
     </row>
     <row r="136">
@@ -1434,7 +1434,7 @@
         <v>348</v>
       </c>
       <c r="B136" t="n">
-        <v>69.77</v>
+        <v>69.71</v>
       </c>
     </row>
     <row r="137">
@@ -1442,7 +1442,7 @@
         <v>79</v>
       </c>
       <c r="B137" t="n">
-        <v>69.66</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="138">
@@ -1450,7 +1450,7 @@
         <v>81</v>
       </c>
       <c r="B138" t="n">
-        <v>69.66</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="139">
@@ -1458,7 +1458,7 @@
         <v>172</v>
       </c>
       <c r="B139" t="n">
-        <v>69.56</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="140">
@@ -1466,7 +1466,7 @@
         <v>295</v>
       </c>
       <c r="B140" t="n">
-        <v>69.34</v>
+        <v>69.27</v>
       </c>
     </row>
     <row r="141">
@@ -1474,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="B141" t="n">
-        <v>69.12</v>
+        <v>69.06</v>
       </c>
     </row>
     <row r="142">
@@ -1482,7 +1482,7 @@
         <v>106</v>
       </c>
       <c r="B142" t="n">
-        <v>69.01</v>
+        <v>68.95</v>
       </c>
     </row>
     <row r="143">
@@ -1490,7 +1490,7 @@
         <v>168</v>
       </c>
       <c r="B143" t="n">
-        <v>68.91</v>
+        <v>68.95</v>
       </c>
     </row>
     <row r="144">
@@ -1498,7 +1498,7 @@
         <v>184</v>
       </c>
       <c r="B144" t="n">
-        <v>68.91</v>
+        <v>68.95</v>
       </c>
     </row>
     <row r="145">
@@ -1506,7 +1506,7 @@
         <v>255</v>
       </c>
       <c r="B145" t="n">
-        <v>68.91</v>
+        <v>68.95</v>
       </c>
     </row>
     <row r="146">
@@ -1514,7 +1514,7 @@
         <v>264</v>
       </c>
       <c r="B146" t="n">
-        <v>68.91</v>
+        <v>68.84</v>
       </c>
     </row>
     <row r="147">
@@ -1522,7 +1522,7 @@
         <v>195</v>
       </c>
       <c r="B147" t="n">
-        <v>68.58</v>
+        <v>68.62</v>
       </c>
     </row>
     <row r="148">
@@ -1530,7 +1530,7 @@
         <v>350</v>
       </c>
       <c r="B148" t="n">
-        <v>68.58</v>
+        <v>68.51</v>
       </c>
     </row>
     <row r="149">
@@ -1538,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="B149" t="n">
-        <v>68.36</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="150">
@@ -1546,71 +1546,71 @@
         <v>176</v>
       </c>
       <c r="B150" t="n">
-        <v>68.26</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="B151" t="n">
-        <v>68.26</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>31</v>
+        <v>291</v>
       </c>
       <c r="B152" t="n">
-        <v>68.15</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>155</v>
+        <v>367</v>
       </c>
       <c r="B153" t="n">
-        <v>68.15</v>
+        <v>68.19</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="B154" t="n">
-        <v>68.15</v>
+        <v>68.08</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="B155" t="n">
-        <v>68.04</v>
+        <v>68.08</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B156" t="n">
-        <v>68.04</v>
+        <v>68.08</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="B157" t="n">
-        <v>67.93</v>
+        <v>68.08</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>354</v>
+        <v>120</v>
       </c>
       <c r="B158" t="n">
-        <v>67.93</v>
+        <v>67.97</v>
       </c>
     </row>
     <row r="159">
@@ -1618,55 +1618,55 @@
         <v>356</v>
       </c>
       <c r="B159" t="n">
-        <v>67.93</v>
+        <v>67.97</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="B160" t="n">
-        <v>67.93</v>
+        <v>67.86</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="B161" t="n">
-        <v>67.82</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B162" t="n">
-        <v>67.82</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>71</v>
+        <v>316</v>
       </c>
       <c r="B163" t="n">
-        <v>67.71</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B164" t="n">
-        <v>67.71</v>
+        <v>67.64</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="B165" t="n">
-        <v>67.71</v>
+        <v>67.64</v>
       </c>
     </row>
     <row r="166">
@@ -1674,7 +1674,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="n">
-        <v>67.39</v>
+        <v>67.32</v>
       </c>
     </row>
     <row r="167">
@@ -1682,39 +1682,39 @@
         <v>198</v>
       </c>
       <c r="B167" t="n">
-        <v>67.28</v>
+        <v>67.32</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>67.17</v>
+        <v>67.21</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B169" t="n">
-        <v>67.17</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="B170" t="n">
-        <v>67.17</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="B171" t="n">
-        <v>67.06</v>
+        <v>67.1</v>
       </c>
     </row>
     <row r="172">
@@ -1722,31 +1722,31 @@
         <v>158</v>
       </c>
       <c r="B172" t="n">
-        <v>66.96</v>
+        <v>66.99</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="B173" t="n">
-        <v>66.85</v>
+        <v>66.88</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="B174" t="n">
-        <v>66.74</v>
+        <v>66.78</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="B175" t="n">
-        <v>66.74</v>
+        <v>66.78</v>
       </c>
     </row>
     <row r="176">
@@ -1754,55 +1754,55 @@
         <v>187</v>
       </c>
       <c r="B176" t="n">
-        <v>66.63</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B177" t="n">
-        <v>66.41</v>
+        <v>66.45</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="B178" t="n">
-        <v>66.41</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B179" t="n">
-        <v>66.41</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="B180" t="n">
-        <v>66.41</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>66.31</v>
+        <v>66.34</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B182" t="n">
-        <v>66.31</v>
+        <v>66.23</v>
       </c>
     </row>
     <row r="183">
@@ -1810,7 +1810,7 @@
         <v>156</v>
       </c>
       <c r="B183" t="n">
-        <v>66.2</v>
+        <v>66.23</v>
       </c>
     </row>
     <row r="184">
@@ -1818,7 +1818,7 @@
         <v>371</v>
       </c>
       <c r="B184" t="n">
-        <v>66.09</v>
+        <v>66.23</v>
       </c>
     </row>
     <row r="185">
@@ -1826,87 +1826,87 @@
         <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>65.76</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="B186" t="n">
-        <v>65.66</v>
+        <v>65.69</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="B187" t="n">
-        <v>65.66</v>
+        <v>65.69</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="B188" t="n">
-        <v>65.66</v>
+        <v>65.69</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>256</v>
+        <v>83</v>
       </c>
       <c r="B189" t="n">
-        <v>65.66</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="B190" t="n">
-        <v>65.55</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="B191" t="n">
-        <v>65.44</v>
+        <v>65.47</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="B192" t="n">
-        <v>65.44</v>
+        <v>65.47</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B193" t="n">
-        <v>65.44</v>
+        <v>65.36</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="B194" t="n">
-        <v>65.44</v>
+        <v>65.36</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="B195" t="n">
-        <v>65.44</v>
+        <v>65.36</v>
       </c>
     </row>
     <row r="196">
@@ -1914,7 +1914,7 @@
         <v>171</v>
       </c>
       <c r="B196" t="n">
-        <v>65.22</v>
+        <v>65.26</v>
       </c>
     </row>
     <row r="197">
@@ -1922,7 +1922,7 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>65.22</v>
+        <v>65.26</v>
       </c>
     </row>
     <row r="198">
@@ -1930,39 +1930,39 @@
         <v>236</v>
       </c>
       <c r="B198" t="n">
-        <v>65.22</v>
+        <v>65.15</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="B199" t="n">
-        <v>65.11</v>
+        <v>65.15</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="B200" t="n">
-        <v>65.11</v>
+        <v>65.15</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="B201" t="n">
-        <v>65.01</v>
+        <v>65.04</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>372</v>
+        <v>59</v>
       </c>
       <c r="B202" t="n">
-        <v>65.01</v>
+        <v>64.93</v>
       </c>
     </row>
     <row r="203">
@@ -1970,7 +1970,7 @@
         <v>61</v>
       </c>
       <c r="B203" t="n">
-        <v>64.9</v>
+        <v>64.82</v>
       </c>
     </row>
     <row r="204">
@@ -1978,7 +1978,7 @@
         <v>234</v>
       </c>
       <c r="B204" t="n">
-        <v>64.9</v>
+        <v>64.82</v>
       </c>
     </row>
     <row r="205">
@@ -1986,7 +1986,7 @@
         <v>111</v>
       </c>
       <c r="B205" t="n">
-        <v>64.79</v>
+        <v>64.71</v>
       </c>
     </row>
     <row r="206">
@@ -1994,7 +1994,7 @@
         <v>64</v>
       </c>
       <c r="B206" t="n">
-        <v>64.57</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="207">
@@ -2002,7 +2002,7 @@
         <v>194</v>
       </c>
       <c r="B207" t="n">
-        <v>64.46</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="208">
@@ -2010,31 +2010,31 @@
         <v>246</v>
       </c>
       <c r="B208" t="n">
-        <v>64.36</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="B209" t="n">
-        <v>64.25</v>
+        <v>64.28</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B210" t="n">
-        <v>64.25</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="B211" t="n">
-        <v>64.25</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="212">
@@ -2042,7 +2042,7 @@
         <v>240</v>
       </c>
       <c r="B212" t="n">
-        <v>63.92</v>
+        <v>63.95</v>
       </c>
     </row>
     <row r="213">
@@ -2050,7 +2050,7 @@
         <v>72</v>
       </c>
       <c r="B213" t="n">
-        <v>63.81</v>
+        <v>63.74</v>
       </c>
     </row>
     <row r="214">
@@ -2058,7 +2058,7 @@
         <v>60</v>
       </c>
       <c r="B214" t="n">
-        <v>63.71</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="215">
@@ -2066,7 +2066,7 @@
         <v>53</v>
       </c>
       <c r="B215" t="n">
-        <v>63.49</v>
+        <v>63.41</v>
       </c>
     </row>
     <row r="216">
@@ -2074,15 +2074,15 @@
         <v>96</v>
       </c>
       <c r="B216" t="n">
-        <v>63.49</v>
+        <v>63.41</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>73</v>
+        <v>368</v>
       </c>
       <c r="B217" t="n">
-        <v>63.27</v>
+        <v>63.41</v>
       </c>
     </row>
     <row r="218">
@@ -2090,23 +2090,23 @@
         <v>164</v>
       </c>
       <c r="B218" t="n">
-        <v>63.27</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B219" t="n">
-        <v>63.27</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>361</v>
+        <v>73</v>
       </c>
       <c r="B220" t="n">
-        <v>63.16</v>
+        <v>63.19</v>
       </c>
     </row>
     <row r="221">
@@ -2114,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="B221" t="n">
-        <v>62.95</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="222">
@@ -2122,63 +2122,63 @@
         <v>175</v>
       </c>
       <c r="B222" t="n">
-        <v>62.84</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="B223" t="n">
-        <v>62.73</v>
+        <v>62.76</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B224" t="n">
-        <v>62.73</v>
+        <v>62.65</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>249</v>
+        <v>75</v>
       </c>
       <c r="B225" t="n">
-        <v>62.73</v>
+        <v>62.65</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="B226" t="n">
-        <v>62.51</v>
+        <v>62.54</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="B227" t="n">
-        <v>62.51</v>
+        <v>62.54</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="B228" t="n">
-        <v>62.51</v>
+        <v>62.43</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="B229" t="n">
-        <v>62.51</v>
+        <v>62.43</v>
       </c>
     </row>
     <row r="230">
@@ -2186,7 +2186,7 @@
         <v>148</v>
       </c>
       <c r="B230" t="n">
-        <v>62.41</v>
+        <v>62.32</v>
       </c>
     </row>
     <row r="231">
@@ -2194,31 +2194,31 @@
         <v>69</v>
       </c>
       <c r="B231" t="n">
-        <v>62.19</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="B232" t="n">
-        <v>61.97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B233" t="n">
-        <v>61.97</v>
+        <v>61.89</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="B234" t="n">
-        <v>61.97</v>
+        <v>61.89</v>
       </c>
     </row>
     <row r="235">
@@ -2226,7 +2226,7 @@
         <v>92</v>
       </c>
       <c r="B235" t="n">
-        <v>61.86</v>
+        <v>61.78</v>
       </c>
     </row>
     <row r="236">
@@ -2234,7 +2234,7 @@
         <v>57</v>
       </c>
       <c r="B236" t="n">
-        <v>61.65</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="237">
@@ -2242,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="B237" t="n">
-        <v>61.65</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="238">
@@ -2250,63 +2250,63 @@
         <v>65</v>
       </c>
       <c r="B238" t="n">
-        <v>61.54</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>61.32</v>
+        <v>61.35</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B240" t="n">
-        <v>61.32</v>
+        <v>61.35</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="B241" t="n">
-        <v>61.32</v>
+        <v>61.24</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="B242" t="n">
-        <v>61.21</v>
+        <v>61.24</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="B243" t="n">
-        <v>61.21</v>
+        <v>61.13</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B244" t="n">
-        <v>61.21</v>
+        <v>61.13</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B245" t="n">
-        <v>61.21</v>
+        <v>61.13</v>
       </c>
     </row>
     <row r="246">
@@ -2314,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="B246" t="n">
-        <v>61.11</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="247">
@@ -2322,7 +2322,7 @@
         <v>62</v>
       </c>
       <c r="B247" t="n">
-        <v>61.11</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="248">
@@ -2330,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="B248" t="n">
-        <v>61.11</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="249">
@@ -2338,7 +2338,7 @@
         <v>102</v>
       </c>
       <c r="B249" t="n">
-        <v>61.11</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="250">
@@ -2346,7 +2346,7 @@
         <v>87</v>
       </c>
       <c r="B250" t="n">
-        <v>60.89</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="251">
@@ -2354,7 +2354,7 @@
         <v>146</v>
       </c>
       <c r="B251" t="n">
-        <v>60.89</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="252">
@@ -2362,23 +2362,23 @@
         <v>151</v>
       </c>
       <c r="B252" t="n">
-        <v>60.89</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B253" t="n">
-        <v>60.89</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="B254" t="n">
-        <v>60.78</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="255">
@@ -2386,7 +2386,7 @@
         <v>58</v>
       </c>
       <c r="B255" t="n">
-        <v>60.67</v>
+        <v>60.59</v>
       </c>
     </row>
     <row r="256">
@@ -2394,31 +2394,31 @@
         <v>98</v>
       </c>
       <c r="B256" t="n">
-        <v>60.67</v>
+        <v>60.59</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="B257" t="n">
-        <v>60.56</v>
+        <v>60.59</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B258" t="n">
-        <v>60.56</v>
+        <v>60.48</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="B259" t="n">
-        <v>60.56</v>
+        <v>60.48</v>
       </c>
     </row>
     <row r="260">
@@ -2426,23 +2426,23 @@
         <v>201</v>
       </c>
       <c r="B260" t="n">
-        <v>60.46</v>
+        <v>60.48</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="B261" t="n">
-        <v>60.13</v>
+        <v>60.15</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B262" t="n">
-        <v>60.13</v>
+        <v>60.04</v>
       </c>
     </row>
     <row r="263">
@@ -2450,71 +2450,71 @@
         <v>50</v>
       </c>
       <c r="B263" t="n">
-        <v>59.91</v>
+        <v>59.83</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B264" t="n">
-        <v>59.8</v>
+        <v>59.83</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="B265" t="n">
-        <v>59.8</v>
+        <v>59.72</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="B266" t="n">
-        <v>59.59</v>
+        <v>59.61</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B267" t="n">
-        <v>59.59</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B268" t="n">
-        <v>59.59</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B269" t="n">
-        <v>59.59</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B270" t="n">
-        <v>59.59</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>238</v>
+        <v>128</v>
       </c>
       <c r="B271" t="n">
-        <v>59.59</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="272">
@@ -2522,7 +2522,7 @@
         <v>230</v>
       </c>
       <c r="B272" t="n">
-        <v>59.48</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="273">
@@ -2530,7 +2530,7 @@
         <v>126</v>
       </c>
       <c r="B273" t="n">
-        <v>59.37</v>
+        <v>59.28</v>
       </c>
     </row>
     <row r="274">
@@ -2538,7 +2538,7 @@
         <v>244</v>
       </c>
       <c r="B274" t="n">
-        <v>59.26</v>
+        <v>59.28</v>
       </c>
     </row>
     <row r="275">
@@ -2546,7 +2546,7 @@
         <v>145</v>
       </c>
       <c r="B275" t="n">
-        <v>59.15</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="276">
@@ -2554,7 +2554,7 @@
         <v>108</v>
       </c>
       <c r="B276" t="n">
-        <v>59.05</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="277">
@@ -2562,7 +2562,7 @@
         <v>147</v>
       </c>
       <c r="B277" t="n">
-        <v>59.05</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="278">
@@ -2570,7 +2570,7 @@
         <v>254</v>
       </c>
       <c r="B278" t="n">
-        <v>58.94</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="279">
@@ -2578,7 +2578,7 @@
         <v>84</v>
       </c>
       <c r="B279" t="n">
-        <v>58.83</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="280">
@@ -2586,23 +2586,23 @@
         <v>137</v>
       </c>
       <c r="B280" t="n">
-        <v>58.83</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B281" t="n">
-        <v>58.83</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B282" t="n">
-        <v>58.72</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="283">
@@ -2610,7 +2610,7 @@
         <v>224</v>
       </c>
       <c r="B283" t="n">
-        <v>58.61</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="284">
@@ -2618,7 +2618,7 @@
         <v>109</v>
       </c>
       <c r="B284" t="n">
-        <v>58.5</v>
+        <v>58.41</v>
       </c>
     </row>
     <row r="285">
@@ -2626,7 +2626,7 @@
         <v>143</v>
       </c>
       <c r="B285" t="n">
-        <v>58.5</v>
+        <v>58.41</v>
       </c>
     </row>
     <row r="286">
@@ -2634,7 +2634,7 @@
         <v>125</v>
       </c>
       <c r="B286" t="n">
-        <v>58.4</v>
+        <v>58.31</v>
       </c>
     </row>
     <row r="287">
@@ -2642,39 +2642,39 @@
         <v>227</v>
       </c>
       <c r="B287" t="n">
-        <v>58.29</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="B288" t="n">
-        <v>58.18</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="B289" t="n">
-        <v>58.18</v>
+        <v>58.09</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="B290" t="n">
-        <v>58.07</v>
+        <v>58.09</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="B291" t="n">
-        <v>58.07</v>
+        <v>57.98</v>
       </c>
     </row>
     <row r="292">
@@ -2682,7 +2682,7 @@
         <v>129</v>
       </c>
       <c r="B292" t="n">
-        <v>57.96</v>
+        <v>57.87</v>
       </c>
     </row>
     <row r="293">
@@ -2690,7 +2690,7 @@
         <v>130</v>
       </c>
       <c r="B293" t="n">
-        <v>57.96</v>
+        <v>57.87</v>
       </c>
     </row>
     <row r="294">
@@ -2698,7 +2698,7 @@
         <v>115</v>
       </c>
       <c r="B294" t="n">
-        <v>57.85</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="295">
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
       <c r="B295" t="n">
-        <v>57.75</v>
+        <v>57.65</v>
       </c>
     </row>
     <row r="296">
@@ -2714,7 +2714,7 @@
         <v>219</v>
       </c>
       <c r="B296" t="n">
-        <v>57.75</v>
+        <v>57.65</v>
       </c>
     </row>
     <row r="297">
@@ -2722,7 +2722,7 @@
         <v>51</v>
       </c>
       <c r="B297" t="n">
-        <v>57.64</v>
+        <v>57.55</v>
       </c>
     </row>
     <row r="298">
@@ -2730,7 +2730,7 @@
         <v>134</v>
       </c>
       <c r="B298" t="n">
-        <v>57.64</v>
+        <v>57.55</v>
       </c>
     </row>
     <row r="299">
@@ -2738,7 +2738,7 @@
         <v>116</v>
       </c>
       <c r="B299" t="n">
-        <v>57.53</v>
+        <v>57.44</v>
       </c>
     </row>
     <row r="300">
@@ -2746,39 +2746,39 @@
         <v>215</v>
       </c>
       <c r="B300" t="n">
-        <v>57.53</v>
+        <v>57.44</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="B301" t="n">
-        <v>57.42</v>
+        <v>57.44</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="B302" t="n">
-        <v>57.42</v>
+        <v>57.33</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B303" t="n">
-        <v>57.31</v>
+        <v>57.33</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B304" t="n">
-        <v>57.31</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="305">
@@ -2786,7 +2786,7 @@
         <v>216</v>
       </c>
       <c r="B305" t="n">
-        <v>57.2</v>
+        <v>57.11</v>
       </c>
     </row>
     <row r="306">
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="B306" t="n">
-        <v>57.1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="307">
@@ -2802,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="B307" t="n">
-        <v>57.1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="308">
@@ -2810,7 +2810,7 @@
         <v>220</v>
       </c>
       <c r="B308" t="n">
-        <v>56.99</v>
+        <v>56.89</v>
       </c>
     </row>
     <row r="309">
@@ -2818,7 +2818,7 @@
         <v>138</v>
       </c>
       <c r="B309" t="n">
-        <v>56.88</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="310">
@@ -2826,7 +2826,7 @@
         <v>213</v>
       </c>
       <c r="B310" t="n">
-        <v>56.88</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="311">
@@ -2834,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="B311" t="n">
-        <v>56.77</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="312">
@@ -2842,7 +2842,7 @@
         <v>85</v>
       </c>
       <c r="B312" t="n">
-        <v>56.77</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="313">
@@ -2850,7 +2850,7 @@
         <v>123</v>
       </c>
       <c r="B313" t="n">
-        <v>56.77</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="314">
@@ -2858,7 +2858,7 @@
         <v>152</v>
       </c>
       <c r="B314" t="n">
-        <v>56.77</v>
+        <v>56.68</v>
       </c>
     </row>
     <row r="315">
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="n">
-        <v>56.66</v>
+        <v>56.57</v>
       </c>
     </row>
     <row r="316">
@@ -2874,7 +2874,7 @@
         <v>35</v>
       </c>
       <c r="B316" t="n">
-        <v>56.66</v>
+        <v>56.57</v>
       </c>
     </row>
     <row r="317">
@@ -2882,7 +2882,7 @@
         <v>104</v>
       </c>
       <c r="B317" t="n">
-        <v>56.45</v>
+        <v>56.35</v>
       </c>
     </row>
     <row r="318">
@@ -2890,7 +2890,7 @@
         <v>114</v>
       </c>
       <c r="B318" t="n">
-        <v>56.45</v>
+        <v>56.35</v>
       </c>
     </row>
     <row r="319">
@@ -2898,7 +2898,7 @@
         <v>100</v>
       </c>
       <c r="B319" t="n">
-        <v>56.23</v>
+        <v>56.13</v>
       </c>
     </row>
     <row r="320">
@@ -2906,7 +2906,7 @@
         <v>149</v>
       </c>
       <c r="B320" t="n">
-        <v>56.12</v>
+        <v>56.03</v>
       </c>
     </row>
     <row r="321">
@@ -2914,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="B321" t="n">
-        <v>56.01</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="322">
@@ -2922,7 +2922,7 @@
         <v>231</v>
       </c>
       <c r="B322" t="n">
-        <v>56.01</v>
+        <v>55.92</v>
       </c>
     </row>
     <row r="323">
@@ -2930,7 +2930,7 @@
         <v>49</v>
       </c>
       <c r="B323" t="n">
-        <v>55.69</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="324">
@@ -2938,7 +2938,7 @@
         <v>70</v>
       </c>
       <c r="B324" t="n">
-        <v>55.69</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="325">
@@ -2946,7 +2946,7 @@
         <v>122</v>
       </c>
       <c r="B325" t="n">
-        <v>55.36</v>
+        <v>55.27</v>
       </c>
     </row>
     <row r="326">
@@ -2954,7 +2954,7 @@
         <v>99</v>
       </c>
       <c r="B326" t="n">
-        <v>55.25</v>
+        <v>55.16</v>
       </c>
     </row>
     <row r="327">
@@ -2962,7 +2962,7 @@
         <v>101</v>
       </c>
       <c r="B327" t="n">
-        <v>54.6</v>
+        <v>54.51</v>
       </c>
     </row>
     <row r="328">
@@ -2970,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="B328" t="n">
-        <v>54.39</v>
+        <v>54.29</v>
       </c>
     </row>
     <row r="329">
@@ -2978,7 +2978,7 @@
         <v>229</v>
       </c>
       <c r="B329" t="n">
-        <v>54.06</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="330">
@@ -2986,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="B330" t="n">
-        <v>53.85</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="331">
@@ -2994,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B331" t="n">
-        <v>53.74</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="332">
@@ -3002,7 +3002,7 @@
         <v>23</v>
       </c>
       <c r="B332" t="n">
-        <v>53.74</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="333">
@@ -3010,7 +3010,7 @@
         <v>34</v>
       </c>
       <c r="B333" t="n">
-        <v>53.74</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="334">
@@ -3018,7 +3018,7 @@
         <v>212</v>
       </c>
       <c r="B334" t="n">
-        <v>53.41</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="335">
@@ -3026,7 +3026,7 @@
         <v>225</v>
       </c>
       <c r="B335" t="n">
-        <v>53.41</v>
+        <v>53.31</v>
       </c>
     </row>
     <row r="336">
@@ -3034,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="n">
-        <v>53.2</v>
+        <v>53.09</v>
       </c>
     </row>
     <row r="337">
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="B337" t="n">
-        <v>53.09</v>
+        <v>52.99</v>
       </c>
     </row>
     <row r="338">
@@ -3050,7 +3050,7 @@
         <v>46</v>
       </c>
       <c r="B338" t="n">
-        <v>52.98</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="339">
@@ -3058,7 +3058,7 @@
         <v>133</v>
       </c>
       <c r="B339" t="n">
-        <v>52.98</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="340">
@@ -3066,7 +3066,7 @@
         <v>136</v>
       </c>
       <c r="B340" t="n">
-        <v>52.76</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="341">
@@ -3074,7 +3074,7 @@
         <v>228</v>
       </c>
       <c r="B341" t="n">
-        <v>52.76</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="342">
@@ -3082,7 +3082,7 @@
         <v>33</v>
       </c>
       <c r="B342" t="n">
-        <v>52.65</v>
+        <v>52.55</v>
       </c>
     </row>
     <row r="343">
@@ -3090,7 +3090,7 @@
         <v>13</v>
       </c>
       <c r="B343" t="n">
-        <v>52.44</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="344">
@@ -3098,7 +3098,7 @@
         <v>132</v>
       </c>
       <c r="B344" t="n">
-        <v>52.44</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="345">
@@ -3106,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="B345" t="n">
-        <v>52.33</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="346">
@@ -3114,7 +3114,7 @@
         <v>19</v>
       </c>
       <c r="B346" t="n">
-        <v>52.33</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="347">
@@ -3122,7 +3122,7 @@
         <v>226</v>
       </c>
       <c r="B347" t="n">
-        <v>52.33</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="348">
@@ -3130,7 +3130,7 @@
         <v>140</v>
       </c>
       <c r="B348" t="n">
-        <v>52.22</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="349">
@@ -3138,7 +3138,7 @@
         <v>36</v>
       </c>
       <c r="B349" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="350">
@@ -3146,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="B350" t="n">
-        <v>51.9</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="351">
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="n">
-        <v>51.79</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="352">
@@ -3162,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="B352" t="n">
-        <v>51.68</v>
+        <v>51.57</v>
       </c>
     </row>
     <row r="353">
@@ -3170,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="B353" t="n">
-        <v>51.57</v>
+        <v>51.47</v>
       </c>
     </row>
     <row r="354">
@@ -3178,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="B354" t="n">
-        <v>51.57</v>
+        <v>51.47</v>
       </c>
     </row>
     <row r="355">
@@ -3186,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="B355" t="n">
-        <v>51.35</v>
+        <v>51.25</v>
       </c>
     </row>
     <row r="356">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="B356" t="n">
-        <v>51.25</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="357">
@@ -3202,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="B357" t="n">
-        <v>51.25</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="358">
@@ -3210,7 +3210,7 @@
         <v>235</v>
       </c>
       <c r="B358" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="359">
@@ -3218,7 +3218,7 @@
         <v>25</v>
       </c>
       <c r="B359" t="n">
-        <v>50.81</v>
+        <v>50.71</v>
       </c>
     </row>
     <row r="360">
@@ -3226,7 +3226,7 @@
         <v>131</v>
       </c>
       <c r="B360" t="n">
-        <v>50.81</v>
+        <v>50.71</v>
       </c>
     </row>
     <row r="361">
@@ -3234,7 +3234,7 @@
         <v>39</v>
       </c>
       <c r="B361" t="n">
-        <v>50.6</v>
+        <v>50.49</v>
       </c>
     </row>
     <row r="362">
@@ -3242,7 +3242,7 @@
         <v>26</v>
       </c>
       <c r="B362" t="n">
-        <v>50.38</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="363">
@@ -3250,7 +3250,7 @@
         <v>97</v>
       </c>
       <c r="B363" t="n">
-        <v>50.38</v>
+        <v>50.27</v>
       </c>
     </row>
     <row r="364">
@@ -3258,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="B364" t="n">
-        <v>50.27</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="365">
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="n">
-        <v>49.84</v>
+        <v>49.73</v>
       </c>
     </row>
     <row r="366">
@@ -3274,7 +3274,7 @@
         <v>223</v>
       </c>
       <c r="B366" t="n">
-        <v>49.73</v>
+        <v>49.62</v>
       </c>
     </row>
     <row r="367">
@@ -3282,7 +3282,7 @@
         <v>119</v>
       </c>
       <c r="B367" t="n">
-        <v>49.4</v>
+        <v>49.29</v>
       </c>
     </row>
     <row r="368">
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="B368" t="n">
-        <v>49.3</v>
+        <v>49.19</v>
       </c>
     </row>
     <row r="369">
@@ -3298,7 +3298,7 @@
         <v>32</v>
       </c>
       <c r="B369" t="n">
-        <v>48.97</v>
+        <v>48.86</v>
       </c>
     </row>
     <row r="370">
@@ -3306,7 +3306,7 @@
         <v>41</v>
       </c>
       <c r="B370" t="n">
-        <v>48.97</v>
+        <v>48.86</v>
       </c>
     </row>
     <row r="371">
@@ -3314,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="B371" t="n">
-        <v>48.65</v>
+        <v>48.53</v>
       </c>
     </row>
     <row r="372">
@@ -3322,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="B372" t="n">
-        <v>48.1</v>
+        <v>47.99</v>
       </c>
     </row>
     <row r="373">
@@ -3330,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B373" t="n">
-        <v>47.89</v>
+        <v>47.77</v>
       </c>
     </row>
     <row r="374">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="n">
-        <v>47.78</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="375">
@@ -3346,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="B375" t="n">
-        <v>47.45</v>
+        <v>47.34</v>
       </c>
     </row>
     <row r="376">
@@ -3354,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="B376" t="n">
-        <v>47.02</v>
+        <v>46.91</v>
       </c>
     </row>
     <row r="377">
@@ -3362,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="B377" t="n">
-        <v>46.7</v>
+        <v>46.58</v>
       </c>
     </row>
     <row r="378">
@@ -3370,7 +3370,7 @@
         <v>22</v>
       </c>
       <c r="B378" t="n">
-        <v>46.26</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="379">
@@ -3378,7 +3378,7 @@
         <v>42</v>
       </c>
       <c r="B379" t="n">
-        <v>46.15</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="380">
@@ -3386,7 +3386,7 @@
         <v>88</v>
       </c>
       <c r="B380" t="n">
-        <v>46.15</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="381">
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B381" t="n">
-        <v>45.94</v>
+        <v>45.82</v>
       </c>
     </row>
     <row r="382">
@@ -3402,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B382" t="n">
-        <v>45.72</v>
+        <v>45.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/originals/percentage_by_patient.xlsx
+++ b/data/originals/percentage_by_patient.xlsx
@@ -794,7 +794,7 @@
         <v>357</v>
       </c>
       <c r="B56" t="n">
-        <v>75.24</v>
+        <v>75.35</v>
       </c>
     </row>
     <row r="57">
@@ -983,15 +983,15 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B80" t="n">
-        <v>73.72</v>
+        <v>73.83</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B81" t="n">
         <v>73.72</v>
@@ -1183,15 +1183,15 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="B105" t="n">
-        <v>72.2</v>
+        <v>72.31</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="B106" t="n">
         <v>72.2</v>
@@ -1479,15 +1479,15 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="B142" t="n">
-        <v>68.95</v>
+        <v>69.06</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="B143" t="n">
         <v>68.95</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B144" t="n">
         <v>68.95</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>255</v>
+        <v>184</v>
       </c>
       <c r="B145" t="n">
         <v>68.95</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="B154" t="n">
         <v>68.08</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="B155" t="n">
         <v>68.08</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B156" t="n">
         <v>68.08</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>359</v>
+        <v>31</v>
       </c>
       <c r="B157" t="n">
-        <v>68.08</v>
+        <v>67.97</v>
       </c>
     </row>
     <row r="158">
@@ -1727,7 +1727,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="B173" t="n">
         <v>66.88</v>
@@ -1735,15 +1735,15 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="B174" t="n">
-        <v>66.78</v>
+        <v>66.88</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="B175" t="n">
         <v>66.78</v>
@@ -1831,23 +1831,23 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="B186" t="n">
-        <v>65.69</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>256</v>
+        <v>374</v>
       </c>
       <c r="B187" t="n">
-        <v>65.69</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="B188" t="n">
         <v>65.69</v>
@@ -1871,15 +1871,15 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="B191" t="n">
-        <v>65.47</v>
+        <v>65.58</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="B192" t="n">
         <v>65.47</v>
@@ -1927,15 +1927,15 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B198" t="n">
-        <v>65.15</v>
+        <v>65.26</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B199" t="n">
         <v>65.15</v>
@@ -1999,15 +1999,15 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B207" t="n">
-        <v>64.39</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="B208" t="n">
         <v>64.39</v>
@@ -2042,7 +2042,7 @@
         <v>240</v>
       </c>
       <c r="B212" t="n">
-        <v>63.95</v>
+        <v>64.06</v>
       </c>
     </row>
     <row r="213">
@@ -2130,7 +2130,7 @@
         <v>249</v>
       </c>
       <c r="B223" t="n">
-        <v>62.76</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="224">
@@ -2151,15 +2151,15 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B226" t="n">
-        <v>62.54</v>
+        <v>62.65</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="B227" t="n">
         <v>62.54</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="B233" t="n">
         <v>61.89</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B234" t="n">
-        <v>61.89</v>
+        <v>61.78</v>
       </c>
     </row>
     <row r="235">
@@ -2258,7 +2258,7 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>61.35</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="240">
@@ -2266,7 +2266,7 @@
         <v>257</v>
       </c>
       <c r="B240" t="n">
-        <v>61.35</v>
+        <v>61.45</v>
       </c>
     </row>
     <row r="241">
@@ -2287,7 +2287,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="B243" t="n">
         <v>61.13</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B244" t="n">
         <v>61.13</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="B245" t="n">
-        <v>61.13</v>
+        <v>61.02</v>
       </c>
     </row>
     <row r="246">
@@ -2383,15 +2383,15 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>58</v>
+        <v>247</v>
       </c>
       <c r="B255" t="n">
-        <v>60.59</v>
+        <v>60.69</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B256" t="n">
         <v>60.59</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>247</v>
+        <v>98</v>
       </c>
       <c r="B257" t="n">
         <v>60.59</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B258" t="n">
         <v>60.48</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="B259" t="n">
         <v>60.48</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="B260" t="n">
-        <v>60.48</v>
+        <v>60.37</v>
       </c>
     </row>
     <row r="261">
@@ -2434,7 +2434,7 @@
         <v>239</v>
       </c>
       <c r="B261" t="n">
-        <v>60.15</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="262">
@@ -2447,15 +2447,15 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="B263" t="n">
-        <v>59.83</v>
+        <v>59.93</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="B264" t="n">
         <v>59.83</v>
@@ -2474,7 +2474,7 @@
         <v>238</v>
       </c>
       <c r="B266" t="n">
-        <v>59.61</v>
+        <v>59.72</v>
       </c>
     </row>
     <row r="267">
@@ -2527,15 +2527,15 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="B273" t="n">
-        <v>59.28</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="B274" t="n">
         <v>59.28</v>
@@ -2551,15 +2551,15 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="B276" t="n">
-        <v>58.96</v>
+        <v>59.07</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B277" t="n">
         <v>58.96</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c r="B278" t="n">
         <v>58.96</v>
@@ -2639,15 +2639,15 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B287" t="n">
-        <v>58.2</v>
+        <v>58.31</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="B288" t="n">
         <v>58.2</v>
@@ -2655,15 +2655,15 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="B289" t="n">
-        <v>58.09</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="B290" t="n">
         <v>58.09</v>
@@ -2735,15 +2735,15 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="B299" t="n">
-        <v>57.44</v>
+        <v>57.55</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="B300" t="n">
         <v>57.44</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B301" t="n">
         <v>57.44</v>
@@ -2759,15 +2759,15 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c r="B302" t="n">
-        <v>57.33</v>
+        <v>57.44</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="B303" t="n">
         <v>57.33</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B311" t="n">
         <v>56.68</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="B312" t="n">
         <v>56.68</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B313" t="n">
         <v>56.68</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="B314" t="n">
-        <v>56.68</v>
+        <v>56.57</v>
       </c>
     </row>
     <row r="315">
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="n">
-        <v>56.57</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="316">
@@ -2874,7 +2874,7 @@
         <v>35</v>
       </c>
       <c r="B316" t="n">
-        <v>56.57</v>
+        <v>56.46</v>
       </c>
     </row>
     <row r="317">
@@ -2911,7 +2911,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="B321" t="n">
         <v>55.92</v>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="B322" t="n">
-        <v>55.92</v>
+        <v>55.81</v>
       </c>
     </row>
     <row r="323">
@@ -2970,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="B328" t="n">
-        <v>54.29</v>
+        <v>54.18</v>
       </c>
     </row>
     <row r="329">
@@ -2986,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="B330" t="n">
-        <v>53.75</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="331">
@@ -2994,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B331" t="n">
-        <v>53.64</v>
+        <v>53.53</v>
       </c>
     </row>
     <row r="332">
@@ -3002,7 +3002,7 @@
         <v>23</v>
       </c>
       <c r="B332" t="n">
-        <v>53.64</v>
+        <v>53.53</v>
       </c>
     </row>
     <row r="333">
@@ -3010,7 +3010,7 @@
         <v>34</v>
       </c>
       <c r="B333" t="n">
-        <v>53.64</v>
+        <v>53.53</v>
       </c>
     </row>
     <row r="334">
@@ -3034,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="n">
-        <v>53.09</v>
+        <v>52.99</v>
       </c>
     </row>
     <row r="337">
@@ -3042,12 +3042,12 @@
         <v>5</v>
       </c>
       <c r="B337" t="n">
-        <v>52.99</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B338" t="n">
         <v>52.88</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="B339" t="n">
-        <v>52.88</v>
+        <v>52.77</v>
       </c>
     </row>
     <row r="340">
@@ -3082,12 +3082,12 @@
         <v>33</v>
       </c>
       <c r="B342" t="n">
-        <v>52.55</v>
+        <v>52.44</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="B343" t="n">
         <v>52.33</v>
@@ -3095,15 +3095,15 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="B344" t="n">
-        <v>52.33</v>
+        <v>52.23</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="B345" t="n">
         <v>52.23</v>
@@ -3111,18 +3111,18 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B346" t="n">
-        <v>52.23</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="B347" t="n">
-        <v>52.23</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="348">
@@ -3138,7 +3138,7 @@
         <v>36</v>
       </c>
       <c r="B349" t="n">
-        <v>51.9</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="350">
@@ -3146,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="B350" t="n">
-        <v>51.79</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="351">
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="n">
-        <v>51.68</v>
+        <v>51.57</v>
       </c>
     </row>
     <row r="352">
@@ -3162,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="B352" t="n">
-        <v>51.57</v>
+        <v>51.47</v>
       </c>
     </row>
     <row r="353">
@@ -3170,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="B353" t="n">
-        <v>51.47</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="354">
@@ -3178,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="B354" t="n">
-        <v>51.47</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="355">
@@ -3186,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="B355" t="n">
-        <v>51.25</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="356">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="B356" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="357">
@@ -3202,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="B357" t="n">
-        <v>51.14</v>
+        <v>51.03</v>
       </c>
     </row>
     <row r="358">
@@ -3215,7 +3215,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="B359" t="n">
         <v>50.71</v>
@@ -3223,10 +3223,10 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="B360" t="n">
-        <v>50.71</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="361">
@@ -3234,12 +3234,12 @@
         <v>39</v>
       </c>
       <c r="B361" t="n">
-        <v>50.49</v>
+        <v>50.38</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B362" t="n">
         <v>50.27</v>
@@ -3247,10 +3247,10 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B363" t="n">
-        <v>50.27</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="364">
@@ -3258,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="B364" t="n">
-        <v>50.16</v>
+        <v>50.05</v>
       </c>
     </row>
     <row r="365">
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="n">
-        <v>49.73</v>
+        <v>49.62</v>
       </c>
     </row>
     <row r="366">
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="B368" t="n">
-        <v>49.19</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="369">
@@ -3298,7 +3298,7 @@
         <v>32</v>
       </c>
       <c r="B369" t="n">
-        <v>48.86</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="370">
@@ -3306,7 +3306,7 @@
         <v>41</v>
       </c>
       <c r="B370" t="n">
-        <v>48.86</v>
+        <v>48.75</v>
       </c>
     </row>
     <row r="371">
@@ -3322,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="B372" t="n">
-        <v>47.99</v>
+        <v>47.88</v>
       </c>
     </row>
     <row r="373">
@@ -3330,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B373" t="n">
-        <v>47.77</v>
+        <v>47.67</v>
       </c>
     </row>
     <row r="374">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="n">
-        <v>47.67</v>
+        <v>47.56</v>
       </c>
     </row>
     <row r="375">
@@ -3346,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="B375" t="n">
-        <v>47.34</v>
+        <v>47.23</v>
       </c>
     </row>
     <row r="376">
@@ -3354,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="B376" t="n">
-        <v>46.91</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="377">
@@ -3370,12 +3370,12 @@
         <v>22</v>
       </c>
       <c r="B378" t="n">
-        <v>46.15</v>
+        <v>46.04</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B379" t="n">
         <v>46.04</v>
@@ -3383,10 +3383,10 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B380" t="n">
-        <v>46.04</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="381">
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B381" t="n">
-        <v>45.82</v>
+        <v>45.71</v>
       </c>
     </row>
     <row r="382">
@@ -3402,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B382" t="n">
-        <v>45.6</v>
+        <v>45.49</v>
       </c>
     </row>
   </sheetData>

--- a/data/originals/percentage_by_patient.xlsx
+++ b/data/originals/percentage_by_patient.xlsx
@@ -362,7 +362,7 @@
         <v>369</v>
       </c>
       <c r="B2" t="n">
-        <v>93.49</v>
+        <v>93.38</v>
       </c>
     </row>
     <row r="3">
@@ -370,7 +370,7 @@
         <v>278</v>
       </c>
       <c r="B3" t="n">
-        <v>85.02</v>
+        <v>85.03</v>
       </c>
     </row>
     <row r="4">
@@ -378,7 +378,7 @@
         <v>162</v>
       </c>
       <c r="B4" t="n">
-        <v>84.26</v>
+        <v>84.16</v>
       </c>
     </row>
     <row r="5">
@@ -386,7 +386,7 @@
         <v>325</v>
       </c>
       <c r="B5" t="n">
-        <v>83.71</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="6">
@@ -394,7 +394,7 @@
         <v>208</v>
       </c>
       <c r="B6" t="n">
-        <v>82.84</v>
+        <v>82.75</v>
       </c>
     </row>
     <row r="7">
@@ -402,7 +402,7 @@
         <v>160</v>
       </c>
       <c r="B7" t="n">
-        <v>82.74</v>
+        <v>82.65</v>
       </c>
     </row>
     <row r="8">
@@ -410,7 +410,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="n">
-        <v>82.63</v>
+        <v>82.54</v>
       </c>
     </row>
     <row r="9">
@@ -418,7 +418,7 @@
         <v>268</v>
       </c>
       <c r="B9" t="n">
-        <v>82.52</v>
+        <v>82.54</v>
       </c>
     </row>
     <row r="10">
@@ -426,7 +426,7 @@
         <v>267</v>
       </c>
       <c r="B10" t="n">
-        <v>81.87</v>
+        <v>81.89</v>
       </c>
     </row>
     <row r="11">
@@ -434,7 +434,7 @@
         <v>161</v>
       </c>
       <c r="B11" t="n">
-        <v>80.89</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="12">
@@ -442,7 +442,7 @@
         <v>377</v>
       </c>
       <c r="B12" t="n">
-        <v>80.89</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="13">
@@ -450,7 +450,7 @@
         <v>363</v>
       </c>
       <c r="B13" t="n">
-        <v>80.78</v>
+        <v>80.69</v>
       </c>
     </row>
     <row r="14">
@@ -458,7 +458,7 @@
         <v>335</v>
       </c>
       <c r="B14" t="n">
-        <v>80.24</v>
+        <v>80.26</v>
       </c>
     </row>
     <row r="15">
@@ -466,7 +466,7 @@
         <v>328</v>
       </c>
       <c r="B15" t="n">
-        <v>79.8</v>
+        <v>79.83</v>
       </c>
     </row>
     <row r="16">
@@ -474,7 +474,7 @@
         <v>287</v>
       </c>
       <c r="B16" t="n">
-        <v>79.48</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="17">
@@ -482,7 +482,7 @@
         <v>326</v>
       </c>
       <c r="B17" t="n">
-        <v>79.48</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="18">
@@ -490,7 +490,7 @@
         <v>298</v>
       </c>
       <c r="B18" t="n">
-        <v>79.37</v>
+        <v>79.39</v>
       </c>
     </row>
     <row r="19">
@@ -498,7 +498,7 @@
         <v>301</v>
       </c>
       <c r="B19" t="n">
-        <v>79.37</v>
+        <v>79.39</v>
       </c>
     </row>
     <row r="20">
@@ -506,7 +506,7 @@
         <v>320</v>
       </c>
       <c r="B20" t="n">
-        <v>79.15</v>
+        <v>79.18</v>
       </c>
     </row>
     <row r="21">
@@ -514,7 +514,7 @@
         <v>303</v>
       </c>
       <c r="B21" t="n">
-        <v>79.04</v>
+        <v>79.07</v>
       </c>
     </row>
     <row r="22">
@@ -522,7 +522,7 @@
         <v>157</v>
       </c>
       <c r="B22" t="n">
-        <v>78.94</v>
+        <v>78.85</v>
       </c>
     </row>
     <row r="23">
@@ -530,7 +530,7 @@
         <v>209</v>
       </c>
       <c r="B23" t="n">
-        <v>78.94</v>
+        <v>78.85</v>
       </c>
     </row>
     <row r="24">
@@ -538,7 +538,7 @@
         <v>366</v>
       </c>
       <c r="B24" t="n">
-        <v>78.83</v>
+        <v>78.74</v>
       </c>
     </row>
     <row r="25">
@@ -546,7 +546,7 @@
         <v>312</v>
       </c>
       <c r="B25" t="n">
-        <v>78.39</v>
+        <v>78.42</v>
       </c>
     </row>
     <row r="26">
@@ -554,7 +554,7 @@
         <v>274</v>
       </c>
       <c r="B26" t="n">
-        <v>78.28</v>
+        <v>78.31</v>
       </c>
     </row>
     <row r="27">
@@ -562,31 +562,31 @@
         <v>273</v>
       </c>
       <c r="B27" t="n">
-        <v>78.07</v>
+        <v>78.09</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="B28" t="n">
-        <v>78.07</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B29" t="n">
-        <v>77.96</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="B30" t="n">
-        <v>77.96</v>
+        <v>77.98</v>
       </c>
     </row>
     <row r="31">
@@ -594,23 +594,23 @@
         <v>271</v>
       </c>
       <c r="B31" t="n">
-        <v>77.85</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>154</v>
+        <v>283</v>
       </c>
       <c r="B32" t="n">
-        <v>77.74</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>283</v>
+        <v>154</v>
       </c>
       <c r="B33" t="n">
-        <v>77.74</v>
+        <v>77.66</v>
       </c>
     </row>
     <row r="34">
@@ -618,7 +618,7 @@
         <v>333</v>
       </c>
       <c r="B34" t="n">
-        <v>77.52</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="35">
@@ -626,7 +626,7 @@
         <v>352</v>
       </c>
       <c r="B35" t="n">
-        <v>77.52</v>
+        <v>77.55</v>
       </c>
     </row>
     <row r="36">
@@ -634,7 +634,7 @@
         <v>262</v>
       </c>
       <c r="B36" t="n">
-        <v>77.42</v>
+        <v>77.44</v>
       </c>
     </row>
     <row r="37">
@@ -642,7 +642,7 @@
         <v>276</v>
       </c>
       <c r="B37" t="n">
-        <v>77.42</v>
+        <v>77.44</v>
       </c>
     </row>
     <row r="38">
@@ -650,7 +650,7 @@
         <v>289</v>
       </c>
       <c r="B38" t="n">
-        <v>77.42</v>
+        <v>77.44</v>
       </c>
     </row>
     <row r="39">
@@ -658,7 +658,7 @@
         <v>308</v>
       </c>
       <c r="B39" t="n">
-        <v>77.42</v>
+        <v>77.44</v>
       </c>
     </row>
     <row r="40">
@@ -666,7 +666,7 @@
         <v>259</v>
       </c>
       <c r="B40" t="n">
-        <v>77.09</v>
+        <v>77.11</v>
       </c>
     </row>
     <row r="41">
@@ -674,7 +674,7 @@
         <v>294</v>
       </c>
       <c r="B41" t="n">
-        <v>77.09</v>
+        <v>77.11</v>
       </c>
     </row>
     <row r="42">
@@ -682,7 +682,7 @@
         <v>304</v>
       </c>
       <c r="B42" t="n">
-        <v>76.98</v>
+        <v>77.01</v>
       </c>
     </row>
     <row r="43">
@@ -690,7 +690,7 @@
         <v>334</v>
       </c>
       <c r="B43" t="n">
-        <v>76.98</v>
+        <v>77.01</v>
       </c>
     </row>
     <row r="44">
@@ -698,7 +698,7 @@
         <v>306</v>
       </c>
       <c r="B44" t="n">
-        <v>76.76</v>
+        <v>76.79</v>
       </c>
     </row>
     <row r="45">
@@ -706,31 +706,31 @@
         <v>329</v>
       </c>
       <c r="B45" t="n">
-        <v>76.66</v>
+        <v>76.68</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>153</v>
+        <v>285</v>
       </c>
       <c r="B46" t="n">
-        <v>76.55</v>
+        <v>76.57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B47" t="n">
-        <v>76.55</v>
+        <v>76.57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>293</v>
+        <v>153</v>
       </c>
       <c r="B48" t="n">
-        <v>76.55</v>
+        <v>76.46</v>
       </c>
     </row>
     <row r="49">
@@ -738,7 +738,7 @@
         <v>338</v>
       </c>
       <c r="B49" t="n">
-        <v>76.33</v>
+        <v>76.36</v>
       </c>
     </row>
     <row r="50">
@@ -746,7 +746,7 @@
         <v>381</v>
       </c>
       <c r="B50" t="n">
-        <v>75.79</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="51">
@@ -754,7 +754,7 @@
         <v>349</v>
       </c>
       <c r="B51" t="n">
-        <v>75.57</v>
+        <v>75.6</v>
       </c>
     </row>
     <row r="52">
@@ -762,7 +762,7 @@
         <v>292</v>
       </c>
       <c r="B52" t="n">
-        <v>75.46</v>
+        <v>75.49</v>
       </c>
     </row>
     <row r="53">
@@ -770,7 +770,7 @@
         <v>300</v>
       </c>
       <c r="B53" t="n">
-        <v>75.46</v>
+        <v>75.49</v>
       </c>
     </row>
     <row r="54">
@@ -778,7 +778,7 @@
         <v>305</v>
       </c>
       <c r="B54" t="n">
-        <v>75.46</v>
+        <v>75.49</v>
       </c>
     </row>
     <row r="55">
@@ -786,7 +786,7 @@
         <v>337</v>
       </c>
       <c r="B55" t="n">
-        <v>75.35</v>
+        <v>75.38</v>
       </c>
     </row>
     <row r="56">
@@ -794,7 +794,7 @@
         <v>357</v>
       </c>
       <c r="B56" t="n">
-        <v>75.35</v>
+        <v>75.27</v>
       </c>
     </row>
     <row r="57">
@@ -802,7 +802,7 @@
         <v>272</v>
       </c>
       <c r="B57" t="n">
-        <v>75.14</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="58">
@@ -810,7 +810,7 @@
         <v>288</v>
       </c>
       <c r="B58" t="n">
-        <v>75.14</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="59">
@@ -818,7 +818,7 @@
         <v>332</v>
       </c>
       <c r="B59" t="n">
-        <v>75.14</v>
+        <v>75.16</v>
       </c>
     </row>
     <row r="60">
@@ -826,39 +826,39 @@
         <v>346</v>
       </c>
       <c r="B60" t="n">
-        <v>75.03</v>
+        <v>75.05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="B61" t="n">
-        <v>74.92</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B62" t="n">
-        <v>74.92</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="B63" t="n">
-        <v>74.92</v>
+        <v>74.95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>345</v>
+        <v>200</v>
       </c>
       <c r="B64" t="n">
-        <v>74.92</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="65">
@@ -866,7 +866,7 @@
         <v>313</v>
       </c>
       <c r="B65" t="n">
-        <v>74.81</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="66">
@@ -874,7 +874,7 @@
         <v>317</v>
       </c>
       <c r="B66" t="n">
-        <v>74.81</v>
+        <v>74.84</v>
       </c>
     </row>
     <row r="67">
@@ -882,7 +882,7 @@
         <v>281</v>
       </c>
       <c r="B67" t="n">
-        <v>74.7</v>
+        <v>74.73</v>
       </c>
     </row>
     <row r="68">
@@ -890,7 +890,7 @@
         <v>307</v>
       </c>
       <c r="B68" t="n">
-        <v>74.7</v>
+        <v>74.73</v>
       </c>
     </row>
     <row r="69">
@@ -898,7 +898,7 @@
         <v>277</v>
       </c>
       <c r="B69" t="n">
-        <v>74.59</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="70">
@@ -906,7 +906,7 @@
         <v>282</v>
       </c>
       <c r="B70" t="n">
-        <v>74.59</v>
+        <v>74.62</v>
       </c>
     </row>
     <row r="71">
@@ -914,7 +914,7 @@
         <v>275</v>
       </c>
       <c r="B71" t="n">
-        <v>74.48</v>
+        <v>74.51</v>
       </c>
     </row>
     <row r="72">
@@ -922,39 +922,39 @@
         <v>344</v>
       </c>
       <c r="B72" t="n">
-        <v>74.48</v>
+        <v>74.51</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>379</v>
+        <v>260</v>
       </c>
       <c r="B73" t="n">
-        <v>74.38</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>197</v>
+        <v>330</v>
       </c>
       <c r="B74" t="n">
-        <v>74.27</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="B75" t="n">
-        <v>74.27</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="B76" t="n">
-        <v>74.27</v>
+        <v>74.19</v>
       </c>
     </row>
     <row r="77">
@@ -962,39 +962,39 @@
         <v>336</v>
       </c>
       <c r="B77" t="n">
-        <v>74.05</v>
+        <v>74.08</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="B78" t="n">
-        <v>73.94</v>
+        <v>73.86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="B79" t="n">
-        <v>73.83</v>
+        <v>73.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="B80" t="n">
-        <v>73.83</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B81" t="n">
-        <v>73.72</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="82">
@@ -1002,31 +1002,31 @@
         <v>170</v>
       </c>
       <c r="B82" t="n">
-        <v>73.62</v>
+        <v>73.54</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="B83" t="n">
-        <v>73.51</v>
+        <v>73.43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B84" t="n">
-        <v>73.4</v>
+        <v>73.43</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B85" t="n">
-        <v>73.4</v>
+        <v>73.43</v>
       </c>
     </row>
     <row r="86">
@@ -1034,7 +1034,7 @@
         <v>370</v>
       </c>
       <c r="B86" t="n">
-        <v>73.29</v>
+        <v>73.21</v>
       </c>
     </row>
     <row r="87">
@@ -1042,7 +1042,7 @@
         <v>165</v>
       </c>
       <c r="B87" t="n">
-        <v>73.18</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="88">
@@ -1050,7 +1050,7 @@
         <v>378</v>
       </c>
       <c r="B88" t="n">
-        <v>73.18</v>
+        <v>73.1</v>
       </c>
     </row>
     <row r="89">
@@ -1058,7 +1058,7 @@
         <v>211</v>
       </c>
       <c r="B89" t="n">
-        <v>73.07</v>
+        <v>72.99</v>
       </c>
     </row>
     <row r="90">
@@ -1066,7 +1066,7 @@
         <v>364</v>
       </c>
       <c r="B90" t="n">
-        <v>73.07</v>
+        <v>72.99</v>
       </c>
     </row>
     <row r="91">
@@ -1074,47 +1074,47 @@
         <v>343</v>
       </c>
       <c r="B91" t="n">
-        <v>72.86</v>
+        <v>72.89</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="B92" t="n">
-        <v>72.86</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>169</v>
+        <v>376</v>
       </c>
       <c r="B93" t="n">
-        <v>72.75</v>
+        <v>72.78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B94" t="n">
-        <v>72.75</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B95" t="n">
-        <v>72.75</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="B96" t="n">
-        <v>72.75</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="97">
@@ -1122,7 +1122,7 @@
         <v>279</v>
       </c>
       <c r="B97" t="n">
-        <v>72.64</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="98">
@@ -1130,7 +1130,7 @@
         <v>280</v>
       </c>
       <c r="B98" t="n">
-        <v>72.64</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="99">
@@ -1138,47 +1138,47 @@
         <v>321</v>
       </c>
       <c r="B99" t="n">
-        <v>72.64</v>
+        <v>72.67</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>205</v>
+        <v>353</v>
       </c>
       <c r="B100" t="n">
-        <v>72.53</v>
+        <v>72.56</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="B101" t="n">
-        <v>72.53</v>
+        <v>72.45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="B102" t="n">
-        <v>72.42</v>
+        <v>72.45</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B103" t="n">
-        <v>72.42</v>
+        <v>72.34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="B104" t="n">
-        <v>72.42</v>
+        <v>72.34</v>
       </c>
     </row>
     <row r="105">
@@ -1186,39 +1186,39 @@
         <v>258</v>
       </c>
       <c r="B105" t="n">
-        <v>72.31</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="B106" t="n">
-        <v>72.2</v>
+        <v>72.23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>266</v>
+        <v>192</v>
       </c>
       <c r="B107" t="n">
-        <v>72.2</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B108" t="n">
-        <v>72.2</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="B109" t="n">
-        <v>72.1</v>
+        <v>72.13</v>
       </c>
     </row>
     <row r="110">
@@ -1226,7 +1226,7 @@
         <v>342</v>
       </c>
       <c r="B110" t="n">
-        <v>71.99</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="111">
@@ -1234,7 +1234,7 @@
         <v>284</v>
       </c>
       <c r="B111" t="n">
-        <v>71.88</v>
+        <v>71.91</v>
       </c>
     </row>
     <row r="112">
@@ -1242,7 +1242,7 @@
         <v>331</v>
       </c>
       <c r="B112" t="n">
-        <v>71.88</v>
+        <v>71.91</v>
       </c>
     </row>
     <row r="113">
@@ -1250,7 +1250,7 @@
         <v>341</v>
       </c>
       <c r="B113" t="n">
-        <v>71.77</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="114">
@@ -1258,23 +1258,23 @@
         <v>163</v>
       </c>
       <c r="B114" t="n">
-        <v>71.66</v>
+        <v>71.58</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="B115" t="n">
-        <v>71.44</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>318</v>
+        <v>190</v>
       </c>
       <c r="B116" t="n">
-        <v>71.44</v>
+        <v>71.37</v>
       </c>
     </row>
     <row r="117">
@@ -1282,23 +1282,23 @@
         <v>355</v>
       </c>
       <c r="B117" t="n">
-        <v>71.44</v>
+        <v>71.37</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="B118" t="n">
-        <v>71.34</v>
+        <v>71.26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="B119" t="n">
-        <v>71.23</v>
+        <v>71.26</v>
       </c>
     </row>
     <row r="120">
@@ -1306,31 +1306,31 @@
         <v>315</v>
       </c>
       <c r="B120" t="n">
-        <v>71.12</v>
+        <v>71.15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="B121" t="n">
-        <v>71.01</v>
+        <v>71.04</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B122" t="n">
-        <v>71.01</v>
+        <v>70.93</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="B123" t="n">
-        <v>71.01</v>
+        <v>70.93</v>
       </c>
     </row>
     <row r="124">
@@ -1338,7 +1338,7 @@
         <v>309</v>
       </c>
       <c r="B124" t="n">
-        <v>70.9</v>
+        <v>70.93</v>
       </c>
     </row>
     <row r="125">
@@ -1346,23 +1346,23 @@
         <v>327</v>
       </c>
       <c r="B125" t="n">
-        <v>70.9</v>
+        <v>70.93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="B126" t="n">
-        <v>70.79</v>
+        <v>70.82</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="B127" t="n">
-        <v>70.79</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="128">
@@ -1370,7 +1370,7 @@
         <v>322</v>
       </c>
       <c r="B128" t="n">
-        <v>70.58</v>
+        <v>70.61</v>
       </c>
     </row>
     <row r="129">
@@ -1378,7 +1378,7 @@
         <v>261</v>
       </c>
       <c r="B129" t="n">
-        <v>70.36</v>
+        <v>70.39</v>
       </c>
     </row>
     <row r="130">
@@ -1386,7 +1386,7 @@
         <v>173</v>
       </c>
       <c r="B130" t="n">
-        <v>70.25</v>
+        <v>70.17</v>
       </c>
     </row>
     <row r="131">
@@ -1394,7 +1394,7 @@
         <v>210</v>
       </c>
       <c r="B131" t="n">
-        <v>70.25</v>
+        <v>70.17</v>
       </c>
     </row>
     <row r="132">
@@ -1402,7 +1402,7 @@
         <v>290</v>
       </c>
       <c r="B132" t="n">
-        <v>70.14</v>
+        <v>70.17</v>
       </c>
     </row>
     <row r="133">
@@ -1410,7 +1410,7 @@
         <v>263</v>
       </c>
       <c r="B133" t="n">
-        <v>69.92</v>
+        <v>69.96</v>
       </c>
     </row>
     <row r="134">
@@ -1418,7 +1418,7 @@
         <v>319</v>
       </c>
       <c r="B134" t="n">
-        <v>69.92</v>
+        <v>69.96</v>
       </c>
     </row>
     <row r="135">
@@ -1426,7 +1426,7 @@
         <v>202</v>
       </c>
       <c r="B135" t="n">
-        <v>69.82</v>
+        <v>69.74</v>
       </c>
     </row>
     <row r="136">
@@ -1434,7 +1434,7 @@
         <v>348</v>
       </c>
       <c r="B136" t="n">
-        <v>69.71</v>
+        <v>69.74</v>
       </c>
     </row>
     <row r="137">
@@ -1442,7 +1442,7 @@
         <v>79</v>
       </c>
       <c r="B137" t="n">
-        <v>69.6</v>
+        <v>69.52</v>
       </c>
     </row>
     <row r="138">
@@ -1450,7 +1450,7 @@
         <v>81</v>
       </c>
       <c r="B138" t="n">
-        <v>69.6</v>
+        <v>69.52</v>
       </c>
     </row>
     <row r="139">
@@ -1458,7 +1458,7 @@
         <v>172</v>
       </c>
       <c r="B139" t="n">
-        <v>69.6</v>
+        <v>69.52</v>
       </c>
     </row>
     <row r="140">
@@ -1466,7 +1466,7 @@
         <v>295</v>
       </c>
       <c r="B140" t="n">
-        <v>69.27</v>
+        <v>69.31</v>
       </c>
     </row>
     <row r="141">
@@ -1474,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="B141" t="n">
-        <v>69.06</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="142">
@@ -1482,7 +1482,7 @@
         <v>255</v>
       </c>
       <c r="B142" t="n">
-        <v>69.06</v>
+        <v>68.98</v>
       </c>
     </row>
     <row r="143">
@@ -1490,7 +1490,7 @@
         <v>106</v>
       </c>
       <c r="B143" t="n">
-        <v>68.95</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="144">
@@ -1498,7 +1498,7 @@
         <v>168</v>
       </c>
       <c r="B144" t="n">
-        <v>68.95</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="145">
@@ -1506,7 +1506,7 @@
         <v>184</v>
       </c>
       <c r="B145" t="n">
-        <v>68.95</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="146">
@@ -1514,7 +1514,7 @@
         <v>264</v>
       </c>
       <c r="B146" t="n">
-        <v>68.84</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="147">
@@ -1522,7 +1522,7 @@
         <v>195</v>
       </c>
       <c r="B147" t="n">
-        <v>68.62</v>
+        <v>68.55</v>
       </c>
     </row>
     <row r="148">
@@ -1530,7 +1530,7 @@
         <v>350</v>
       </c>
       <c r="B148" t="n">
-        <v>68.51</v>
+        <v>68.55</v>
       </c>
     </row>
     <row r="149">
@@ -1538,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="B149" t="n">
-        <v>68.3</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="150">
@@ -1546,39 +1546,39 @@
         <v>176</v>
       </c>
       <c r="B150" t="n">
-        <v>68.3</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="B151" t="n">
-        <v>68.19</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>291</v>
+        <v>155</v>
       </c>
       <c r="B152" t="n">
-        <v>68.19</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="B153" t="n">
-        <v>68.19</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="B154" t="n">
-        <v>68.08</v>
+        <v>68.11</v>
       </c>
     </row>
     <row r="155">
@@ -1586,7 +1586,7 @@
         <v>354</v>
       </c>
       <c r="B155" t="n">
-        <v>68.08</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156">
@@ -1594,7 +1594,7 @@
         <v>359</v>
       </c>
       <c r="B156" t="n">
-        <v>68.08</v>
+        <v>68</v>
       </c>
     </row>
     <row r="157">
@@ -1602,7 +1602,7 @@
         <v>31</v>
       </c>
       <c r="B157" t="n">
-        <v>67.97</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="158">
@@ -1610,47 +1610,47 @@
         <v>120</v>
       </c>
       <c r="B158" t="n">
-        <v>67.97</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="B159" t="n">
-        <v>67.97</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="B160" t="n">
-        <v>67.86</v>
+        <v>67.9</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>206</v>
+        <v>297</v>
       </c>
       <c r="B161" t="n">
-        <v>67.75</v>
+        <v>67.79</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B162" t="n">
-        <v>67.75</v>
+        <v>67.79</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>316</v>
+        <v>206</v>
       </c>
       <c r="B163" t="n">
-        <v>67.75</v>
+        <v>67.68</v>
       </c>
     </row>
     <row r="164">
@@ -1658,7 +1658,7 @@
         <v>71</v>
       </c>
       <c r="B164" t="n">
-        <v>67.64</v>
+        <v>67.57</v>
       </c>
     </row>
     <row r="165">
@@ -1666,7 +1666,7 @@
         <v>117</v>
       </c>
       <c r="B165" t="n">
-        <v>67.64</v>
+        <v>67.57</v>
       </c>
     </row>
     <row r="166">
@@ -1674,7 +1674,7 @@
         <v>52</v>
       </c>
       <c r="B166" t="n">
-        <v>67.32</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="167">
@@ -1682,7 +1682,7 @@
         <v>198</v>
       </c>
       <c r="B167" t="n">
-        <v>67.32</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="168">
@@ -1690,7 +1690,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>67.21</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="169">
@@ -1698,7 +1698,7 @@
         <v>118</v>
       </c>
       <c r="B169" t="n">
-        <v>67.1</v>
+        <v>67.03</v>
       </c>
     </row>
     <row r="170">
@@ -1706,7 +1706,7 @@
         <v>188</v>
       </c>
       <c r="B170" t="n">
-        <v>67.1</v>
+        <v>67.03</v>
       </c>
     </row>
     <row r="171">
@@ -1714,7 +1714,7 @@
         <v>232</v>
       </c>
       <c r="B171" t="n">
-        <v>67.1</v>
+        <v>67.03</v>
       </c>
     </row>
     <row r="172">
@@ -1722,7 +1722,7 @@
         <v>158</v>
       </c>
       <c r="B172" t="n">
-        <v>66.99</v>
+        <v>66.92</v>
       </c>
     </row>
     <row r="173">
@@ -1730,7 +1730,7 @@
         <v>252</v>
       </c>
       <c r="B173" t="n">
-        <v>66.88</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="174">
@@ -1738,7 +1738,7 @@
         <v>380</v>
       </c>
       <c r="B174" t="n">
-        <v>66.88</v>
+        <v>66.81</v>
       </c>
     </row>
     <row r="175">
@@ -1746,7 +1746,7 @@
         <v>95</v>
       </c>
       <c r="B175" t="n">
-        <v>66.78</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="176">
@@ -1754,7 +1754,7 @@
         <v>187</v>
       </c>
       <c r="B176" t="n">
-        <v>66.67</v>
+        <v>66.59</v>
       </c>
     </row>
     <row r="177">
@@ -1762,7 +1762,7 @@
         <v>180</v>
       </c>
       <c r="B177" t="n">
-        <v>66.45</v>
+        <v>66.38</v>
       </c>
     </row>
     <row r="178">
@@ -1770,7 +1770,7 @@
         <v>63</v>
       </c>
       <c r="B178" t="n">
-        <v>66.34</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="179">
@@ -1778,7 +1778,7 @@
         <v>107</v>
       </c>
       <c r="B179" t="n">
-        <v>66.34</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="180">
@@ -1786,7 +1786,7 @@
         <v>112</v>
       </c>
       <c r="B180" t="n">
-        <v>66.34</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="181">
@@ -1794,7 +1794,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>66.34</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="182">
@@ -1802,7 +1802,7 @@
         <v>139</v>
       </c>
       <c r="B182" t="n">
-        <v>66.23</v>
+        <v>66.16</v>
       </c>
     </row>
     <row r="183">
@@ -1810,7 +1810,7 @@
         <v>156</v>
       </c>
       <c r="B183" t="n">
-        <v>66.23</v>
+        <v>66.16</v>
       </c>
     </row>
     <row r="184">
@@ -1818,7 +1818,7 @@
         <v>371</v>
       </c>
       <c r="B184" t="n">
-        <v>66.23</v>
+        <v>66.16</v>
       </c>
     </row>
     <row r="185">
@@ -1826,7 +1826,7 @@
         <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>65.8</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="186">
@@ -1834,7 +1834,7 @@
         <v>256</v>
       </c>
       <c r="B186" t="n">
-        <v>65.8</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="187">
@@ -1842,7 +1842,7 @@
         <v>374</v>
       </c>
       <c r="B187" t="n">
-        <v>65.8</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="188">
@@ -1850,7 +1850,7 @@
         <v>178</v>
       </c>
       <c r="B188" t="n">
-        <v>65.69</v>
+        <v>65.62</v>
       </c>
     </row>
     <row r="189">
@@ -1858,7 +1858,7 @@
         <v>83</v>
       </c>
       <c r="B189" t="n">
-        <v>65.58</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="190">
@@ -1866,7 +1866,7 @@
         <v>144</v>
       </c>
       <c r="B190" t="n">
-        <v>65.58</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="191">
@@ -1874,7 +1874,7 @@
         <v>250</v>
       </c>
       <c r="B191" t="n">
-        <v>65.58</v>
+        <v>65.51</v>
       </c>
     </row>
     <row r="192">
@@ -1882,7 +1882,7 @@
         <v>183</v>
       </c>
       <c r="B192" t="n">
-        <v>65.47</v>
+        <v>65.4</v>
       </c>
     </row>
     <row r="193">
@@ -1890,7 +1890,7 @@
         <v>67</v>
       </c>
       <c r="B193" t="n">
-        <v>65.36</v>
+        <v>65.29</v>
       </c>
     </row>
     <row r="194">
@@ -1898,7 +1898,7 @@
         <v>78</v>
       </c>
       <c r="B194" t="n">
-        <v>65.36</v>
+        <v>65.29</v>
       </c>
     </row>
     <row r="195">
@@ -1906,7 +1906,7 @@
         <v>90</v>
       </c>
       <c r="B195" t="n">
-        <v>65.36</v>
+        <v>65.29</v>
       </c>
     </row>
     <row r="196">
@@ -1914,7 +1914,7 @@
         <v>171</v>
       </c>
       <c r="B196" t="n">
-        <v>65.26</v>
+        <v>65.18</v>
       </c>
     </row>
     <row r="197">
@@ -1922,7 +1922,7 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>65.26</v>
+        <v>65.18</v>
       </c>
     </row>
     <row r="198">
@@ -1930,7 +1930,7 @@
         <v>253</v>
       </c>
       <c r="B198" t="n">
-        <v>65.26</v>
+        <v>65.18</v>
       </c>
     </row>
     <row r="199">
@@ -1938,7 +1938,7 @@
         <v>236</v>
       </c>
       <c r="B199" t="n">
-        <v>65.15</v>
+        <v>65.08</v>
       </c>
     </row>
     <row r="200">
@@ -1946,7 +1946,7 @@
         <v>372</v>
       </c>
       <c r="B200" t="n">
-        <v>65.15</v>
+        <v>65.08</v>
       </c>
     </row>
     <row r="201">
@@ -1954,7 +1954,7 @@
         <v>93</v>
       </c>
       <c r="B201" t="n">
-        <v>65.04</v>
+        <v>64.97</v>
       </c>
     </row>
     <row r="202">
@@ -1962,7 +1962,7 @@
         <v>59</v>
       </c>
       <c r="B202" t="n">
-        <v>64.93</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="203">
@@ -1970,7 +1970,7 @@
         <v>61</v>
       </c>
       <c r="B203" t="n">
-        <v>64.82</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="204">
@@ -1978,7 +1978,7 @@
         <v>234</v>
       </c>
       <c r="B204" t="n">
-        <v>64.82</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="205">
@@ -1986,7 +1986,7 @@
         <v>111</v>
       </c>
       <c r="B205" t="n">
-        <v>64.71</v>
+        <v>64.64</v>
       </c>
     </row>
     <row r="206">
@@ -1994,7 +1994,7 @@
         <v>64</v>
       </c>
       <c r="B206" t="n">
-        <v>64.5</v>
+        <v>64.43</v>
       </c>
     </row>
     <row r="207">
@@ -2002,7 +2002,7 @@
         <v>246</v>
       </c>
       <c r="B207" t="n">
-        <v>64.5</v>
+        <v>64.43</v>
       </c>
     </row>
     <row r="208">
@@ -2010,7 +2010,7 @@
         <v>194</v>
       </c>
       <c r="B208" t="n">
-        <v>64.39</v>
+        <v>64.32</v>
       </c>
     </row>
     <row r="209">
@@ -2018,7 +2018,7 @@
         <v>174</v>
       </c>
       <c r="B209" t="n">
-        <v>64.28</v>
+        <v>64.21</v>
       </c>
     </row>
     <row r="210">
@@ -2026,7 +2026,7 @@
         <v>80</v>
       </c>
       <c r="B210" t="n">
-        <v>64.17</v>
+        <v>64.1</v>
       </c>
     </row>
     <row r="211">
@@ -2034,7 +2034,7 @@
         <v>105</v>
       </c>
       <c r="B211" t="n">
-        <v>64.17</v>
+        <v>64.1</v>
       </c>
     </row>
     <row r="212">
@@ -2042,7 +2042,7 @@
         <v>240</v>
       </c>
       <c r="B212" t="n">
-        <v>64.06</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="213">
@@ -2050,7 +2050,7 @@
         <v>72</v>
       </c>
       <c r="B213" t="n">
-        <v>63.74</v>
+        <v>63.67</v>
       </c>
     </row>
     <row r="214">
@@ -2058,7 +2058,7 @@
         <v>60</v>
       </c>
       <c r="B214" t="n">
-        <v>63.63</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="215">
@@ -2066,7 +2066,7 @@
         <v>53</v>
       </c>
       <c r="B215" t="n">
-        <v>63.41</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="216">
@@ -2074,7 +2074,7 @@
         <v>96</v>
       </c>
       <c r="B216" t="n">
-        <v>63.41</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="217">
@@ -2082,7 +2082,7 @@
         <v>368</v>
       </c>
       <c r="B217" t="n">
-        <v>63.41</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="218">
@@ -2090,7 +2090,7 @@
         <v>164</v>
       </c>
       <c r="B218" t="n">
-        <v>63.3</v>
+        <v>63.23</v>
       </c>
     </row>
     <row r="219">
@@ -2098,7 +2098,7 @@
         <v>361</v>
       </c>
       <c r="B219" t="n">
-        <v>63.3</v>
+        <v>63.23</v>
       </c>
     </row>
     <row r="220">
@@ -2106,7 +2106,7 @@
         <v>73</v>
       </c>
       <c r="B220" t="n">
-        <v>63.19</v>
+        <v>63.12</v>
       </c>
     </row>
     <row r="221">
@@ -2114,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="B221" t="n">
-        <v>62.87</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="222">
@@ -2122,7 +2122,7 @@
         <v>175</v>
       </c>
       <c r="B222" t="n">
-        <v>62.87</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="223">
@@ -2130,7 +2130,7 @@
         <v>249</v>
       </c>
       <c r="B223" t="n">
-        <v>62.87</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="224">
@@ -2138,7 +2138,7 @@
         <v>48</v>
       </c>
       <c r="B224" t="n">
-        <v>62.65</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="225">
@@ -2146,7 +2146,7 @@
         <v>75</v>
       </c>
       <c r="B225" t="n">
-        <v>62.65</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="226">
@@ -2154,7 +2154,7 @@
         <v>237</v>
       </c>
       <c r="B226" t="n">
-        <v>62.65</v>
+        <v>62.58</v>
       </c>
     </row>
     <row r="227">
@@ -2162,7 +2162,7 @@
         <v>191</v>
       </c>
       <c r="B227" t="n">
-        <v>62.54</v>
+        <v>62.47</v>
       </c>
     </row>
     <row r="228">
@@ -2170,7 +2170,7 @@
         <v>77</v>
       </c>
       <c r="B228" t="n">
-        <v>62.43</v>
+        <v>62.36</v>
       </c>
     </row>
     <row r="229">
@@ -2178,7 +2178,7 @@
         <v>103</v>
       </c>
       <c r="B229" t="n">
-        <v>62.43</v>
+        <v>62.36</v>
       </c>
     </row>
     <row r="230">
@@ -2186,7 +2186,7 @@
         <v>148</v>
       </c>
       <c r="B230" t="n">
-        <v>62.32</v>
+        <v>62.26</v>
       </c>
     </row>
     <row r="231">
@@ -2194,7 +2194,7 @@
         <v>69</v>
       </c>
       <c r="B231" t="n">
-        <v>62.11</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="232">
@@ -2202,7 +2202,7 @@
         <v>199</v>
       </c>
       <c r="B232" t="n">
-        <v>62</v>
+        <v>61.93</v>
       </c>
     </row>
     <row r="233">
@@ -2210,7 +2210,7 @@
         <v>135</v>
       </c>
       <c r="B233" t="n">
-        <v>61.89</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="234">
@@ -2218,7 +2218,7 @@
         <v>15</v>
       </c>
       <c r="B234" t="n">
-        <v>61.78</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="235">
@@ -2226,7 +2226,7 @@
         <v>92</v>
       </c>
       <c r="B235" t="n">
-        <v>61.78</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="236">
@@ -2234,7 +2234,7 @@
         <v>57</v>
       </c>
       <c r="B236" t="n">
-        <v>61.56</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="237">
@@ -2242,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="B237" t="n">
-        <v>61.56</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="238">
@@ -2250,7 +2250,7 @@
         <v>65</v>
       </c>
       <c r="B238" t="n">
-        <v>61.45</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="239">
@@ -2258,7 +2258,7 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>61.45</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="240">
@@ -2266,7 +2266,7 @@
         <v>257</v>
       </c>
       <c r="B240" t="n">
-        <v>61.45</v>
+        <v>61.39</v>
       </c>
     </row>
     <row r="241">
@@ -2274,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B241" t="n">
-        <v>61.24</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="242">
@@ -2282,7 +2282,7 @@
         <v>186</v>
       </c>
       <c r="B242" t="n">
-        <v>61.24</v>
+        <v>61.17</v>
       </c>
     </row>
     <row r="243">
@@ -2290,7 +2290,7 @@
         <v>121</v>
       </c>
       <c r="B243" t="n">
-        <v>61.13</v>
+        <v>61.06</v>
       </c>
     </row>
     <row r="244">
@@ -2298,7 +2298,7 @@
         <v>124</v>
       </c>
       <c r="B244" t="n">
-        <v>61.13</v>
+        <v>61.06</v>
       </c>
     </row>
     <row r="245">
@@ -2306,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="B245" t="n">
-        <v>61.02</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="246">
@@ -2314,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="B246" t="n">
-        <v>61.02</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="247">
@@ -2322,7 +2322,7 @@
         <v>62</v>
       </c>
       <c r="B247" t="n">
-        <v>61.02</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="248">
@@ -2330,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="B248" t="n">
-        <v>61.02</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="249">
@@ -2338,7 +2338,7 @@
         <v>102</v>
       </c>
       <c r="B249" t="n">
-        <v>61.02</v>
+        <v>60.95</v>
       </c>
     </row>
     <row r="250">
@@ -2346,7 +2346,7 @@
         <v>87</v>
       </c>
       <c r="B250" t="n">
-        <v>60.8</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="251">
@@ -2354,7 +2354,7 @@
         <v>146</v>
       </c>
       <c r="B251" t="n">
-        <v>60.8</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="252">
@@ -2362,7 +2362,7 @@
         <v>151</v>
       </c>
       <c r="B252" t="n">
-        <v>60.8</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="253">
@@ -2370,7 +2370,7 @@
         <v>207</v>
       </c>
       <c r="B253" t="n">
-        <v>60.8</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="254">
@@ -2378,7 +2378,7 @@
         <v>233</v>
       </c>
       <c r="B254" t="n">
-        <v>60.8</v>
+        <v>60.74</v>
       </c>
     </row>
     <row r="255">
@@ -2386,7 +2386,7 @@
         <v>247</v>
       </c>
       <c r="B255" t="n">
-        <v>60.69</v>
+        <v>60.63</v>
       </c>
     </row>
     <row r="256">
@@ -2394,7 +2394,7 @@
         <v>58</v>
       </c>
       <c r="B256" t="n">
-        <v>60.59</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="257">
@@ -2402,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="B257" t="n">
-        <v>60.59</v>
+        <v>60.52</v>
       </c>
     </row>
     <row r="258">
@@ -2410,7 +2410,7 @@
         <v>66</v>
       </c>
       <c r="B258" t="n">
-        <v>60.48</v>
+        <v>60.41</v>
       </c>
     </row>
     <row r="259">
@@ -2418,7 +2418,7 @@
         <v>201</v>
       </c>
       <c r="B259" t="n">
-        <v>60.48</v>
+        <v>60.41</v>
       </c>
     </row>
     <row r="260">
@@ -2426,7 +2426,7 @@
         <v>43</v>
       </c>
       <c r="B260" t="n">
-        <v>60.37</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="261">
@@ -2434,7 +2434,7 @@
         <v>239</v>
       </c>
       <c r="B261" t="n">
-        <v>60.26</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="262">
@@ -2442,7 +2442,7 @@
         <v>127</v>
       </c>
       <c r="B262" t="n">
-        <v>60.04</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="263">
@@ -2450,7 +2450,7 @@
         <v>251</v>
       </c>
       <c r="B263" t="n">
-        <v>59.93</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="264">
@@ -2458,7 +2458,7 @@
         <v>50</v>
       </c>
       <c r="B264" t="n">
-        <v>59.83</v>
+        <v>59.76</v>
       </c>
     </row>
     <row r="265">
@@ -2466,7 +2466,7 @@
         <v>214</v>
       </c>
       <c r="B265" t="n">
-        <v>59.72</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="266">
@@ -2474,7 +2474,7 @@
         <v>238</v>
       </c>
       <c r="B266" t="n">
-        <v>59.72</v>
+        <v>59.65</v>
       </c>
     </row>
     <row r="267">
@@ -2482,7 +2482,7 @@
         <v>54</v>
       </c>
       <c r="B267" t="n">
-        <v>59.5</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="268">
@@ -2490,7 +2490,7 @@
         <v>56</v>
       </c>
       <c r="B268" t="n">
-        <v>59.5</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="269">
@@ -2498,7 +2498,7 @@
         <v>82</v>
       </c>
       <c r="B269" t="n">
-        <v>59.5</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="270">
@@ -2506,7 +2506,7 @@
         <v>94</v>
       </c>
       <c r="B270" t="n">
-        <v>59.5</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="271">
@@ -2514,7 +2514,7 @@
         <v>128</v>
       </c>
       <c r="B271" t="n">
-        <v>59.5</v>
+        <v>59.44</v>
       </c>
     </row>
     <row r="272">
@@ -2522,7 +2522,7 @@
         <v>230</v>
       </c>
       <c r="B272" t="n">
-        <v>59.39</v>
+        <v>59.33</v>
       </c>
     </row>
     <row r="273">
@@ -2530,7 +2530,7 @@
         <v>244</v>
       </c>
       <c r="B273" t="n">
-        <v>59.39</v>
+        <v>59.33</v>
       </c>
     </row>
     <row r="274">
@@ -2538,7 +2538,7 @@
         <v>126</v>
       </c>
       <c r="B274" t="n">
-        <v>59.28</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="275">
@@ -2546,7 +2546,7 @@
         <v>145</v>
       </c>
       <c r="B275" t="n">
-        <v>59.07</v>
+        <v>59</v>
       </c>
     </row>
     <row r="276">
@@ -2554,7 +2554,7 @@
         <v>254</v>
       </c>
       <c r="B276" t="n">
-        <v>59.07</v>
+        <v>59</v>
       </c>
     </row>
     <row r="277">
@@ -2562,7 +2562,7 @@
         <v>108</v>
       </c>
       <c r="B277" t="n">
-        <v>58.96</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="278">
@@ -2570,7 +2570,7 @@
         <v>147</v>
       </c>
       <c r="B278" t="n">
-        <v>58.96</v>
+        <v>58.89</v>
       </c>
     </row>
     <row r="279">
@@ -2578,7 +2578,7 @@
         <v>84</v>
       </c>
       <c r="B279" t="n">
-        <v>58.74</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="280">
@@ -2586,7 +2586,7 @@
         <v>137</v>
       </c>
       <c r="B280" t="n">
-        <v>58.74</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="281">
@@ -2594,7 +2594,7 @@
         <v>204</v>
       </c>
       <c r="B281" t="n">
-        <v>58.74</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="282">
@@ -2602,7 +2602,7 @@
         <v>222</v>
       </c>
       <c r="B282" t="n">
-        <v>58.74</v>
+        <v>58.68</v>
       </c>
     </row>
     <row r="283">
@@ -2610,7 +2610,7 @@
         <v>224</v>
       </c>
       <c r="B283" t="n">
-        <v>58.52</v>
+        <v>58.46</v>
       </c>
     </row>
     <row r="284">
@@ -2618,7 +2618,7 @@
         <v>109</v>
       </c>
       <c r="B284" t="n">
-        <v>58.41</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="285">
@@ -2626,7 +2626,7 @@
         <v>143</v>
       </c>
       <c r="B285" t="n">
-        <v>58.41</v>
+        <v>58.35</v>
       </c>
     </row>
     <row r="286">
@@ -2634,7 +2634,7 @@
         <v>125</v>
       </c>
       <c r="B286" t="n">
-        <v>58.31</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="287">
@@ -2642,7 +2642,7 @@
         <v>248</v>
       </c>
       <c r="B287" t="n">
-        <v>58.31</v>
+        <v>58.24</v>
       </c>
     </row>
     <row r="288">
@@ -2650,7 +2650,7 @@
         <v>227</v>
       </c>
       <c r="B288" t="n">
-        <v>58.2</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="289">
@@ -2658,7 +2658,7 @@
         <v>243</v>
       </c>
       <c r="B289" t="n">
-        <v>58.2</v>
+        <v>58.13</v>
       </c>
     </row>
     <row r="290">
@@ -2666,7 +2666,7 @@
         <v>113</v>
       </c>
       <c r="B290" t="n">
-        <v>58.09</v>
+        <v>58.03</v>
       </c>
     </row>
     <row r="291">
@@ -2674,7 +2674,7 @@
         <v>218</v>
       </c>
       <c r="B291" t="n">
-        <v>57.98</v>
+        <v>57.92</v>
       </c>
     </row>
     <row r="292">
@@ -2682,7 +2682,7 @@
         <v>129</v>
       </c>
       <c r="B292" t="n">
-        <v>57.87</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="293">
@@ -2690,7 +2690,7 @@
         <v>130</v>
       </c>
       <c r="B293" t="n">
-        <v>57.87</v>
+        <v>57.81</v>
       </c>
     </row>
     <row r="294">
@@ -2698,7 +2698,7 @@
         <v>115</v>
       </c>
       <c r="B294" t="n">
-        <v>57.76</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="295">
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
       <c r="B295" t="n">
-        <v>57.65</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="296">
@@ -2714,7 +2714,7 @@
         <v>219</v>
       </c>
       <c r="B296" t="n">
-        <v>57.65</v>
+        <v>57.59</v>
       </c>
     </row>
     <row r="297">
@@ -2722,7 +2722,7 @@
         <v>51</v>
       </c>
       <c r="B297" t="n">
-        <v>57.55</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="298">
@@ -2730,7 +2730,7 @@
         <v>134</v>
       </c>
       <c r="B298" t="n">
-        <v>57.55</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="299">
@@ -2738,7 +2738,7 @@
         <v>242</v>
       </c>
       <c r="B299" t="n">
-        <v>57.55</v>
+        <v>57.48</v>
       </c>
     </row>
     <row r="300">
@@ -2746,7 +2746,7 @@
         <v>116</v>
       </c>
       <c r="B300" t="n">
-        <v>57.44</v>
+        <v>57.38</v>
       </c>
     </row>
     <row r="301">
@@ -2754,7 +2754,7 @@
         <v>215</v>
       </c>
       <c r="B301" t="n">
-        <v>57.44</v>
+        <v>57.38</v>
       </c>
     </row>
     <row r="302">
@@ -2762,7 +2762,7 @@
         <v>241</v>
       </c>
       <c r="B302" t="n">
-        <v>57.44</v>
+        <v>57.38</v>
       </c>
     </row>
     <row r="303">
@@ -2770,7 +2770,7 @@
         <v>141</v>
       </c>
       <c r="B303" t="n">
-        <v>57.33</v>
+        <v>57.27</v>
       </c>
     </row>
     <row r="304">
@@ -2778,7 +2778,7 @@
         <v>221</v>
       </c>
       <c r="B304" t="n">
-        <v>57.22</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="305">
@@ -2786,7 +2786,7 @@
         <v>216</v>
       </c>
       <c r="B305" t="n">
-        <v>57.11</v>
+        <v>57.05</v>
       </c>
     </row>
     <row r="306">
@@ -2794,7 +2794,7 @@
         <v>150</v>
       </c>
       <c r="B306" t="n">
-        <v>57</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="307">
@@ -2802,7 +2802,7 @@
         <v>217</v>
       </c>
       <c r="B307" t="n">
-        <v>57</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="308">
@@ -2810,7 +2810,7 @@
         <v>220</v>
       </c>
       <c r="B308" t="n">
-        <v>56.89</v>
+        <v>56.83</v>
       </c>
     </row>
     <row r="309">
@@ -2818,7 +2818,7 @@
         <v>138</v>
       </c>
       <c r="B309" t="n">
-        <v>56.79</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="310">
@@ -2826,7 +2826,7 @@
         <v>213</v>
       </c>
       <c r="B310" t="n">
-        <v>56.79</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="311">
@@ -2834,7 +2834,7 @@
         <v>85</v>
       </c>
       <c r="B311" t="n">
-        <v>56.68</v>
+        <v>56.62</v>
       </c>
     </row>
     <row r="312">
@@ -2842,7 +2842,7 @@
         <v>123</v>
       </c>
       <c r="B312" t="n">
-        <v>56.68</v>
+        <v>56.62</v>
       </c>
     </row>
     <row r="313">
@@ -2850,7 +2850,7 @@
         <v>152</v>
       </c>
       <c r="B313" t="n">
-        <v>56.68</v>
+        <v>56.62</v>
       </c>
     </row>
     <row r="314">
@@ -2858,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="B314" t="n">
-        <v>56.57</v>
+        <v>56.51</v>
       </c>
     </row>
     <row r="315">
@@ -2866,7 +2866,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="n">
-        <v>56.46</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="316">
@@ -2874,7 +2874,7 @@
         <v>35</v>
       </c>
       <c r="B316" t="n">
-        <v>56.46</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="317">
@@ -2882,7 +2882,7 @@
         <v>104</v>
       </c>
       <c r="B317" t="n">
-        <v>56.35</v>
+        <v>56.29</v>
       </c>
     </row>
     <row r="318">
@@ -2890,7 +2890,7 @@
         <v>114</v>
       </c>
       <c r="B318" t="n">
-        <v>56.35</v>
+        <v>56.29</v>
       </c>
     </row>
     <row r="319">
@@ -2898,7 +2898,7 @@
         <v>100</v>
       </c>
       <c r="B319" t="n">
-        <v>56.13</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="320">
@@ -2906,7 +2906,7 @@
         <v>149</v>
       </c>
       <c r="B320" t="n">
-        <v>56.03</v>
+        <v>55.97</v>
       </c>
     </row>
     <row r="321">
@@ -2914,7 +2914,7 @@
         <v>231</v>
       </c>
       <c r="B321" t="n">
-        <v>55.92</v>
+        <v>55.86</v>
       </c>
     </row>
     <row r="322">
@@ -2922,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="B322" t="n">
-        <v>55.81</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="323">
@@ -2930,7 +2930,7 @@
         <v>49</v>
       </c>
       <c r="B323" t="n">
-        <v>55.59</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="324">
@@ -2938,7 +2938,7 @@
         <v>70</v>
       </c>
       <c r="B324" t="n">
-        <v>55.59</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="325">
@@ -2946,7 +2946,7 @@
         <v>122</v>
       </c>
       <c r="B325" t="n">
-        <v>55.27</v>
+        <v>55.21</v>
       </c>
     </row>
     <row r="326">
@@ -2954,7 +2954,7 @@
         <v>99</v>
       </c>
       <c r="B326" t="n">
-        <v>55.16</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="327">
@@ -2962,7 +2962,7 @@
         <v>101</v>
       </c>
       <c r="B327" t="n">
-        <v>54.51</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="328">
@@ -2970,7 +2970,7 @@
         <v>18</v>
       </c>
       <c r="B328" t="n">
-        <v>54.18</v>
+        <v>54.12</v>
       </c>
     </row>
     <row r="329">
@@ -2978,7 +2978,7 @@
         <v>229</v>
       </c>
       <c r="B329" t="n">
-        <v>53.96</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="330">
@@ -2986,7 +2986,7 @@
         <v>44</v>
       </c>
       <c r="B330" t="n">
-        <v>53.64</v>
+        <v>53.58</v>
       </c>
     </row>
     <row r="331">
@@ -2994,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="B331" t="n">
-        <v>53.53</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="332">
@@ -3002,7 +3002,7 @@
         <v>23</v>
       </c>
       <c r="B332" t="n">
-        <v>53.53</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="333">
@@ -3010,7 +3010,7 @@
         <v>34</v>
       </c>
       <c r="B333" t="n">
-        <v>53.53</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="334">
@@ -3018,7 +3018,7 @@
         <v>212</v>
       </c>
       <c r="B334" t="n">
-        <v>53.31</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="335">
@@ -3026,7 +3026,7 @@
         <v>225</v>
       </c>
       <c r="B335" t="n">
-        <v>53.31</v>
+        <v>53.25</v>
       </c>
     </row>
     <row r="336">
@@ -3034,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="B336" t="n">
-        <v>52.99</v>
+        <v>52.93</v>
       </c>
     </row>
     <row r="337">
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="B337" t="n">
-        <v>52.88</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="338">
@@ -3050,7 +3050,7 @@
         <v>133</v>
       </c>
       <c r="B338" t="n">
-        <v>52.88</v>
+        <v>52.82</v>
       </c>
     </row>
     <row r="339">
@@ -3058,7 +3058,7 @@
         <v>46</v>
       </c>
       <c r="B339" t="n">
-        <v>52.77</v>
+        <v>52.71</v>
       </c>
     </row>
     <row r="340">
@@ -3066,7 +3066,7 @@
         <v>136</v>
       </c>
       <c r="B340" t="n">
-        <v>52.66</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="341">
@@ -3074,7 +3074,7 @@
         <v>228</v>
       </c>
       <c r="B341" t="n">
-        <v>52.66</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="342">
@@ -3082,7 +3082,7 @@
         <v>33</v>
       </c>
       <c r="B342" t="n">
-        <v>52.44</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="343">
@@ -3090,7 +3090,7 @@
         <v>132</v>
       </c>
       <c r="B343" t="n">
-        <v>52.33</v>
+        <v>52.28</v>
       </c>
     </row>
     <row r="344">
@@ -3098,7 +3098,7 @@
         <v>13</v>
       </c>
       <c r="B344" t="n">
-        <v>52.23</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="345">
@@ -3106,7 +3106,7 @@
         <v>226</v>
       </c>
       <c r="B345" t="n">
-        <v>52.23</v>
+        <v>52.17</v>
       </c>
     </row>
     <row r="346">
@@ -3114,7 +3114,7 @@
         <v>16</v>
       </c>
       <c r="B346" t="n">
-        <v>52.12</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="347">
@@ -3122,7 +3122,7 @@
         <v>19</v>
       </c>
       <c r="B347" t="n">
-        <v>52.12</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="348">
@@ -3130,7 +3130,7 @@
         <v>140</v>
       </c>
       <c r="B348" t="n">
-        <v>52.12</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="349">
@@ -3138,7 +3138,7 @@
         <v>36</v>
       </c>
       <c r="B349" t="n">
-        <v>51.79</v>
+        <v>51.74</v>
       </c>
     </row>
     <row r="350">
@@ -3146,7 +3146,7 @@
         <v>30</v>
       </c>
       <c r="B350" t="n">
-        <v>51.68</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="351">
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="B351" t="n">
-        <v>51.57</v>
+        <v>51.52</v>
       </c>
     </row>
     <row r="352">
@@ -3162,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="B352" t="n">
-        <v>51.47</v>
+        <v>51.41</v>
       </c>
     </row>
     <row r="353">
@@ -3170,7 +3170,7 @@
         <v>20</v>
       </c>
       <c r="B353" t="n">
-        <v>51.36</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="354">
@@ -3178,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="B354" t="n">
-        <v>51.36</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="355">
@@ -3186,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="B355" t="n">
-        <v>51.14</v>
+        <v>51.08</v>
       </c>
     </row>
     <row r="356">
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="B356" t="n">
-        <v>51.03</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="357">
@@ -3202,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="B357" t="n">
-        <v>51.03</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="358">
@@ -3210,7 +3210,7 @@
         <v>235</v>
       </c>
       <c r="B358" t="n">
-        <v>51.03</v>
+        <v>50.98</v>
       </c>
     </row>
     <row r="359">
@@ -3218,7 +3218,7 @@
         <v>131</v>
       </c>
       <c r="B359" t="n">
-        <v>50.71</v>
+        <v>50.65</v>
       </c>
     </row>
     <row r="360">
@@ -3226,7 +3226,7 @@
         <v>25</v>
       </c>
       <c r="B360" t="n">
-        <v>50.6</v>
+        <v>50.54</v>
       </c>
     </row>
     <row r="361">
@@ -3234,7 +3234,7 @@
         <v>39</v>
       </c>
       <c r="B361" t="n">
-        <v>50.38</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="362">
@@ -3242,7 +3242,7 @@
         <v>97</v>
       </c>
       <c r="B362" t="n">
-        <v>50.27</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="363">
@@ -3250,7 +3250,7 @@
         <v>26</v>
       </c>
       <c r="B363" t="n">
-        <v>50.16</v>
+        <v>50.11</v>
       </c>
     </row>
     <row r="364">
@@ -3258,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="B364" t="n">
-        <v>50.05</v>
+        <v>50</v>
       </c>
     </row>
     <row r="365">
@@ -3266,7 +3266,7 @@
         <v>8</v>
       </c>
       <c r="B365" t="n">
-        <v>49.62</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="366">
@@ -3274,7 +3274,7 @@
         <v>223</v>
       </c>
       <c r="B366" t="n">
-        <v>49.62</v>
+        <v>49.57</v>
       </c>
     </row>
     <row r="367">
@@ -3282,7 +3282,7 @@
         <v>119</v>
       </c>
       <c r="B367" t="n">
-        <v>49.29</v>
+        <v>49.24</v>
       </c>
     </row>
     <row r="368">
@@ -3290,7 +3290,7 @@
         <v>10</v>
       </c>
       <c r="B368" t="n">
-        <v>49.08</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="369">
@@ -3298,7 +3298,7 @@
         <v>32</v>
       </c>
       <c r="B369" t="n">
-        <v>48.75</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="370">
@@ -3306,7 +3306,7 @@
         <v>41</v>
       </c>
       <c r="B370" t="n">
-        <v>48.75</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="371">
@@ -3314,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="B371" t="n">
-        <v>48.53</v>
+        <v>48.48</v>
       </c>
     </row>
     <row r="372">
@@ -3322,7 +3322,7 @@
         <v>27</v>
       </c>
       <c r="B372" t="n">
-        <v>47.88</v>
+        <v>47.83</v>
       </c>
     </row>
     <row r="373">
@@ -3330,7 +3330,7 @@
         <v>40</v>
       </c>
       <c r="B373" t="n">
-        <v>47.67</v>
+        <v>47.61</v>
       </c>
     </row>
     <row r="374">
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="n">
-        <v>47.56</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="375">
@@ -3346,7 +3346,7 @@
         <v>24</v>
       </c>
       <c r="B375" t="n">
-        <v>47.23</v>
+        <v>47.18</v>
       </c>
     </row>
     <row r="376">
@@ -3354,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="B376" t="n">
-        <v>46.8</v>
+        <v>46.75</v>
       </c>
     </row>
     <row r="377">
@@ -3362,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="B377" t="n">
-        <v>46.58</v>
+        <v>46.53</v>
       </c>
     </row>
     <row r="378">
@@ -3370,7 +3370,7 @@
         <v>22</v>
       </c>
       <c r="B378" t="n">
-        <v>46.04</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="379">
@@ -3378,7 +3378,7 @@
         <v>88</v>
       </c>
       <c r="B379" t="n">
-        <v>46.04</v>
+        <v>45.99</v>
       </c>
     </row>
     <row r="380">
@@ -3386,7 +3386,7 @@
         <v>42</v>
       </c>
       <c r="B380" t="n">
-        <v>45.93</v>
+        <v>45.88</v>
       </c>
     </row>
     <row r="381">
@@ -3394,7 +3394,7 @@
         <v>6</v>
       </c>
       <c r="B381" t="n">
-        <v>45.71</v>
+        <v>45.66</v>
       </c>
     </row>
     <row r="382">
@@ -3402,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B382" t="n">
-        <v>45.49</v>
+        <v>45.44</v>
       </c>
     </row>
   </sheetData>
